--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA Phonetic Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB7E7A-0A0E-4CA1-A4D7-7E7AAA88F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64762C9-3C59-4C96-ADD2-EC00BE682EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -1991,7 +1991,967 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="209">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4094,315 +5054,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13751,7 +14402,7 @@
       <sheetName val="LME_Phonetic_PA_lh_slope_b1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="2">
           <cell r="C2">
             <v>1.7949999999999999</v>
@@ -15220,17 +15871,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="J2:Q10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="J2:Q10" totalsRowShown="0" headerRowDxfId="208" dataDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="205" totalsRowBorderDxfId="204">
   <autoFilter ref="J2:Q10" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p. val." dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{0603EEF6-D289-414E-9A6C-56120260E64A}" name="p. val. adj." dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="199"/>
+    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p. val." dataDxfId="198"/>
+    <tableColumn id="4" xr3:uid="{0603EEF6-D289-414E-9A6C-56120260E64A}" name="p. val. adj." dataDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="196">
       <calculatedColumnFormula>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15239,17 +15890,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="J13:Q21" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="J13:Q21" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192" totalsRowBorderDxfId="191">
   <autoFilter ref="J13:Q21" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p. val." dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{2C1E6FA3-F11F-4631-B0BB-23F7331F52BE}" name="p. val. adj." dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="188"/>
+    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="186"/>
+    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p. val." dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{2C1E6FA3-F11F-4631-B0BB-23F7331F52BE}" name="p. val. adj." dataDxfId="184"/>
+    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="183">
       <calculatedColumnFormula>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15258,17 +15909,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="S2:Z10" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="S2:Z10" totalsRowShown="0" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181" tableBorderDxfId="179" totalsRowBorderDxfId="178">
   <autoFilter ref="S2:Z10" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="175"/>
+    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="174"/>
+    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="172"/>
+    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="171"/>
+    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="170">
       <calculatedColumnFormula>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15277,17 +15928,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:H10" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:H10" totalsRowShown="0" headerRowDxfId="169" dataDxfId="167" headerRowBorderDxfId="168" tableBorderDxfId="166" totalsRowBorderDxfId="165">
   <autoFilter ref="A2:H10" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="163"/>
+    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="162"/>
+    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="161"/>
+    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="160"/>
+    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="158"/>
+    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="157">
       <calculatedColumnFormula>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15296,17 +15947,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A13:H21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A13:H21" totalsRowShown="0" headerRowDxfId="156" dataDxfId="154" headerRowBorderDxfId="155" tableBorderDxfId="153" totalsRowBorderDxfId="152">
   <autoFilter ref="A13:H21" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="150"/>
+    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="148"/>
+    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="147"/>
+    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="146"/>
+    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="145"/>
+    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="144">
       <calculatedColumnFormula>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15315,17 +15966,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="S13:Z21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="S13:Z21" totalsRowShown="0" headerRowDxfId="143" dataDxfId="141" headerRowBorderDxfId="142" tableBorderDxfId="140" totalsRowBorderDxfId="139">
   <autoFilter ref="S13:Z21" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="136"/>
+    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="131">
       <calculatedColumnFormula>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15635,8 +16286,8 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AI1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView showGridLines="0" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13:BJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -17131,30 +17782,30 @@
     <mergeCell ref="AC1:AK1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I5 H7:I8 H10:I10 Q3:R5 Q7:R7 Q10:R10 Z3:AA5 Z7:AA8 Z10:AA10 AI3:AJ5 AI7:AJ8 AI10:AJ10">
-    <cfRule type="cellIs" dxfId="124" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J5 J7:J8 J10 S3:S5 S7:S8 S10 AB3:AB5 AB7:AB8 AB10 AK3:AK5 AK7:AK8 AK10">
-    <cfRule type="containsText" dxfId="120" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="62" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="61" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="60" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="59" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17170,8 +17821,8 @@
   </sheetPr>
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="S2" sqref="B1:S1048576"/>
+    <sheetView showGridLines="0" topLeftCell="Q2" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:BA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19349,30 +20000,30 @@
     <mergeCell ref="AL1:AT1"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I10 H7:I8 H3:I5 BA10:BB10 BA7:BB8 BA3:BB5 AR10:AS10 AR7:AS8 AR3:AS5 AI10:AJ10 AI7:AJ8 AI3:AJ5 Z10:AA10 Z7:AA8 Z3:AA5 Q10:R10 Q7:R8 Q3:R5">
-    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC10 BC7:BC8 BC3:BC5 AT3:AT5 AT7:AT8 AT10 AK10 AK7:AK8 AK3:AK5 AB10 AB7:AB8 AB3:AB5 S10 S7:S8 S3:S5 J10 J7:J8 J3:J5">
-    <cfRule type="containsText" dxfId="112" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="50" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="49" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="48" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="47" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19388,8 +20039,8 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20890,30 +21541,30 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I8 H10:I10 Q3:R7 Q10:R10 Z3:AA8 Z10:AA10 AI3:AJ8 AI10:AJ10 H1:I1 Q1:R1 Z1:AA1 AI1:AJ1">
-    <cfRule type="cellIs" dxfId="108" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8 J10 S3:S8 S10 AB3:AB8 AB10 AK3:AK8 AK10 J1 S1 AB1 AK1">
-    <cfRule type="containsText" dxfId="104" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="34" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="33" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="32" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="31" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20929,8 +21580,8 @@
   </sheetPr>
   <dimension ref="A1:BE15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34:Q38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23119,30 +23770,30 @@
     <mergeCell ref="AU1:BC1"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I10 BA10:BB10 AR10:AS10 AI10:AJ10 Z10:AA10 Q10:R10 Q3:R8 Z3:AA8 AI3:AJ8 AR3:AS8 BA3:BB8 H3:I8">
-    <cfRule type="cellIs" dxfId="100" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC10 AT10 AK10 AB10 S10 J10 J3:J8 S3:S8 AB3:AB8 AK3:AK8 AT3:AT8 BC3:BC8">
-    <cfRule type="containsText" dxfId="96" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="22" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="21" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="20" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="19" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23155,8 +23806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="G5:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25422,77 +26073,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 O14:Q21 X14:Y17 F3:H11 O3:Q11 X3:Y11">
-    <cfRule type="cellIs" dxfId="92" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="91" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:Q11">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:Q21">
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H21">
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H10">
-    <cfRule type="cellIs" dxfId="87" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H10">
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q10">
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q10">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Y10">
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F21">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H21">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:Q21">
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q21">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:Y21">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA Phonetic Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\antoi\GitHub\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42011F-1689-4429-8A52-C9117A78BF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33C20E3-F487-4D3B-B07E-D3F8C5C4D07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
   <si>
     <t>Predictors</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>L*^[H] vs. ^[L*H]</t>
-  </si>
-  <si>
-    <t>p.adj. (bf=16)</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
@@ -11544,10 +11541,10 @@
       <sheetName val="Mode_PA_l_f0_b0"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="I1" t="str">
-            <v>p.adj. (bf=16)</v>
+            <v>p.adj (BH)</v>
           </cell>
         </row>
         <row r="2">
@@ -11573,13 +11570,13 @@
             <v>10</v>
           </cell>
           <cell r="H2">
-            <v>8.8675999999999995E-14</v>
+            <v>8.8700000000000003E-14</v>
           </cell>
           <cell r="I2">
-            <v>1.42E-12</v>
+            <v>5.5399999999999996E-13</v>
           </cell>
           <cell r="J2" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="3">
@@ -11605,13 +11602,13 @@
             <v>10</v>
           </cell>
           <cell r="H3">
-            <v>1.4942000000000001E-13</v>
+            <v>1.49E-13</v>
           </cell>
           <cell r="I3">
-            <v>2.3900000000000001E-12</v>
+            <v>9.0899999999999996E-13</v>
           </cell>
           <cell r="J3" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="4">
@@ -11637,13 +11634,13 @@
             <v>9.9700000000000006</v>
           </cell>
           <cell r="H4">
-            <v>3.3343000000000002E-14</v>
+            <v>3.3300000000000001E-14</v>
           </cell>
           <cell r="I4">
-            <v>5.3299999999999995E-13</v>
+            <v>2.97E-13</v>
           </cell>
           <cell r="J4" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="5">
@@ -11669,13 +11666,13 @@
             <v>9.92</v>
           </cell>
           <cell r="H5">
-            <v>4.7961999999999998E-14</v>
+            <v>4.7999999999999997E-14</v>
           </cell>
           <cell r="I5">
-            <v>7.6699999999999996E-13</v>
+            <v>3.7500000000000002E-13</v>
           </cell>
           <cell r="J5" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="6">
@@ -11698,13 +11695,13 @@
             <v>10</v>
           </cell>
           <cell r="H6">
-            <v>8.8675999999999995E-14</v>
+            <v>8.8700000000000003E-14</v>
           </cell>
           <cell r="I6">
-            <v>1.42E-12</v>
+            <v>5.5399999999999996E-13</v>
           </cell>
           <cell r="J6" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="7">
@@ -11730,7 +11727,7 @@
             <v>1</v>
           </cell>
           <cell r="I7">
-            <v>0.99990000000000001</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="8">
@@ -11753,13 +11750,13 @@
             <v>10.08</v>
           </cell>
           <cell r="H8">
-            <v>1.6252E-13</v>
+            <v>1.6300000000000001E-13</v>
           </cell>
           <cell r="I8">
-            <v>2.5999999999999998E-12</v>
+            <v>9.48E-13</v>
           </cell>
           <cell r="J8" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="9">
@@ -11782,13 +11779,13 @@
             <v>9.82</v>
           </cell>
           <cell r="H9">
-            <v>7.3137999999999996E-13</v>
+            <v>7.3100000000000002E-13</v>
           </cell>
           <cell r="I9">
-            <v>1.1700000000000001E-11</v>
+            <v>4.0600000000000001E-12</v>
           </cell>
           <cell r="J9" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
       </sheetData>
@@ -11807,12 +11804,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.84172260348789496</v>
+            <v>0.84172260407700195</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.114226885016232</v>
+            <v>0.11422688459456599</v>
           </cell>
         </row>
       </sheetData>
@@ -11855,7 +11852,10 @@
             <v>7.1999999999999998E-3</v>
           </cell>
           <cell r="I2">
-            <v>0.1154</v>
+            <v>1.03E-2</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="3">
@@ -11884,10 +11884,10 @@
             <v>6.1999999999999998E-3</v>
           </cell>
           <cell r="I3">
-            <v>9.9500000000000005E-2</v>
+            <v>9.1999999999999998E-3</v>
           </cell>
           <cell r="J3" t="str">
-            <v>(p&lt;0.1)</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="4">
@@ -11916,7 +11916,10 @@
             <v>6.7999999999999996E-3</v>
           </cell>
           <cell r="I4">
-            <v>0.1084</v>
+            <v>9.9000000000000008E-3</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -11945,10 +11948,10 @@
             <v>3.5999999999999999E-3</v>
           </cell>
           <cell r="I5">
-            <v>5.6800000000000003E-2</v>
+            <v>5.5999999999999999E-3</v>
           </cell>
           <cell r="J5" t="str">
-            <v>(p&lt;0.1)</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="6">
@@ -11974,7 +11977,10 @@
             <v>7.1999999999999998E-3</v>
           </cell>
           <cell r="I6">
-            <v>0.1154</v>
+            <v>1.03E-2</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="7">
@@ -12000,7 +12006,10 @@
             <v>1.54E-2</v>
           </cell>
           <cell r="I7">
-            <v>0.2472</v>
+            <v>2.1000000000000001E-2</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="8">
@@ -12023,13 +12032,13 @@
             <v>3.7</v>
           </cell>
           <cell r="H8">
-            <v>9.8802000000000004E-4</v>
+            <v>9.8799999999999995E-4</v>
           </cell>
           <cell r="I8">
-            <v>1.5800000000000002E-2</v>
+            <v>1.9E-3</v>
           </cell>
           <cell r="J8" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="9">
@@ -12055,10 +12064,10 @@
             <v>4.7000000000000002E-3</v>
           </cell>
           <cell r="I9">
-            <v>7.5399999999999995E-2</v>
+            <v>7.1000000000000004E-3</v>
           </cell>
           <cell r="J9" t="str">
-            <v>(p&lt;0.1)</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -12075,6 +12084,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="J1" t="str">
+            <v>p.adj (BH)</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="C2">
             <v>0.14799999999999999</v>
@@ -12098,7 +12112,7 @@
             <v>0.64029999999999998</v>
           </cell>
           <cell r="J2">
-            <v>0.99990000000000001</v>
+            <v>0.71579999999999999</v>
           </cell>
         </row>
         <row r="3">
@@ -12121,13 +12135,13 @@
             <v>10.89</v>
           </cell>
           <cell r="I3">
-            <v>2.2510999999999998E-5</v>
+            <v>2.2500000000000001E-5</v>
           </cell>
           <cell r="J3">
-            <v>3.6000000000000002E-4</v>
+            <v>5.3600000000000002E-5</v>
           </cell>
           <cell r="K3" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="4">
@@ -12153,10 +12167,10 @@
             <v>1.2999999999999999E-3</v>
           </cell>
           <cell r="J4">
-            <v>2.0500000000000001E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="K4" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -12182,7 +12196,10 @@
             <v>7.9000000000000008E-3</v>
           </cell>
           <cell r="J5">
-            <v>0.12620000000000001</v>
+            <v>1.1299999999999999E-2</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="6">
@@ -12208,7 +12225,10 @@
             <v>3.2000000000000001E-2</v>
           </cell>
           <cell r="J6">
-            <v>0.51180000000000003</v>
+            <v>4.2999999999999997E-2</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="7">
@@ -12234,7 +12254,7 @@
             <v>0.38729999999999998</v>
           </cell>
           <cell r="J7">
-            <v>0.99990000000000001</v>
+            <v>0.46110000000000001</v>
           </cell>
         </row>
         <row r="8">
@@ -12260,7 +12280,7 @@
             <v>0.25130000000000002</v>
           </cell>
           <cell r="J8">
-            <v>0.99990000000000001</v>
+            <v>0.31259999999999999</v>
           </cell>
         </row>
         <row r="9">
@@ -12286,7 +12306,7 @@
             <v>0.35859999999999997</v>
           </cell>
           <cell r="J9">
-            <v>0.99990000000000001</v>
+            <v>0.43099999999999999</v>
           </cell>
         </row>
         <row r="10">
@@ -12312,10 +12332,10 @@
             <v>1.1999999999999999E-3</v>
           </cell>
           <cell r="J10">
-            <v>1.9400000000000001E-2</v>
+            <v>2.2000000000000001E-3</v>
           </cell>
           <cell r="K10" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="11">
@@ -12341,7 +12361,7 @@
             <v>1</v>
           </cell>
           <cell r="J11">
-            <v>0.99990000000000001</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="12">
@@ -12367,7 +12387,7 @@
             <v>1</v>
           </cell>
           <cell r="J12">
-            <v>0.99990000000000001</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="13">
@@ -12393,10 +12413,10 @@
             <v>2.2000000000000001E-3</v>
           </cell>
           <cell r="J13">
-            <v>3.4700000000000002E-2</v>
+            <v>3.5000000000000001E-3</v>
           </cell>
           <cell r="K13" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -12436,7 +12456,7 @@
             <v>0.30819999999999997</v>
           </cell>
           <cell r="J2">
-            <v>0.99990000000000001</v>
+            <v>0.37590000000000001</v>
           </cell>
         </row>
         <row r="3">
@@ -12462,10 +12482,10 @@
             <v>1.1000000000000001E-3</v>
           </cell>
           <cell r="J3">
-            <v>1.83E-2</v>
+            <v>2.0999999999999999E-3</v>
           </cell>
           <cell r="K3" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="4">
@@ -12488,13 +12508,13 @@
             <v>8.41</v>
           </cell>
           <cell r="I4">
-            <v>6.6662999999999998E-4</v>
+            <v>6.6699999999999995E-4</v>
           </cell>
           <cell r="J4">
-            <v>1.0699999999999999E-2</v>
+            <v>1.2999999999999999E-3</v>
           </cell>
           <cell r="K4" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -12520,7 +12540,10 @@
             <v>7.6300000000000007E-2</v>
           </cell>
           <cell r="J5">
-            <v>0.99990000000000001</v>
+            <v>9.9900000000000003E-2</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>(p&lt;0.1)</v>
           </cell>
         </row>
         <row r="6">
@@ -12546,7 +12569,10 @@
             <v>1.0699999999999999E-2</v>
           </cell>
           <cell r="J6">
-            <v>0.17180000000000001</v>
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="7">
@@ -12572,7 +12598,10 @@
             <v>1.32E-2</v>
           </cell>
           <cell r="J7">
-            <v>0.21060000000000001</v>
+            <v>1.8100000000000002E-2</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="8">
@@ -12598,7 +12627,7 @@
             <v>1</v>
           </cell>
           <cell r="J8">
-            <v>0.99990000000000001</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="9">
@@ -12621,13 +12650,13 @@
             <v>15.66</v>
           </cell>
           <cell r="I9">
-            <v>2.9433999999999997E-7</v>
+            <v>2.9400000000000001E-7</v>
           </cell>
           <cell r="J9">
-            <v>4.7099999999999998E-6</v>
+            <v>8.5499999999999997E-7</v>
           </cell>
           <cell r="K9" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="10">
@@ -12653,10 +12682,10 @@
             <v>2.5999999999999999E-3</v>
           </cell>
           <cell r="J10">
-            <v>4.1099999999999998E-2</v>
+            <v>4.1000000000000003E-3</v>
           </cell>
           <cell r="K10" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="11">
@@ -12679,13 +12708,13 @@
             <v>58.19</v>
           </cell>
           <cell r="I11">
-            <v>2.9952999999999999E-6</v>
+            <v>3.0000000000000001E-6</v>
           </cell>
           <cell r="J11">
-            <v>4.7899999999999999E-5</v>
+            <v>8.0600000000000008E-6</v>
           </cell>
           <cell r="K11" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="12">
@@ -12708,13 +12737,13 @@
             <v>19.010000000000002</v>
           </cell>
           <cell r="I12">
-            <v>1.2896000000000001E-4</v>
+            <v>1.2899999999999999E-4</v>
           </cell>
           <cell r="J12">
-            <v>2.0999999999999999E-3</v>
+            <v>2.8299999999999999E-4</v>
           </cell>
           <cell r="K12" t="str">
-            <v>p&lt;0.01</v>
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="13">
@@ -12740,7 +12769,7 @@
             <v>0.6119</v>
           </cell>
           <cell r="J13">
-            <v>0.99990000000000001</v>
+            <v>0.69530000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -12780,7 +12809,7 @@
             <v>7.7200000000000005E-2</v>
           </cell>
           <cell r="J2">
-            <v>0.99990000000000001</v>
+            <v>0.10050000000000001</v>
           </cell>
         </row>
         <row r="3">
@@ -12806,7 +12835,7 @@
             <v>0.64139999999999997</v>
           </cell>
           <cell r="J3">
-            <v>0.99990000000000001</v>
+            <v>0.71579999999999999</v>
           </cell>
         </row>
         <row r="4">
@@ -12829,10 +12858,10 @@
             <v>612.97</v>
           </cell>
           <cell r="I4">
-            <v>5.1078999999999997E-5</v>
+            <v>5.1100000000000002E-5</v>
           </cell>
           <cell r="J4">
-            <v>8.1700000000000002E-4</v>
+            <v>1.17E-4</v>
           </cell>
           <cell r="K4" t="str">
             <v>p&lt;0.001</v>
@@ -12861,7 +12890,10 @@
             <v>0.04</v>
           </cell>
           <cell r="J5">
-            <v>0.64070000000000005</v>
+            <v>5.3199999999999997E-2</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>(p&lt;0.1)</v>
           </cell>
         </row>
         <row r="6">
@@ -12887,10 +12919,10 @@
             <v>3.0999999999999999E-3</v>
           </cell>
           <cell r="J6">
-            <v>4.9399999999999999E-2</v>
+            <v>4.7999999999999996E-3</v>
           </cell>
           <cell r="K6" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="7">
@@ -12913,13 +12945,13 @@
             <v>612.26</v>
           </cell>
           <cell r="I7">
-            <v>2.1849E-5</v>
+            <v>2.1800000000000001E-5</v>
           </cell>
           <cell r="J7">
-            <v>3.5E-4</v>
+            <v>5.24E-5</v>
           </cell>
           <cell r="K7" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="8">
@@ -12942,13 +12974,13 @@
             <v>612.4</v>
           </cell>
           <cell r="I8">
-            <v>2.678E-4</v>
+            <v>2.6800000000000001E-4</v>
           </cell>
           <cell r="J8">
-            <v>4.3E-3</v>
+            <v>5.6800000000000004E-4</v>
           </cell>
           <cell r="K8" t="str">
-            <v>p&lt;0.01</v>
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="9">
@@ -12971,13 +13003,13 @@
             <v>612.6</v>
           </cell>
           <cell r="I9">
-            <v>1.4524999999999999E-23</v>
+            <v>1.4500000000000001E-23</v>
           </cell>
           <cell r="J9">
-            <v>2.3200000000000001E-22</v>
+            <v>1.21E-21</v>
           </cell>
           <cell r="K9" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="10">
@@ -13000,13 +13032,13 @@
             <v>614.21</v>
           </cell>
           <cell r="I10">
-            <v>3.5084E-4</v>
+            <v>3.5100000000000002E-4</v>
           </cell>
           <cell r="J10">
-            <v>5.5999999999999999E-3</v>
+            <v>7.3300000000000004E-4</v>
           </cell>
           <cell r="K10" t="str">
-            <v>p&lt;0.01</v>
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="11">
@@ -13029,13 +13061,13 @@
             <v>612.67999999999995</v>
           </cell>
           <cell r="I11">
-            <v>2.6027000000000001E-14</v>
+            <v>2.6E-14</v>
           </cell>
           <cell r="J11">
-            <v>4.1599999999999999E-13</v>
+            <v>2.4999999999999999E-13</v>
           </cell>
           <cell r="K11" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="12">
@@ -13058,13 +13090,13 @@
             <v>612.36</v>
           </cell>
           <cell r="I12">
-            <v>1.1359E-6</v>
+            <v>1.1400000000000001E-6</v>
           </cell>
           <cell r="J12">
-            <v>1.8199999999999999E-5</v>
+            <v>3.1700000000000001E-6</v>
           </cell>
           <cell r="K12" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="13">
@@ -13087,13 +13119,13 @@
             <v>612.34</v>
           </cell>
           <cell r="I13">
-            <v>2.377E-16</v>
+            <v>2.3800000000000002E-16</v>
           </cell>
           <cell r="J13">
-            <v>3.8000000000000002E-15</v>
+            <v>4.1000000000000004E-15</v>
           </cell>
           <cell r="K13" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
       </sheetData>
@@ -13133,7 +13165,7 @@
             <v>0.8427</v>
           </cell>
           <cell r="J2">
-            <v>0.99990000000000001</v>
+            <v>0.91600000000000004</v>
           </cell>
         </row>
         <row r="3">
@@ -13159,7 +13191,7 @@
             <v>0.52129999999999999</v>
           </cell>
           <cell r="J3">
-            <v>0.99990000000000001</v>
+            <v>0.60060000000000002</v>
           </cell>
         </row>
         <row r="4">
@@ -13182,13 +13214,13 @@
             <v>611.97</v>
           </cell>
           <cell r="I4">
-            <v>1.0435E-6</v>
+            <v>1.04E-6</v>
           </cell>
           <cell r="J4">
-            <v>1.6699999999999999E-5</v>
+            <v>2.92E-6</v>
           </cell>
           <cell r="K4" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="5">
@@ -13214,7 +13246,7 @@
             <v>0.64890000000000003</v>
           </cell>
           <cell r="J5">
-            <v>0.99990000000000001</v>
+            <v>0.72099999999999997</v>
           </cell>
         </row>
         <row r="6">
@@ -13237,13 +13269,13 @@
             <v>612.13</v>
           </cell>
           <cell r="I6">
-            <v>4.9284999999999997E-7</v>
+            <v>4.9299999999999998E-7</v>
           </cell>
           <cell r="J6">
-            <v>7.8900000000000007E-6</v>
+            <v>1.42E-6</v>
           </cell>
           <cell r="K6" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="7">
@@ -13266,13 +13298,13 @@
             <v>611.64</v>
           </cell>
           <cell r="I7">
-            <v>3.5680999999999998E-10</v>
+            <v>3.5700000000000001E-10</v>
           </cell>
           <cell r="J7">
-            <v>5.7100000000000003E-9</v>
+            <v>1.5400000000000001E-9</v>
           </cell>
           <cell r="K7" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="8">
@@ -13298,7 +13330,7 @@
             <v>0.4113</v>
           </cell>
           <cell r="J8">
-            <v>0.99990000000000001</v>
+            <v>0.48730000000000001</v>
           </cell>
         </row>
         <row r="9">
@@ -13324,7 +13356,10 @@
             <v>6.6E-3</v>
           </cell>
           <cell r="J9">
-            <v>0.105</v>
+            <v>9.7999999999999997E-3</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="10">
@@ -13347,13 +13382,13 @@
             <v>614.47</v>
           </cell>
           <cell r="I10">
-            <v>1.0919E-8</v>
+            <v>1.09E-8</v>
           </cell>
           <cell r="J10">
-            <v>1.7499999999999999E-7</v>
+            <v>3.7800000000000001E-8</v>
           </cell>
           <cell r="K10" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="11">
@@ -13379,7 +13414,7 @@
             <v>0.65959999999999996</v>
           </cell>
           <cell r="J11">
-            <v>0.99990000000000001</v>
+            <v>0.72960000000000003</v>
           </cell>
         </row>
         <row r="12">
@@ -13405,7 +13440,7 @@
             <v>0.31340000000000001</v>
           </cell>
           <cell r="J12">
-            <v>0.99990000000000001</v>
+            <v>0.37969999999999998</v>
           </cell>
         </row>
         <row r="13">
@@ -13431,7 +13466,7 @@
             <v>0.26050000000000001</v>
           </cell>
           <cell r="J13">
-            <v>0.99990000000000001</v>
+            <v>0.32240000000000002</v>
           </cell>
         </row>
       </sheetData>
@@ -13448,6 +13483,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="J1" t="str">
+            <v>p.adj (BH)</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="C2">
             <v>-0.373</v>
@@ -13471,7 +13511,7 @@
             <v>0.89970000000000006</v>
           </cell>
           <cell r="J2">
-            <v>0.99990000000000001</v>
+            <v>0.96379999999999999</v>
           </cell>
         </row>
         <row r="3">
@@ -13497,7 +13537,7 @@
             <v>0.86080000000000001</v>
           </cell>
           <cell r="J3">
-            <v>0.99990000000000001</v>
+            <v>0.92759999999999998</v>
           </cell>
         </row>
         <row r="4">
@@ -13520,13 +13560,13 @@
             <v>612.95000000000005</v>
           </cell>
           <cell r="I4">
-            <v>4.4612999999999999E-4</v>
+            <v>4.46E-4</v>
           </cell>
           <cell r="J4">
-            <v>7.1000000000000004E-3</v>
+            <v>9.0700000000000004E-4</v>
           </cell>
           <cell r="K4" t="str">
-            <v>p&lt;0.01</v>
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="5">
@@ -13552,7 +13592,7 @@
             <v>0.95469999999999999</v>
           </cell>
           <cell r="J5">
-            <v>0.99990000000000001</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="6">
@@ -13578,10 +13618,10 @@
             <v>6.2600000000000004E-4</v>
           </cell>
           <cell r="J6">
-            <v>0.01</v>
+            <v>1.1999999999999999E-3</v>
           </cell>
           <cell r="K6" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="7">
@@ -13604,13 +13644,13 @@
             <v>612.5</v>
           </cell>
           <cell r="I7">
-            <v>7.8343000000000005E-5</v>
+            <v>7.8300000000000006E-5</v>
           </cell>
           <cell r="J7">
-            <v>1.2999999999999999E-3</v>
+            <v>1.75E-4</v>
           </cell>
           <cell r="K7" t="str">
-            <v>p&lt;0.01</v>
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="8">
@@ -13633,13 +13673,13 @@
             <v>613.54999999999995</v>
           </cell>
           <cell r="I8">
-            <v>2.9174999999999999E-9</v>
+            <v>2.9199999999999998E-9</v>
           </cell>
           <cell r="J8">
-            <v>4.6700000000000001E-8</v>
+            <v>1.0999999999999999E-8</v>
           </cell>
           <cell r="K8" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="9">
@@ -13665,7 +13705,7 @@
             <v>0.4325</v>
           </cell>
           <cell r="J9">
-            <v>0.99990000000000001</v>
+            <v>0.50760000000000005</v>
           </cell>
         </row>
         <row r="10">
@@ -13691,7 +13731,10 @@
             <v>2.06E-2</v>
           </cell>
           <cell r="J10">
-            <v>0.3296</v>
+            <v>2.8000000000000001E-2</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="11">
@@ -13714,13 +13757,13 @@
             <v>613.47</v>
           </cell>
           <cell r="I11">
-            <v>1.9481999999999999E-7</v>
+            <v>1.9500000000000001E-7</v>
           </cell>
           <cell r="J11">
-            <v>3.1200000000000002E-6</v>
+            <v>5.7400000000000003E-7</v>
           </cell>
           <cell r="K11" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="12">
@@ -13743,13 +13786,13 @@
             <v>613.20000000000005</v>
           </cell>
           <cell r="I12">
-            <v>1.3071000000000001E-7</v>
+            <v>1.31E-7</v>
           </cell>
           <cell r="J12">
-            <v>2.0899999999999999E-6</v>
+            <v>3.9000000000000002E-7</v>
           </cell>
           <cell r="K12" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="13">
@@ -13775,7 +13818,7 @@
             <v>0.44529999999999997</v>
           </cell>
           <cell r="J13">
-            <v>0.99990000000000001</v>
+            <v>0.5202</v>
           </cell>
         </row>
       </sheetData>
@@ -13815,7 +13858,10 @@
             <v>4.0500000000000001E-2</v>
           </cell>
           <cell r="J2">
-            <v>0.64749999999999996</v>
+            <v>5.3600000000000002E-2</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>(p&lt;0.1)</v>
           </cell>
         </row>
         <row r="3">
@@ -13841,7 +13887,7 @@
             <v>0.58079999999999998</v>
           </cell>
           <cell r="J3">
-            <v>0.99990000000000001</v>
+            <v>0.66610000000000003</v>
           </cell>
         </row>
         <row r="4">
@@ -13864,13 +13910,13 @@
             <v>609.5</v>
           </cell>
           <cell r="I4">
-            <v>2.9629999999999998E-9</v>
+            <v>2.9600000000000001E-9</v>
           </cell>
           <cell r="J4">
-            <v>4.7400000000000001E-8</v>
+            <v>1.0999999999999999E-8</v>
           </cell>
           <cell r="K4" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="5">
@@ -13896,7 +13942,7 @@
             <v>0.16520000000000001</v>
           </cell>
           <cell r="J5">
-            <v>0.99990000000000001</v>
+            <v>0.20960000000000001</v>
           </cell>
         </row>
         <row r="6">
@@ -13919,13 +13965,13 @@
             <v>609.74</v>
           </cell>
           <cell r="I6">
-            <v>7.8666000000000002E-6</v>
+            <v>7.8699999999999992E-6</v>
           </cell>
           <cell r="J6">
-            <v>1.26E-4</v>
+            <v>2.0299999999999999E-5</v>
           </cell>
           <cell r="K6" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="7">
@@ -13948,13 +13994,13 @@
             <v>608.38</v>
           </cell>
           <cell r="I7">
-            <v>1.1352999999999999E-10</v>
+            <v>1.1399999999999999E-10</v>
           </cell>
           <cell r="J7">
-            <v>1.8199999999999999E-9</v>
+            <v>5.2800000000000004E-10</v>
           </cell>
           <cell r="K7" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="8">
@@ -13977,13 +14023,13 @@
             <v>611.16</v>
           </cell>
           <cell r="I8">
-            <v>2.1782E-4</v>
+            <v>2.1800000000000001E-4</v>
           </cell>
           <cell r="J8">
-            <v>3.5000000000000001E-3</v>
+            <v>4.6999999999999999E-4</v>
           </cell>
           <cell r="K8" t="str">
-            <v>p&lt;0.01</v>
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="9">
@@ -14006,13 +14052,13 @@
             <v>609.98</v>
           </cell>
           <cell r="I9">
-            <v>3.6640000000000001E-22</v>
+            <v>3.6599999999999998E-22</v>
           </cell>
           <cell r="J9">
-            <v>5.86E-21</v>
+            <v>1.5199999999999999E-20</v>
           </cell>
           <cell r="K9" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="10">
@@ -14038,7 +14084,10 @@
             <v>6.2799999999999995E-2</v>
           </cell>
           <cell r="J10">
-            <v>0.99990000000000001</v>
+            <v>8.2600000000000007E-2</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>(p&lt;0.1)</v>
           </cell>
         </row>
         <row r="11">
@@ -14061,13 +14110,13 @@
             <v>610.98</v>
           </cell>
           <cell r="I11">
-            <v>1.1284999999999999E-14</v>
+            <v>1.13E-14</v>
           </cell>
           <cell r="J11">
-            <v>1.8100000000000001E-13</v>
+            <v>1.3500000000000001E-13</v>
           </cell>
           <cell r="K11" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="12">
@@ -14090,13 +14139,13 @@
             <v>610.25</v>
           </cell>
           <cell r="I12">
-            <v>1.6299000000000001E-5</v>
+            <v>1.63E-5</v>
           </cell>
           <cell r="J12">
-            <v>2.61E-4</v>
+            <v>4.0000000000000003E-5</v>
           </cell>
           <cell r="K12" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="13">
@@ -14119,13 +14168,13 @@
             <v>610.23</v>
           </cell>
           <cell r="I13">
-            <v>3.1564E-18</v>
+            <v>3.1600000000000001E-18</v>
           </cell>
           <cell r="J13">
-            <v>5.0500000000000001E-17</v>
+            <v>9.8799999999999998E-17</v>
           </cell>
           <cell r="K13" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
       </sheetData>
@@ -14189,13 +14238,13 @@
             <v>10.01</v>
           </cell>
           <cell r="H2">
-            <v>4.1473000000000002E-14</v>
+            <v>4.15E-14</v>
           </cell>
           <cell r="I2">
-            <v>6.64E-13</v>
+            <v>3.4599999999999999E-13</v>
           </cell>
           <cell r="J2" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="3">
@@ -14221,13 +14270,13 @@
             <v>10</v>
           </cell>
           <cell r="H3">
-            <v>1.3555E-14</v>
+            <v>1.36E-14</v>
           </cell>
           <cell r="I3">
-            <v>2.1700000000000001E-13</v>
+            <v>1.55E-13</v>
           </cell>
           <cell r="J3" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="4">
@@ -14253,13 +14302,13 @@
             <v>9.98</v>
           </cell>
           <cell r="H4">
-            <v>1.6688E-14</v>
+            <v>1.6700000000000001E-14</v>
           </cell>
           <cell r="I4">
-            <v>2.6700000000000002E-13</v>
+            <v>1.7399999999999999E-13</v>
           </cell>
           <cell r="J4" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="5">
@@ -14285,13 +14334,13 @@
             <v>9.73</v>
           </cell>
           <cell r="H5">
-            <v>6.7788999999999998E-14</v>
+            <v>6.7799999999999999E-14</v>
           </cell>
           <cell r="I5">
-            <v>1.08E-12</v>
+            <v>4.4600000000000002E-13</v>
           </cell>
           <cell r="J5" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="6">
@@ -14314,13 +14363,13 @@
             <v>10.01</v>
           </cell>
           <cell r="H6">
-            <v>4.1473000000000002E-14</v>
+            <v>4.15E-14</v>
           </cell>
           <cell r="I6">
-            <v>6.64E-13</v>
+            <v>3.4599999999999999E-13</v>
           </cell>
           <cell r="J6" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="7">
@@ -14343,13 +14392,13 @@
             <v>19.22</v>
           </cell>
           <cell r="H7">
-            <v>8.7969000000000001E-23</v>
+            <v>8.7999999999999998E-23</v>
           </cell>
           <cell r="I7">
-            <v>1.4100000000000001E-21</v>
+            <v>4.4000000000000001E-21</v>
           </cell>
           <cell r="J7" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="8">
@@ -14372,13 +14421,13 @@
             <v>10.27</v>
           </cell>
           <cell r="H8">
-            <v>2.3215999999999999E-14</v>
+            <v>2.3200000000000001E-14</v>
           </cell>
           <cell r="I8">
-            <v>3.7099999999999998E-13</v>
+            <v>2.3200000000000002E-13</v>
           </cell>
           <cell r="J8" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="9">
@@ -14401,13 +14450,13 @@
             <v>9.61</v>
           </cell>
           <cell r="H9">
-            <v>1.1703999999999999E-12</v>
+            <v>1.1700000000000001E-12</v>
           </cell>
           <cell r="I9">
-            <v>1.8700000000000001E-11</v>
+            <v>6.3600000000000004E-12</v>
           </cell>
           <cell r="J9" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
       </sheetData>
@@ -14471,13 +14520,13 @@
             <v>11.54</v>
           </cell>
           <cell r="H2">
-            <v>1.5283E-9</v>
+            <v>1.5300000000000001E-9</v>
           </cell>
           <cell r="I2">
-            <v>2.4500000000000001E-8</v>
+            <v>6.0699999999999999E-9</v>
           </cell>
           <cell r="J2" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="3">
@@ -14503,13 +14552,13 @@
             <v>11.51</v>
           </cell>
           <cell r="H3">
-            <v>9.6946000000000008E-10</v>
+            <v>9.6900000000000007E-10</v>
           </cell>
           <cell r="I3">
-            <v>1.55E-8</v>
+            <v>4.0400000000000001E-9</v>
           </cell>
           <cell r="J3" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="4">
@@ -14535,13 +14584,13 @@
             <v>12.55</v>
           </cell>
           <cell r="H4">
-            <v>7.0697999999999997E-10</v>
+            <v>7.0700000000000004E-10</v>
           </cell>
           <cell r="I4">
-            <v>1.13E-8</v>
+            <v>3E-9</v>
           </cell>
           <cell r="J4" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="5">
@@ -14567,13 +14616,13 @@
             <v>19.16</v>
           </cell>
           <cell r="H5">
-            <v>3.2048999999999998E-13</v>
+            <v>3.2E-13</v>
           </cell>
           <cell r="I5">
-            <v>5.1300000000000002E-12</v>
+            <v>1.8199999999999999E-12</v>
           </cell>
           <cell r="J5" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="6">
@@ -14596,13 +14645,13 @@
             <v>11.54</v>
           </cell>
           <cell r="H6">
-            <v>1.5283E-9</v>
+            <v>1.5300000000000001E-9</v>
           </cell>
           <cell r="I6">
-            <v>2.4500000000000001E-8</v>
+            <v>6.0699999999999999E-9</v>
           </cell>
           <cell r="J6" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="7">
@@ -14628,10 +14677,10 @@
             <v>1.4E-3</v>
           </cell>
           <cell r="I7">
-            <v>2.2599999999999999E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="J7" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="8">
@@ -14654,13 +14703,13 @@
             <v>44.2</v>
           </cell>
           <cell r="H8">
-            <v>2.5025E-23</v>
+            <v>2.5000000000000001E-23</v>
           </cell>
           <cell r="I8">
-            <v>4.0000000000000002E-22</v>
+            <v>1.56E-21</v>
           </cell>
           <cell r="J8" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="9">
@@ -14683,13 +14732,13 @@
             <v>28.57</v>
           </cell>
           <cell r="H9">
-            <v>1.2849E-15</v>
+            <v>1.2800000000000001E-15</v>
           </cell>
           <cell r="I9">
-            <v>2.0599999999999999E-14</v>
+            <v>1.6799999999999998E-14</v>
           </cell>
           <cell r="J9" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
       </sheetData>
@@ -14708,12 +14757,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.70158142523917799</v>
+            <v>0.70158142490362896</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>0.164413606105271</v>
+            <v>0.16441360628863</v>
           </cell>
         </row>
       </sheetData>
@@ -14753,13 +14802,13 @@
             <v>10.76</v>
           </cell>
           <cell r="H2">
-            <v>9.2697000000000004E-6</v>
+            <v>9.2699999999999993E-6</v>
           </cell>
           <cell r="I2">
-            <v>1.4799999999999999E-4</v>
+            <v>2.3200000000000001E-5</v>
           </cell>
           <cell r="J2" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="3">
@@ -14785,13 +14834,13 @@
             <v>10.74</v>
           </cell>
           <cell r="H3">
-            <v>8.8490999999999997E-6</v>
+            <v>8.85E-6</v>
           </cell>
           <cell r="I3">
-            <v>1.4200000000000001E-4</v>
+            <v>2.26E-5</v>
           </cell>
           <cell r="J3" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="4">
@@ -14817,13 +14866,13 @@
             <v>10.89</v>
           </cell>
           <cell r="H4">
-            <v>7.4220000000000003E-6</v>
+            <v>7.4200000000000001E-6</v>
           </cell>
           <cell r="I4">
-            <v>1.1900000000000001E-4</v>
+            <v>1.9300000000000002E-5</v>
           </cell>
           <cell r="J4" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="5">
@@ -14849,10 +14898,10 @@
             <v>11.65</v>
           </cell>
           <cell r="H5">
-            <v>4.8637999999999997E-5</v>
+            <v>4.8600000000000002E-5</v>
           </cell>
           <cell r="I5">
-            <v>7.7800000000000005E-4</v>
+            <v>1.13E-4</v>
           </cell>
           <cell r="J5" t="str">
             <v>p&lt;0.001</v>
@@ -14878,13 +14927,13 @@
             <v>10.76</v>
           </cell>
           <cell r="H6">
-            <v>9.2697000000000004E-6</v>
+            <v>9.2699999999999993E-6</v>
           </cell>
           <cell r="I6">
-            <v>1.4799999999999999E-4</v>
+            <v>2.3200000000000001E-5</v>
           </cell>
           <cell r="J6" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="7">
@@ -14907,13 +14956,13 @@
             <v>34.81</v>
           </cell>
           <cell r="H7">
-            <v>7.3066999999999999E-6</v>
+            <v>7.3100000000000003E-6</v>
           </cell>
           <cell r="I7">
-            <v>1.17E-4</v>
+            <v>1.9199999999999999E-5</v>
           </cell>
           <cell r="J7" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="8">
@@ -14936,13 +14985,13 @@
             <v>14.93</v>
           </cell>
           <cell r="H8">
-            <v>1.9436000000000002E-5</v>
+            <v>1.9400000000000001E-5</v>
           </cell>
           <cell r="I8">
-            <v>3.1100000000000002E-4</v>
+            <v>4.71E-5</v>
           </cell>
           <cell r="J8" t="str">
-            <v>p&lt;0.001</v>
+            <v>p&lt;0.0001</v>
           </cell>
         </row>
         <row r="9">
@@ -14965,10 +15014,10 @@
             <v>12.49</v>
           </cell>
           <cell r="H9">
-            <v>5.5705000000000003E-5</v>
+            <v>5.5699999999999999E-5</v>
           </cell>
           <cell r="I9">
-            <v>8.9099999999999997E-4</v>
+            <v>1.27E-4</v>
           </cell>
           <cell r="J9" t="str">
             <v>p&lt;0.001</v>
@@ -14990,12 +15039,12 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
-            <v>0.76096721775151999</v>
+            <v>0.76096721773815101</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>8.7289487535243293E-2</v>
+            <v>8.72894875399952E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -15038,10 +15087,10 @@
             <v>1.4E-3</v>
           </cell>
           <cell r="I2">
-            <v>2.1899999999999999E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="J2" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="3">
@@ -15070,10 +15119,10 @@
             <v>1.4E-3</v>
           </cell>
           <cell r="I3">
-            <v>2.1999999999999999E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="J3" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="4">
@@ -15102,10 +15151,10 @@
             <v>1.4E-3</v>
           </cell>
           <cell r="I4">
-            <v>2.1700000000000001E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="J4" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -15134,10 +15183,10 @@
             <v>1.5E-3</v>
           </cell>
           <cell r="I5">
-            <v>2.35E-2</v>
+            <v>2.5000000000000001E-3</v>
           </cell>
           <cell r="J5" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="6">
@@ -15166,10 +15215,10 @@
             <v>1.4E-3</v>
           </cell>
           <cell r="I6">
-            <v>2.1899999999999999E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="J6" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="7">
@@ -15195,13 +15244,13 @@
             <v>4.58</v>
           </cell>
           <cell r="H7">
-            <v>9.8087000000000001E-4</v>
+            <v>9.810000000000001E-4</v>
           </cell>
           <cell r="I7">
-            <v>1.5699999999999999E-2</v>
+            <v>1.9E-3</v>
           </cell>
           <cell r="J7" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="8">
@@ -15230,10 +15279,10 @@
             <v>1E-3</v>
           </cell>
           <cell r="I8">
-            <v>1.6E-2</v>
+            <v>1.9E-3</v>
           </cell>
           <cell r="J8" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="9">
@@ -15262,10 +15311,10 @@
             <v>1.2999999999999999E-3</v>
           </cell>
           <cell r="I9">
-            <v>2.06E-2</v>
+            <v>2.3E-3</v>
           </cell>
           <cell r="J9" t="str">
-            <v>p&lt;0.05</v>
+            <v>p&lt;0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -15690,8 +15739,8 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15805,7 +15854,7 @@
       </c>
       <c r="I2" s="31" t="str">
         <f>[1]Mode_PA_l_f0_b0!I1</f>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>36</v>
@@ -15840,7 +15889,7 @@
       </c>
       <c r="R2" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S2" s="53" t="str">
         <f t="shared" si="0"/>
@@ -15876,7 +15925,7 @@
       </c>
       <c r="AA2" s="31" t="str">
         <f t="shared" ref="AA2" si="6">I2</f>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>J2</f>
@@ -15912,7 +15961,7 @@
       </c>
       <c r="AJ2" s="31" t="str">
         <f t="shared" si="7"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK2" s="53" t="str">
         <f t="shared" si="7"/>
@@ -15955,15 +16004,15 @@
       </c>
       <c r="H3" s="115">
         <f>[1]Mode_PA_l_f0_b0!H2</f>
-        <v>8.8675999999999995E-14</v>
+        <v>8.8700000000000003E-14</v>
       </c>
       <c r="I3" s="115">
         <f>[1]Mode_PA_l_f0_b0!I2</f>
-        <v>1.42E-12</v>
+        <v>5.5399999999999996E-13</v>
       </c>
       <c r="J3" s="100" t="str">
         <f>[1]Mode_PA_l_f0_b0!J2</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K3" s="54">
         <f>[1]Mode_PA_l_f0_b0!B3</f>
@@ -15991,15 +16040,15 @@
       </c>
       <c r="Q3" s="115">
         <f>[1]Mode_PA_l_f0_b0!H3</f>
-        <v>1.4942000000000001E-13</v>
+        <v>1.49E-13</v>
       </c>
       <c r="R3" s="115">
         <f>[1]Mode_PA_l_f0_b0!I3</f>
-        <v>2.3900000000000001E-12</v>
+        <v>9.0899999999999996E-13</v>
       </c>
       <c r="S3" s="95" t="str">
         <f>[1]Mode_PA_l_f0_b0!J3</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T3" s="63">
         <f>[1]Mode_PA_l_f0_b0!B4</f>
@@ -16027,15 +16076,15 @@
       </c>
       <c r="Z3" s="119">
         <f>[1]Mode_PA_l_f0_b0!H4</f>
-        <v>3.3343000000000002E-14</v>
+        <v>3.3300000000000001E-14</v>
       </c>
       <c r="AA3" s="119">
         <f>[1]Mode_PA_l_f0_b0!I4</f>
-        <v>5.3299999999999995E-13</v>
+        <v>2.97E-13</v>
       </c>
       <c r="AB3" s="95" t="str">
         <f>[1]Mode_PA_l_f0_b0!J4</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC3" s="70">
         <f>[1]Mode_PA_l_f0_b0!B5</f>
@@ -16063,15 +16112,15 @@
       </c>
       <c r="AI3" s="119">
         <f>[1]Mode_PA_l_f0_b0!H5</f>
-        <v>4.7961999999999998E-14</v>
+        <v>4.7999999999999997E-14</v>
       </c>
       <c r="AJ3" s="119">
         <f>[1]Mode_PA_l_f0_b0!I5</f>
-        <v>7.6699999999999996E-13</v>
+        <v>3.7500000000000002E-13</v>
       </c>
       <c r="AK3" s="95" t="str">
         <f>[1]Mode_PA_l_f0_b0!J5</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL3" s="70">
         <f>[2]Mode_PA_l_f0_r2!B3</f>
@@ -16112,15 +16161,15 @@
       </c>
       <c r="H4" s="116">
         <f>[3]Mode_PA_h_f0_b0!H2</f>
-        <v>4.1473000000000002E-14</v>
+        <v>4.15E-14</v>
       </c>
       <c r="I4" s="116">
         <f>[3]Mode_PA_h_f0_b0!I2</f>
-        <v>6.64E-13</v>
+        <v>3.4599999999999999E-13</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>[3]Mode_PA_h_f0_b0!J2</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K4" s="55">
         <f>[3]Mode_PA_h_f0_b0!B3</f>
@@ -16148,15 +16197,15 @@
       </c>
       <c r="Q4" s="116">
         <f>[3]Mode_PA_h_f0_b0!H3</f>
-        <v>1.3555E-14</v>
+        <v>1.36E-14</v>
       </c>
       <c r="R4" s="116">
         <f>[3]Mode_PA_h_f0_b0!I3</f>
-        <v>2.1700000000000001E-13</v>
+        <v>1.55E-13</v>
       </c>
       <c r="S4" s="96" t="str">
         <f>[3]Mode_PA_h_f0_b0!J3</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T4" s="64">
         <f>[3]Mode_PA_h_f0_b0!B4</f>
@@ -16184,15 +16233,15 @@
       </c>
       <c r="Z4" s="120">
         <f>[3]Mode_PA_h_f0_b0!H4</f>
-        <v>1.6688E-14</v>
+        <v>1.6700000000000001E-14</v>
       </c>
       <c r="AA4" s="120">
         <f>[3]Mode_PA_h_f0_b0!I4</f>
-        <v>2.6700000000000002E-13</v>
+        <v>1.7399999999999999E-13</v>
       </c>
       <c r="AB4" s="96" t="str">
         <f>[3]Mode_PA_h_f0_b0!J4</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC4" s="71">
         <f>[3]Mode_PA_h_f0_b0!B5</f>
@@ -16220,15 +16269,15 @@
       </c>
       <c r="AI4" s="120">
         <f>[3]Mode_PA_h_f0_b0!H5</f>
-        <v>6.7788999999999998E-14</v>
+        <v>6.7799999999999999E-14</v>
       </c>
       <c r="AJ4" s="120">
         <f>[3]Mode_PA_h_f0_b0!I5</f>
-        <v>1.08E-12</v>
+        <v>4.4600000000000002E-13</v>
       </c>
       <c r="AK4" s="96" t="str">
         <f>[3]Mode_PA_h_f0_b0!J5</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL4" s="71">
         <f>[4]Mode_PA_h_f0_r2!B3</f>
@@ -16269,15 +16318,15 @@
       </c>
       <c r="H5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!H2</f>
-        <v>1.5283E-9</v>
+        <v>1.5300000000000001E-9</v>
       </c>
       <c r="I5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!I2</f>
-        <v>2.4500000000000001E-8</v>
+        <v>6.0699999999999999E-9</v>
       </c>
       <c r="J5" s="102" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J2</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K5" s="56">
         <f>[5]Mode_PA_f0_exc_b0!B3</f>
@@ -16305,15 +16354,15 @@
       </c>
       <c r="Q5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!H3</f>
-        <v>9.6946000000000008E-10</v>
+        <v>9.6900000000000007E-10</v>
       </c>
       <c r="R5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!I3</f>
-        <v>1.55E-8</v>
+        <v>4.0400000000000001E-9</v>
       </c>
       <c r="S5" s="97" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J3</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T5" s="65">
         <f>[5]Mode_PA_f0_exc_b0!B4</f>
@@ -16341,15 +16390,15 @@
       </c>
       <c r="Z5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!H4</f>
-        <v>7.0697999999999997E-10</v>
+        <v>7.0700000000000004E-10</v>
       </c>
       <c r="AA5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!I4</f>
-        <v>1.13E-8</v>
+        <v>3E-9</v>
       </c>
       <c r="AB5" s="97" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J4</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC5" s="72">
         <f>[5]Mode_PA_f0_exc_b0!B5</f>
@@ -16377,23 +16426,23 @@
       </c>
       <c r="AI5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!H5</f>
-        <v>3.2048999999999998E-13</v>
+        <v>3.2E-13</v>
       </c>
       <c r="AJ5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!I5</f>
-        <v>5.1300000000000002E-12</v>
+        <v>1.8199999999999999E-12</v>
       </c>
       <c r="AK5" s="97" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J5</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL5" s="72">
         <f>[6]Mode_PA_lh_slope_r2!B3</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="AM5" s="22">
         <f>[6]Mode_PA_lh_slope_r2!B2</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16430,7 +16479,7 @@
       </c>
       <c r="I6" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J6" s="46" t="str">
         <f>J2</f>
@@ -16466,7 +16515,7 @@
       </c>
       <c r="R6" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S6" s="58" t="str">
         <f>J2</f>
@@ -16502,7 +16551,7 @@
       </c>
       <c r="AA6" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB6" s="58" t="str">
         <f>J2</f>
@@ -16538,7 +16587,7 @@
       </c>
       <c r="AJ6" s="34" t="str">
         <f t="shared" si="10"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK6" s="58" t="str">
         <f t="shared" si="10"/>
@@ -16581,15 +16630,15 @@
       </c>
       <c r="H7" s="115">
         <f>[7]Mode_PA_l_t_b0!H2</f>
-        <v>9.2697000000000004E-6</v>
+        <v>9.2699999999999993E-6</v>
       </c>
       <c r="I7" s="115">
         <f>[7]Mode_PA_l_t_b0!I2</f>
-        <v>1.4799999999999999E-4</v>
+        <v>2.3200000000000001E-5</v>
       </c>
       <c r="J7" s="103" t="str">
         <f>[7]Mode_PA_l_t_b0!J2</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K7" s="59">
         <f>[7]Mode_PA_l_t_b0!B3</f>
@@ -16617,15 +16666,15 @@
       </c>
       <c r="Q7" s="115">
         <f>[7]Mode_PA_l_t_b0!H3</f>
-        <v>8.8490999999999997E-6</v>
+        <v>8.85E-6</v>
       </c>
       <c r="R7" s="115">
         <f>[7]Mode_PA_l_t_b0!I3</f>
-        <v>1.4200000000000001E-4</v>
+        <v>2.26E-5</v>
       </c>
       <c r="S7" s="98" t="str">
         <f>[7]Mode_PA_l_t_b0!J3</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T7" s="67">
         <f>[7]Mode_PA_l_t_b0!B4</f>
@@ -16653,15 +16702,15 @@
       </c>
       <c r="Z7" s="119">
         <f>[7]Mode_PA_l_t_b0!H4</f>
-        <v>7.4220000000000003E-6</v>
+        <v>7.4200000000000001E-6</v>
       </c>
       <c r="AA7" s="119">
         <f>[7]Mode_PA_l_t_b0!I4</f>
-        <v>1.1900000000000001E-4</v>
+        <v>1.9300000000000002E-5</v>
       </c>
       <c r="AB7" s="98" t="str">
         <f>[7]Mode_PA_l_t_b0!J4</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC7" s="70">
         <f>[7]Mode_PA_l_t_b0!B5</f>
@@ -16689,11 +16738,11 @@
       </c>
       <c r="AI7" s="119">
         <f>[7]Mode_PA_l_t_b0!H5</f>
-        <v>4.8637999999999997E-5</v>
+        <v>4.8600000000000002E-5</v>
       </c>
       <c r="AJ7" s="119">
         <f>[7]Mode_PA_l_t_b0!I5</f>
-        <v>7.7800000000000005E-4</v>
+        <v>1.13E-4</v>
       </c>
       <c r="AK7" s="98" t="str">
         <f>[7]Mode_PA_l_t_b0!J5</f>
@@ -16701,11 +16750,11 @@
       </c>
       <c r="AL7" s="70">
         <f>[8]Mode_PA_l_t_r2!B3</f>
-        <v>8.7289487535243293E-2</v>
+        <v>8.72894875399952E-2</v>
       </c>
       <c r="AM7" s="17">
         <f>[8]Mode_PA_l_t_r2!B2</f>
-        <v>0.76096721775151999</v>
+        <v>0.76096721773815101</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16742,11 +16791,11 @@
       </c>
       <c r="I8" s="117">
         <f>[9]Mode_PA_h_t_b0!I2</f>
-        <v>2.1899999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J8" s="102" t="str">
         <f>[9]Mode_PA_h_t_b0!J2</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="K8" s="60">
         <f>[9]Mode_PA_h_t_b0!B3</f>
@@ -16778,11 +16827,11 @@
       </c>
       <c r="R8" s="115">
         <f>[9]Mode_PA_h_t_b0!I3</f>
-        <v>2.1999999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="S8" s="97" t="str">
         <f>[9]Mode_PA_h_t_b0!J3</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="T8" s="68">
         <f>[9]Mode_PA_h_t_b0!B4</f>
@@ -16814,11 +16863,11 @@
       </c>
       <c r="AA8" s="121">
         <f>[9]Mode_PA_h_t_b0!I4</f>
-        <v>2.1700000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="AB8" s="97" t="str">
         <f>[9]Mode_PA_h_t_b0!J4</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC8" s="72">
         <f>[9]Mode_PA_h_t_b0!B5</f>
@@ -16850,19 +16899,19 @@
       </c>
       <c r="AJ8" s="121">
         <f>[9]Mode_PA_h_t_b0!I5</f>
-        <v>2.35E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AK8" s="97" t="str">
         <f>[9]Mode_PA_h_t_b0!J5</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AL8" s="72">
         <f>[10]Mode_PA_h_t_r2!B3</f>
-        <v>0.114226885016232</v>
+        <v>0.11422688459456599</v>
       </c>
       <c r="AM8" s="22">
         <f>[10]Mode_PA_h_t_r2!B2</f>
-        <v>0.84172260348789496</v>
+        <v>0.84172260407700195</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16899,7 +16948,7 @@
       </c>
       <c r="I9" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J9" s="46" t="str">
         <f>J2</f>
@@ -16935,7 +16984,7 @@
       </c>
       <c r="R9" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S9" s="58" t="str">
         <f>J2</f>
@@ -16971,7 +17020,7 @@
       </c>
       <c r="AA9" s="34" t="str">
         <f t="shared" si="12"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB9" s="58" t="str">
         <f>J2</f>
@@ -17007,7 +17056,7 @@
       </c>
       <c r="AJ9" s="34" t="str">
         <f t="shared" si="13"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK9" s="58" t="str">
         <f>J2</f>
@@ -17054,11 +17103,11 @@
       </c>
       <c r="I10" s="118">
         <f>[11]Mode_PA_lh_slope_b0!I2</f>
-        <v>0.1154</v>
-      </c>
-      <c r="J10" s="104">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J10" s="104" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J2</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="K10" s="61">
         <f>[11]Mode_PA_lh_slope_b0!B3</f>
@@ -17090,11 +17139,11 @@
       </c>
       <c r="R10" s="94">
         <f>[11]Mode_PA_lh_slope_b0!I3</f>
-        <v>9.9500000000000005E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="S10" s="99" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J3</f>
-        <v>(p&lt;0.1)</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="T10" s="69">
         <f>[11]Mode_PA_lh_slope_b0!B4</f>
@@ -17126,11 +17175,11 @@
       </c>
       <c r="AA10" s="122">
         <f>[11]Mode_PA_lh_slope_b0!I4</f>
-        <v>0.1084</v>
-      </c>
-      <c r="AB10" s="99">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="AB10" s="99" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J4</f>
-        <v>0</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC10" s="69">
         <f>[11]Mode_PA_lh_slope_b0!B5</f>
@@ -17162,19 +17211,19 @@
       </c>
       <c r="AJ10" s="122">
         <f>[11]Mode_PA_lh_slope_b0!I5</f>
-        <v>5.6800000000000003E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="AK10" s="99" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J5</f>
-        <v>(p&lt;0.1)</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AL10" s="69">
         <f>[6]Mode_PA_lh_slope_r2!B3</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="AM10" s="25">
         <f>[6]Mode_PA_lh_slope_r2!B2</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
   </sheetData>
@@ -17239,8 +17288,8 @@
   </sheetPr>
   <dimension ref="A1:BE10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q2" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17386,8 +17435,9 @@
       <c r="H2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="107" t="s">
-        <v>57</v>
+      <c r="I2" s="107" t="str">
+        <f>[12]Mode_PA_l_f0_b1!J1</f>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J2" s="107" t="s">
         <v>36</v>
@@ -17422,7 +17472,7 @@
       </c>
       <c r="R2" s="109" t="str">
         <f t="shared" si="0"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S2" s="110" t="str">
         <f t="shared" si="0"/>
@@ -17458,7 +17508,7 @@
       </c>
       <c r="AA2" s="109" t="str">
         <f t="shared" si="1"/>
-        <v>p.adj. (bf=16)</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB2" s="110" t="str">
         <f t="shared" si="1"/>
@@ -17493,80 +17543,80 @@
         <v>p. val.</v>
       </c>
       <c r="AJ2" s="109" t="str">
-        <f t="shared" ref="AJ2" si="3">I2</f>
-        <v>p.adj. (bf=16)</v>
+        <f>AA2</f>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK2" s="110" t="str">
         <f>J2</f>
         <v>sig.</v>
       </c>
       <c r="AL2" s="108" t="str">
-        <f t="shared" ref="AL2:AR2" si="4">B2</f>
+        <f t="shared" ref="AL2:AR2" si="3">B2</f>
         <v>β1</v>
       </c>
       <c r="AM2" s="105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AN2" s="105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5% CI</v>
       </c>
       <c r="AO2" s="105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>97.5% CI</v>
       </c>
       <c r="AP2" s="105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>t</v>
       </c>
       <c r="AQ2" s="105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>df</v>
       </c>
       <c r="AR2" s="109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>p. val.</v>
       </c>
       <c r="AS2" s="109" t="str">
-        <f t="shared" ref="AS2" si="5">I2</f>
-        <v>p.adj. (bf=16)</v>
+        <f t="shared" ref="AS2" si="4">I2</f>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AT2" s="110" t="str">
         <f>J2</f>
         <v>sig.</v>
       </c>
       <c r="AU2" s="108" t="str">
-        <f t="shared" ref="AU2:BA2" si="6">B2</f>
+        <f t="shared" ref="AU2:BA2" si="5">B2</f>
         <v>β1</v>
       </c>
       <c r="AV2" s="105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AW2" s="105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
       <c r="AX2" s="105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
       <c r="AY2" s="105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>t</v>
       </c>
       <c r="AZ2" s="105" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>df</v>
       </c>
       <c r="BA2" s="109" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
       <c r="BB2" s="109" t="str">
-        <f t="shared" ref="BB2" si="7">I2</f>
-        <v>p.adj. (bf=16)</v>
+        <f t="shared" ref="BB2" si="6">I2</f>
+        <v>p.adj (BH)</v>
       </c>
       <c r="BC2" s="111" t="str">
         <f>S2</f>
@@ -17613,7 +17663,7 @@
       </c>
       <c r="I3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J2</f>
-        <v>0.99990000000000001</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="J3" s="100">
         <f>[12]Mode_PA_l_f0_b1!K2</f>
@@ -17645,15 +17695,15 @@
       </c>
       <c r="Q3" s="115">
         <f>[12]Mode_PA_l_f0_b1!I3</f>
-        <v>2.2510999999999998E-5</v>
+        <v>2.2500000000000001E-5</v>
       </c>
       <c r="R3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J3</f>
-        <v>3.6000000000000002E-4</v>
+        <v>5.3600000000000002E-5</v>
       </c>
       <c r="S3" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K3</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T3" s="77">
         <f>[12]Mode_PA_l_f0_b1!C4</f>
@@ -17685,11 +17735,11 @@
       </c>
       <c r="AA3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J4</f>
-        <v>2.0500000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="AB3" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K4</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC3" s="76">
         <f>[12]Mode_PA_l_f0_b1!C5</f>
@@ -17721,11 +17771,11 @@
       </c>
       <c r="AJ3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J5</f>
-        <v>0.12620000000000001</v>
-      </c>
-      <c r="AK3" s="100">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="AK3" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K5</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="AL3" s="77">
         <f>[12]Mode_PA_l_f0_b1!C6</f>
@@ -17757,11 +17807,11 @@
       </c>
       <c r="AS3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J6</f>
-        <v>0.51180000000000003</v>
-      </c>
-      <c r="AT3" s="100">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="AT3" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K6</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="AU3" s="77">
         <f>[12]Mode_PA_l_f0_b1!C7</f>
@@ -17793,7 +17843,7 @@
       </c>
       <c r="BB3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J7</f>
-        <v>0.99990000000000001</v>
+        <v>0.46110000000000001</v>
       </c>
       <c r="BC3" s="100">
         <f>[12]Mode_PA_l_f0_b1!K7</f>
@@ -17842,7 +17892,7 @@
       </c>
       <c r="I4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J2</f>
-        <v>0.99990000000000001</v>
+        <v>0.37590000000000001</v>
       </c>
       <c r="J4" s="100">
         <f>[13]Mode_PA_h_f0_b1!K2</f>
@@ -17878,11 +17928,11 @@
       </c>
       <c r="R4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J3</f>
-        <v>1.83E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="S4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K3</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="T4" s="81">
         <f>[13]Mode_PA_h_f0_b1!C4</f>
@@ -17910,15 +17960,15 @@
       </c>
       <c r="Z4" s="115">
         <f>[13]Mode_PA_h_f0_b1!I4</f>
-        <v>6.6662999999999998E-4</v>
+        <v>6.6699999999999995E-4</v>
       </c>
       <c r="AA4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J4</f>
-        <v>1.0699999999999999E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="AB4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K4</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC4" s="73">
         <f>[13]Mode_PA_h_f0_b1!C5</f>
@@ -17950,11 +18000,11 @@
       </c>
       <c r="AJ4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J5</f>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="AK4" s="100">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="AK4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K5</f>
-        <v>0</v>
+        <v>(p&lt;0.1)</v>
       </c>
       <c r="AL4" s="81">
         <f>[13]Mode_PA_h_f0_b1!C6</f>
@@ -17986,11 +18036,11 @@
       </c>
       <c r="AS4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J6</f>
-        <v>0.17180000000000001</v>
-      </c>
-      <c r="AT4" s="100">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AT4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K6</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="AU4" s="81">
         <f>[13]Mode_PA_h_f0_b1!C7</f>
@@ -18022,11 +18072,11 @@
       </c>
       <c r="BB4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J7</f>
-        <v>0.21060000000000001</v>
-      </c>
-      <c r="BC4" s="100">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="BC4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K7</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="BD4" s="73">
         <f>'B0 Mode'!AL4</f>
@@ -18071,7 +18121,7 @@
       </c>
       <c r="I5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J2</f>
-        <v>0.99990000000000001</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="J5" s="100">
         <f>[14]Mode_PA_f0_exc_b1!K2</f>
@@ -18107,7 +18157,7 @@
       </c>
       <c r="R5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J3</f>
-        <v>0.99990000000000001</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="S5" s="100">
         <f>[14]Mode_PA_f0_exc_b1!K3</f>
@@ -18139,11 +18189,11 @@
       </c>
       <c r="Z5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I4</f>
-        <v>5.1078999999999997E-5</v>
+        <v>5.1100000000000002E-5</v>
       </c>
       <c r="AA5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J4</f>
-        <v>8.1700000000000002E-4</v>
+        <v>1.17E-4</v>
       </c>
       <c r="AB5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K4</f>
@@ -18179,11 +18229,11 @@
       </c>
       <c r="AJ5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J5</f>
-        <v>0.64070000000000005</v>
-      </c>
-      <c r="AK5" s="100">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="AK5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K5</f>
-        <v>0</v>
+        <v>(p&lt;0.1)</v>
       </c>
       <c r="AL5" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C6</f>
@@ -18215,11 +18265,11 @@
       </c>
       <c r="AS5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J6</f>
-        <v>4.9399999999999999E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="AT5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K6</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AU5" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C7</f>
@@ -18247,23 +18297,23 @@
       </c>
       <c r="BA5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I7</f>
-        <v>2.1849E-5</v>
+        <v>2.1800000000000001E-5</v>
       </c>
       <c r="BB5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J7</f>
-        <v>3.5E-4</v>
+        <v>5.24E-5</v>
       </c>
       <c r="BC5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K7</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="BD5" s="84">
         <f>'B0 Mode'!AL5</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="BE5" s="84">
         <f>'B0 Mode'!AM5</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
     <row r="6" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18275,107 +18325,107 @@
         <v>β1</v>
       </c>
       <c r="C6" s="105" t="str">
-        <f t="shared" ref="C6:J6" si="8">C2</f>
+        <f t="shared" ref="C6:J6" si="7">C2</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="D6" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="E6" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="F6" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v>t</v>
+      </c>
+      <c r="G6" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v>df</v>
+      </c>
+      <c r="H6" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v>p. val.</v>
+      </c>
+      <c r="I6" s="109" t="str">
+        <f t="shared" si="7"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="J6" s="107" t="str">
+        <f t="shared" si="7"/>
+        <v>sig.</v>
+      </c>
+      <c r="K6" s="108" t="str">
+        <f t="shared" ref="K6:AU6" si="8">K2</f>
+        <v>β1</v>
+      </c>
+      <c r="L6" s="105" t="str">
+        <f t="shared" ref="L6:S6" si="9">L2</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="M6" s="105" t="str">
+        <f t="shared" si="9"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="N6" s="105" t="str">
+        <f t="shared" si="9"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="O6" s="105" t="str">
+        <f t="shared" si="9"/>
+        <v>t</v>
+      </c>
+      <c r="P6" s="105" t="str">
+        <f t="shared" si="9"/>
+        <v>df</v>
+      </c>
+      <c r="Q6" s="109" t="str">
+        <f t="shared" si="9"/>
+        <v>p. val.</v>
+      </c>
+      <c r="R6" s="109" t="str">
+        <f t="shared" si="9"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="S6" s="110" t="str">
+        <f t="shared" si="9"/>
+        <v>sig.</v>
+      </c>
+      <c r="T6" s="108" t="str">
         <f t="shared" si="8"/>
-        <v>2.5% CI</v>
-      </c>
-      <c r="E6" s="105" t="str">
-        <f t="shared" si="8"/>
-        <v>97.5% CI</v>
-      </c>
-      <c r="F6" s="105" t="str">
-        <f t="shared" si="8"/>
-        <v>t</v>
-      </c>
-      <c r="G6" s="105" t="str">
-        <f t="shared" si="8"/>
-        <v>df</v>
-      </c>
-      <c r="H6" s="105" t="str">
-        <f t="shared" si="8"/>
-        <v>p. val.</v>
-      </c>
-      <c r="I6" s="109" t="str">
-        <f t="shared" si="8"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="J6" s="107" t="str">
-        <f t="shared" si="8"/>
-        <v>sig.</v>
-      </c>
-      <c r="K6" s="108" t="str">
-        <f t="shared" ref="K6:AU6" si="9">K2</f>
         <v>β1</v>
       </c>
-      <c r="L6" s="105" t="str">
-        <f t="shared" ref="L6:S6" si="10">L2</f>
+      <c r="U6" s="105" t="str">
+        <f t="shared" ref="U6:AB6" si="10">U2</f>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="M6" s="105" t="str">
+      <c r="V6" s="105" t="str">
         <f t="shared" si="10"/>
         <v>2.5% CI</v>
       </c>
-      <c r="N6" s="105" t="str">
+      <c r="W6" s="105" t="str">
         <f t="shared" si="10"/>
         <v>97.5% CI</v>
       </c>
-      <c r="O6" s="105" t="str">
+      <c r="X6" s="105" t="str">
         <f t="shared" si="10"/>
         <v>t</v>
       </c>
-      <c r="P6" s="105" t="str">
+      <c r="Y6" s="105" t="str">
         <f t="shared" si="10"/>
         <v>df</v>
       </c>
-      <c r="Q6" s="109" t="str">
+      <c r="Z6" s="109" t="str">
         <f t="shared" si="10"/>
         <v>p. val.</v>
       </c>
-      <c r="R6" s="109" t="str">
+      <c r="AA6" s="109" t="str">
         <f t="shared" si="10"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="S6" s="110" t="str">
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="AB6" s="110" t="str">
         <f t="shared" si="10"/>
-        <v>sig.</v>
-      </c>
-      <c r="T6" s="108" t="str">
-        <f t="shared" si="9"/>
-        <v>β1</v>
-      </c>
-      <c r="U6" s="105" t="str">
-        <f t="shared" ref="U6:AB6" si="11">U2</f>
-        <v xml:space="preserve">SE </v>
-      </c>
-      <c r="V6" s="105" t="str">
-        <f t="shared" si="11"/>
-        <v>2.5% CI</v>
-      </c>
-      <c r="W6" s="105" t="str">
-        <f t="shared" si="11"/>
-        <v>97.5% CI</v>
-      </c>
-      <c r="X6" s="105" t="str">
-        <f t="shared" si="11"/>
-        <v>t</v>
-      </c>
-      <c r="Y6" s="105" t="str">
-        <f t="shared" si="11"/>
-        <v>df</v>
-      </c>
-      <c r="Z6" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>p. val.</v>
-      </c>
-      <c r="AA6" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="AB6" s="110" t="str">
-        <f t="shared" si="11"/>
         <v>sig.</v>
       </c>
       <c r="AC6" s="105" t="str">
@@ -18383,107 +18433,107 @@
         <v>β1</v>
       </c>
       <c r="AD6" s="105" t="str">
-        <f t="shared" ref="AD6:AK6" si="12">U6</f>
+        <f t="shared" ref="AD6:AK6" si="11">U6</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="AE6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="AF6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="AG6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>t</v>
+      </c>
+      <c r="AH6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>df</v>
+      </c>
+      <c r="AI6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>p. val.</v>
+      </c>
+      <c r="AJ6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="AK6" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>sig.</v>
+      </c>
+      <c r="AL6" s="108" t="str">
+        <f t="shared" si="8"/>
+        <v>β1</v>
+      </c>
+      <c r="AM6" s="105" t="str">
+        <f t="shared" ref="AM6:AT6" si="12">AM2</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="AN6" s="105" t="str">
         <f t="shared" si="12"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AF6" s="105" t="str">
+      <c r="AO6" s="105" t="str">
         <f t="shared" si="12"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AG6" s="105" t="str">
+      <c r="AP6" s="105" t="str">
         <f t="shared" si="12"/>
         <v>t</v>
       </c>
-      <c r="AH6" s="105" t="str">
+      <c r="AQ6" s="105" t="str">
         <f t="shared" si="12"/>
         <v>df</v>
       </c>
-      <c r="AI6" s="105" t="str">
+      <c r="AR6" s="109" t="str">
         <f t="shared" si="12"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ6" s="105" t="str">
+      <c r="AS6" s="109" t="str">
         <f t="shared" si="12"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="AK6" s="105" t="str">
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="AT6" s="110" t="str">
         <f t="shared" si="12"/>
         <v>sig.</v>
       </c>
-      <c r="AL6" s="108" t="str">
-        <f t="shared" si="9"/>
+      <c r="AU6" s="108" t="str">
+        <f t="shared" si="8"/>
         <v>β1</v>
       </c>
-      <c r="AM6" s="105" t="str">
-        <f t="shared" ref="AM6:AT6" si="13">AM2</f>
+      <c r="AV6" s="105" t="str">
+        <f t="shared" ref="AV6:BC6" si="13">AV2</f>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AN6" s="105" t="str">
+      <c r="AW6" s="105" t="str">
         <f t="shared" si="13"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AO6" s="105" t="str">
+      <c r="AX6" s="105" t="str">
         <f t="shared" si="13"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AP6" s="105" t="str">
+      <c r="AY6" s="105" t="str">
         <f t="shared" si="13"/>
         <v>t</v>
       </c>
-      <c r="AQ6" s="105" t="str">
+      <c r="AZ6" s="105" t="str">
         <f t="shared" si="13"/>
         <v>df</v>
       </c>
-      <c r="AR6" s="109" t="str">
+      <c r="BA6" s="109" t="str">
         <f t="shared" si="13"/>
         <v>p. val.</v>
       </c>
-      <c r="AS6" s="109" t="str">
+      <c r="BB6" s="109" t="str">
         <f t="shared" si="13"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="AT6" s="110" t="str">
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="BC6" s="111" t="str">
         <f t="shared" si="13"/>
-        <v>sig.</v>
-      </c>
-      <c r="AU6" s="108" t="str">
-        <f t="shared" si="9"/>
-        <v>β1</v>
-      </c>
-      <c r="AV6" s="105" t="str">
-        <f t="shared" ref="AV6:BC6" si="14">AV2</f>
-        <v xml:space="preserve">SE </v>
-      </c>
-      <c r="AW6" s="105" t="str">
-        <f t="shared" si="14"/>
-        <v>2.5% CI</v>
-      </c>
-      <c r="AX6" s="105" t="str">
-        <f t="shared" si="14"/>
-        <v>97.5% CI</v>
-      </c>
-      <c r="AY6" s="105" t="str">
-        <f t="shared" si="14"/>
-        <v>t</v>
-      </c>
-      <c r="AZ6" s="105" t="str">
-        <f t="shared" si="14"/>
-        <v>df</v>
-      </c>
-      <c r="BA6" s="109" t="str">
-        <f t="shared" si="14"/>
-        <v>p. val.</v>
-      </c>
-      <c r="BB6" s="109" t="str">
-        <f t="shared" si="14"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="BC6" s="111" t="str">
-        <f t="shared" si="14"/>
         <v>sig.</v>
       </c>
       <c r="BD6" s="105" t="s">
@@ -18527,7 +18577,7 @@
       </c>
       <c r="I7" s="115">
         <f>[15]Mode_PA_l_t_b1!J2</f>
-        <v>0.99990000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="J7" s="100">
         <f>[15]Mode_PA_l_t_b1!K2</f>
@@ -18563,7 +18613,7 @@
       </c>
       <c r="R7" s="115">
         <f>[15]Mode_PA_l_t_b1!J3</f>
-        <v>0.99990000000000001</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="S7" s="100">
         <f>[15]Mode_PA_l_t_b1!K3</f>
@@ -18595,15 +18645,15 @@
       </c>
       <c r="Z7" s="115">
         <f>[15]Mode_PA_l_t_b1!I4</f>
-        <v>1.0435E-6</v>
+        <v>1.04E-6</v>
       </c>
       <c r="AA7" s="115">
         <f>[15]Mode_PA_l_t_b1!J4</f>
-        <v>1.6699999999999999E-5</v>
+        <v>2.92E-6</v>
       </c>
       <c r="AB7" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K4</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC7" s="74">
         <f>[15]Mode_PA_l_t_b1!C5</f>
@@ -18635,7 +18685,7 @@
       </c>
       <c r="AJ7" s="115">
         <f>[15]Mode_PA_l_t_b1!J5</f>
-        <v>0.99990000000000001</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="AK7" s="100">
         <f>[15]Mode_PA_l_t_b1!K5</f>
@@ -18667,15 +18717,15 @@
       </c>
       <c r="AR7" s="115">
         <f>[15]Mode_PA_l_t_b1!I6</f>
-        <v>4.9284999999999997E-7</v>
+        <v>4.9299999999999998E-7</v>
       </c>
       <c r="AS7" s="115">
         <f>[15]Mode_PA_l_t_b1!J6</f>
-        <v>7.8900000000000007E-6</v>
+        <v>1.42E-6</v>
       </c>
       <c r="AT7" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K6</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AU7" s="88">
         <f>[15]Mode_PA_l_t_b1!C7</f>
@@ -18703,23 +18753,23 @@
       </c>
       <c r="BA7" s="115">
         <f>[15]Mode_PA_l_t_b1!I7</f>
-        <v>3.5680999999999998E-10</v>
+        <v>3.5700000000000001E-10</v>
       </c>
       <c r="BB7" s="115">
         <f>[15]Mode_PA_l_t_b1!J7</f>
-        <v>5.7100000000000003E-9</v>
+        <v>1.5400000000000001E-9</v>
       </c>
       <c r="BC7" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K7</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="BD7" s="76">
         <f>'B0 Mode'!AL7</f>
-        <v>8.7289487535243293E-2</v>
+        <v>8.72894875399952E-2</v>
       </c>
       <c r="BE7" s="76">
         <f>'B0 Mode'!AM7</f>
-        <v>0.76096721775151999</v>
+        <v>0.76096721773815101</v>
       </c>
     </row>
     <row r="8" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18756,7 +18806,7 @@
       </c>
       <c r="I8" s="115">
         <f>[16]Mode_PA_h_t_b1!J2</f>
-        <v>0.99990000000000001</v>
+        <v>0.96379999999999999</v>
       </c>
       <c r="J8" s="100">
         <f>[16]Mode_PA_h_t_b1!K2</f>
@@ -18792,7 +18842,7 @@
       </c>
       <c r="R8" s="115">
         <f>[16]Mode_PA_h_t_b1!J3</f>
-        <v>0.99990000000000001</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="S8" s="100">
         <f>[16]Mode_PA_h_t_b1!K3</f>
@@ -18824,15 +18874,15 @@
       </c>
       <c r="Z8" s="115">
         <f>[16]Mode_PA_h_t_b1!I4</f>
-        <v>4.4612999999999999E-4</v>
+        <v>4.46E-4</v>
       </c>
       <c r="AA8" s="115">
         <f>[16]Mode_PA_h_t_b1!J4</f>
-        <v>7.1000000000000004E-3</v>
+        <v>9.0700000000000004E-4</v>
       </c>
       <c r="AB8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K4</f>
-        <v>p&lt;0.01</v>
+        <v>p&lt;0.001</v>
       </c>
       <c r="AC8" s="82">
         <f>[16]Mode_PA_h_t_b1!C5</f>
@@ -18864,7 +18914,7 @@
       </c>
       <c r="AJ8" s="115">
         <f>[16]Mode_PA_h_t_b1!J5</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="AK8" s="100">
         <f>[16]Mode_PA_h_t_b1!K5</f>
@@ -18900,11 +18950,11 @@
       </c>
       <c r="AS8" s="115">
         <f>[16]Mode_PA_h_t_b1!J6</f>
-        <v>0.01</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="AT8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K6</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AU8" s="92">
         <f>[16]Mode_PA_h_t_b1!C7</f>
@@ -18932,23 +18982,23 @@
       </c>
       <c r="BA8" s="115">
         <f>[16]Mode_PA_h_t_b1!I7</f>
-        <v>7.8343000000000005E-5</v>
+        <v>7.8300000000000006E-5</v>
       </c>
       <c r="BB8" s="115">
         <f>[16]Mode_PA_h_t_b1!J7</f>
-        <v>1.2999999999999999E-3</v>
+        <v>1.75E-4</v>
       </c>
       <c r="BC8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K7</f>
-        <v>p&lt;0.01</v>
+        <v>p&lt;0.001</v>
       </c>
       <c r="BD8" s="84">
         <f>'B0 Mode'!AL8</f>
-        <v>0.114226885016232</v>
+        <v>0.11422688459456599</v>
       </c>
       <c r="BE8" s="84">
         <f>'B0 Mode'!AM8</f>
-        <v>0.84172260348789496</v>
+        <v>0.84172260407700195</v>
       </c>
     </row>
     <row r="9" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18960,107 +19010,107 @@
         <v>β1</v>
       </c>
       <c r="C9" s="105" t="str">
-        <f t="shared" ref="C9:J9" si="15">C2</f>
+        <f t="shared" ref="C9:J9" si="14">C2</f>
         <v xml:space="preserve">SE </v>
       </c>
       <c r="D9" s="105" t="str">
+        <f t="shared" si="14"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="E9" s="105" t="str">
+        <f t="shared" si="14"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="F9" s="105" t="str">
+        <f t="shared" si="14"/>
+        <v>t</v>
+      </c>
+      <c r="G9" s="105" t="str">
+        <f t="shared" si="14"/>
+        <v>df</v>
+      </c>
+      <c r="H9" s="105" t="str">
+        <f t="shared" si="14"/>
+        <v>p. val.</v>
+      </c>
+      <c r="I9" s="109" t="str">
+        <f t="shared" si="14"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="J9" s="107" t="str">
+        <f t="shared" si="14"/>
+        <v>sig.</v>
+      </c>
+      <c r="K9" s="108" t="str">
+        <f t="shared" ref="K9:AU9" si="15">K2</f>
+        <v>β1</v>
+      </c>
+      <c r="L9" s="105" t="str">
+        <f t="shared" ref="L9:S9" si="16">L2</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="M9" s="105" t="str">
+        <f t="shared" si="16"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="N9" s="105" t="str">
+        <f t="shared" si="16"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="O9" s="105" t="str">
+        <f t="shared" si="16"/>
+        <v>t</v>
+      </c>
+      <c r="P9" s="105" t="str">
+        <f t="shared" si="16"/>
+        <v>df</v>
+      </c>
+      <c r="Q9" s="109" t="str">
+        <f t="shared" si="16"/>
+        <v>p. val.</v>
+      </c>
+      <c r="R9" s="109" t="str">
+        <f t="shared" si="16"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="S9" s="110" t="str">
+        <f t="shared" si="16"/>
+        <v>sig.</v>
+      </c>
+      <c r="T9" s="108" t="str">
         <f t="shared" si="15"/>
-        <v>2.5% CI</v>
-      </c>
-      <c r="E9" s="105" t="str">
-        <f t="shared" si="15"/>
-        <v>97.5% CI</v>
-      </c>
-      <c r="F9" s="105" t="str">
-        <f t="shared" si="15"/>
-        <v>t</v>
-      </c>
-      <c r="G9" s="105" t="str">
-        <f t="shared" si="15"/>
-        <v>df</v>
-      </c>
-      <c r="H9" s="105" t="str">
-        <f t="shared" si="15"/>
-        <v>p. val.</v>
-      </c>
-      <c r="I9" s="109" t="str">
-        <f t="shared" si="15"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="J9" s="107" t="str">
-        <f t="shared" si="15"/>
-        <v>sig.</v>
-      </c>
-      <c r="K9" s="108" t="str">
-        <f t="shared" ref="K9:AU9" si="16">K2</f>
         <v>β1</v>
       </c>
-      <c r="L9" s="105" t="str">
-        <f t="shared" ref="L9:S9" si="17">L2</f>
+      <c r="U9" s="105" t="str">
+        <f t="shared" ref="U9:AB9" si="17">U2</f>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="M9" s="105" t="str">
+      <c r="V9" s="105" t="str">
         <f t="shared" si="17"/>
         <v>2.5% CI</v>
       </c>
-      <c r="N9" s="105" t="str">
+      <c r="W9" s="105" t="str">
         <f t="shared" si="17"/>
         <v>97.5% CI</v>
       </c>
-      <c r="O9" s="105" t="str">
+      <c r="X9" s="105" t="str">
         <f t="shared" si="17"/>
         <v>t</v>
       </c>
-      <c r="P9" s="105" t="str">
+      <c r="Y9" s="105" t="str">
         <f t="shared" si="17"/>
         <v>df</v>
       </c>
-      <c r="Q9" s="109" t="str">
+      <c r="Z9" s="109" t="str">
         <f t="shared" si="17"/>
         <v>p. val.</v>
       </c>
-      <c r="R9" s="109" t="str">
+      <c r="AA9" s="109" t="str">
         <f t="shared" si="17"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="S9" s="110" t="str">
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="AB9" s="110" t="str">
         <f t="shared" si="17"/>
-        <v>sig.</v>
-      </c>
-      <c r="T9" s="108" t="str">
-        <f t="shared" si="16"/>
-        <v>β1</v>
-      </c>
-      <c r="U9" s="105" t="str">
-        <f t="shared" ref="U9:AB9" si="18">U2</f>
-        <v xml:space="preserve">SE </v>
-      </c>
-      <c r="V9" s="105" t="str">
-        <f t="shared" si="18"/>
-        <v>2.5% CI</v>
-      </c>
-      <c r="W9" s="105" t="str">
-        <f t="shared" si="18"/>
-        <v>97.5% CI</v>
-      </c>
-      <c r="X9" s="105" t="str">
-        <f t="shared" si="18"/>
-        <v>t</v>
-      </c>
-      <c r="Y9" s="105" t="str">
-        <f t="shared" si="18"/>
-        <v>df</v>
-      </c>
-      <c r="Z9" s="109" t="str">
-        <f t="shared" si="18"/>
-        <v>p. val.</v>
-      </c>
-      <c r="AA9" s="109" t="str">
-        <f t="shared" si="18"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="AB9" s="110" t="str">
-        <f t="shared" si="18"/>
         <v>sig.</v>
       </c>
       <c r="AC9" s="105">
@@ -19068,107 +19118,107 @@
         <v>-0.34499999999999997</v>
       </c>
       <c r="AD9" s="105">
-        <f t="shared" ref="AD9:AK9" si="19">AD5</f>
+        <f t="shared" ref="AD9:AK9" si="18">AD5</f>
         <v>0.16800000000000001</v>
       </c>
       <c r="AE9" s="105">
+        <f t="shared" si="18"/>
+        <v>-0.67400000000000004</v>
+      </c>
+      <c r="AF9" s="105">
+        <f t="shared" si="18"/>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="AG9" s="105">
+        <f t="shared" si="18"/>
+        <v>-2.0579999999999998</v>
+      </c>
+      <c r="AH9" s="105">
+        <f t="shared" si="18"/>
+        <v>611.12</v>
+      </c>
+      <c r="AI9" s="109">
+        <f t="shared" si="18"/>
+        <v>0.04</v>
+      </c>
+      <c r="AJ9" s="109">
+        <f t="shared" si="18"/>
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="AK9" s="110" t="str">
+        <f t="shared" si="18"/>
+        <v>(p&lt;0.1)</v>
+      </c>
+      <c r="AL9" s="108" t="str">
+        <f t="shared" si="15"/>
+        <v>β1</v>
+      </c>
+      <c r="AM9" s="105" t="str">
+        <f t="shared" ref="AM9:AT9" si="19">AM2</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="AN9" s="105" t="str">
         <f t="shared" si="19"/>
-        <v>-0.67400000000000004</v>
-      </c>
-      <c r="AF9" s="105">
+        <v>2.5% CI</v>
+      </c>
+      <c r="AO9" s="105" t="str">
         <f t="shared" si="19"/>
-        <v>-1.6E-2</v>
-      </c>
-      <c r="AG9" s="105">
+        <v>97.5% CI</v>
+      </c>
+      <c r="AP9" s="105" t="str">
         <f t="shared" si="19"/>
-        <v>-2.0579999999999998</v>
-      </c>
-      <c r="AH9" s="105">
+        <v>t</v>
+      </c>
+      <c r="AQ9" s="105" t="str">
         <f t="shared" si="19"/>
-        <v>611.12</v>
-      </c>
-      <c r="AI9" s="109">
+        <v>df</v>
+      </c>
+      <c r="AR9" s="109" t="str">
         <f t="shared" si="19"/>
-        <v>0.04</v>
-      </c>
-      <c r="AJ9" s="109">
+        <v>p. val.</v>
+      </c>
+      <c r="AS9" s="109" t="str">
         <f t="shared" si="19"/>
-        <v>0.64070000000000005</v>
-      </c>
-      <c r="AK9" s="110">
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="AT9" s="110" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="108" t="str">
-        <f t="shared" si="16"/>
+        <v>sig.</v>
+      </c>
+      <c r="AU9" s="108" t="str">
+        <f t="shared" si="15"/>
         <v>β1</v>
       </c>
-      <c r="AM9" s="105" t="str">
-        <f t="shared" ref="AM9:AT9" si="20">AM2</f>
+      <c r="AV9" s="105" t="str">
+        <f t="shared" ref="AV9:BC9" si="20">AV2</f>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AN9" s="105" t="str">
+      <c r="AW9" s="105" t="str">
         <f t="shared" si="20"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AO9" s="105" t="str">
+      <c r="AX9" s="105" t="str">
         <f t="shared" si="20"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AP9" s="105" t="str">
+      <c r="AY9" s="105" t="str">
         <f t="shared" si="20"/>
         <v>t</v>
       </c>
-      <c r="AQ9" s="105" t="str">
+      <c r="AZ9" s="105" t="str">
         <f t="shared" si="20"/>
         <v>df</v>
       </c>
-      <c r="AR9" s="109" t="str">
+      <c r="BA9" s="109" t="str">
         <f t="shared" si="20"/>
         <v>p. val.</v>
       </c>
-      <c r="AS9" s="109" t="str">
+      <c r="BB9" s="109" t="str">
         <f t="shared" si="20"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="AT9" s="110" t="str">
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="BC9" s="111" t="str">
         <f t="shared" si="20"/>
-        <v>sig.</v>
-      </c>
-      <c r="AU9" s="108" t="str">
-        <f t="shared" si="16"/>
-        <v>β1</v>
-      </c>
-      <c r="AV9" s="105" t="str">
-        <f t="shared" ref="AV9:BC9" si="21">AV2</f>
-        <v xml:space="preserve">SE </v>
-      </c>
-      <c r="AW9" s="105" t="str">
-        <f t="shared" si="21"/>
-        <v>2.5% CI</v>
-      </c>
-      <c r="AX9" s="105" t="str">
-        <f t="shared" si="21"/>
-        <v>97.5% CI</v>
-      </c>
-      <c r="AY9" s="105" t="str">
-        <f t="shared" si="21"/>
-        <v>t</v>
-      </c>
-      <c r="AZ9" s="105" t="str">
-        <f t="shared" si="21"/>
-        <v>df</v>
-      </c>
-      <c r="BA9" s="109" t="str">
-        <f t="shared" si="21"/>
-        <v>p. val.</v>
-      </c>
-      <c r="BB9" s="109" t="str">
-        <f t="shared" si="21"/>
-        <v>p.adj. (bf=16)</v>
-      </c>
-      <c r="BC9" s="111" t="str">
-        <f t="shared" si="21"/>
         <v>sig.</v>
       </c>
       <c r="BD9" s="105" t="s">
@@ -19212,11 +19262,11 @@
       </c>
       <c r="I10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J2</f>
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="J10" s="123">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="J10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K2</f>
-        <v>0</v>
+        <v>(p&lt;0.1)</v>
       </c>
       <c r="K10" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C3</f>
@@ -19248,7 +19298,7 @@
       </c>
       <c r="R10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J3</f>
-        <v>0.99990000000000001</v>
+        <v>0.66610000000000003</v>
       </c>
       <c r="S10" s="123">
         <f>[17]Mode_PA_lh_slope_b1!K3</f>
@@ -19280,15 +19330,15 @@
       </c>
       <c r="Z10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I4</f>
-        <v>2.9629999999999998E-9</v>
+        <v>2.9600000000000001E-9</v>
       </c>
       <c r="AA10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J4</f>
-        <v>4.7400000000000001E-8</v>
+        <v>1.0999999999999999E-8</v>
       </c>
       <c r="AB10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K4</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC10" s="25">
         <f>[17]Mode_PA_lh_slope_b1!C5</f>
@@ -19320,7 +19370,7 @@
       </c>
       <c r="AJ10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J5</f>
-        <v>0.99990000000000001</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="AK10" s="123">
         <f>[17]Mode_PA_lh_slope_b1!K5</f>
@@ -19352,15 +19402,15 @@
       </c>
       <c r="AR10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I6</f>
-        <v>7.8666000000000002E-6</v>
+        <v>7.8699999999999992E-6</v>
       </c>
       <c r="AS10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J6</f>
-        <v>1.26E-4</v>
+        <v>2.0299999999999999E-5</v>
       </c>
       <c r="AT10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K6</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AU10" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C7</f>
@@ -19388,23 +19438,23 @@
       </c>
       <c r="BA10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I7</f>
-        <v>1.1352999999999999E-10</v>
+        <v>1.1399999999999999E-10</v>
       </c>
       <c r="BB10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J7</f>
-        <v>1.8199999999999999E-9</v>
+        <v>5.2800000000000004E-10</v>
       </c>
       <c r="BC10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K7</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="BD10" s="25">
         <f>'B0 Mode'!AL10</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="BE10" s="25">
         <f>'B0 Mode'!AM10</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
   </sheetData>
@@ -19458,7 +19508,7 @@
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19570,9 +19620,9 @@
       <c r="H2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="175">
-        <f>[1]Mode_PA_l_f0_b0!I5</f>
-        <v>7.6699999999999996E-13</v>
+      <c r="I2" s="175" t="str">
+        <f>[1]Mode_PA_l_f0_b0!I1</f>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J2" s="41" t="s">
         <v>36</v>
@@ -19605,9 +19655,9 @@
         <f t="shared" ref="Q2" si="6">H2</f>
         <v>p. val.</v>
       </c>
-      <c r="R2" s="31">
+      <c r="R2" s="31" t="str">
         <f t="shared" ref="R2" si="7">I2</f>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S2" s="53" t="str">
         <f t="shared" ref="S2" si="8">J2</f>
@@ -19641,9 +19691,9 @@
         <f t="shared" ref="Z2" si="13">H2</f>
         <v>p. val.</v>
       </c>
-      <c r="AA2" s="31">
+      <c r="AA2" s="31" t="str">
         <f t="shared" ref="AA2" si="14">I2</f>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>J2</f>
@@ -19677,9 +19727,9 @@
         <f t="shared" si="15"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ2" s="31">
+      <c r="AJ2" s="31" t="str">
         <f t="shared" si="15"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK2" s="53" t="str">
         <f t="shared" si="15"/>
@@ -19724,15 +19774,15 @@
       </c>
       <c r="H3" s="115">
         <f>[1]Mode_PA_l_f0_b0!H6</f>
-        <v>8.8675999999999995E-14</v>
+        <v>8.8700000000000003E-14</v>
       </c>
       <c r="I3" s="115">
         <f>[1]Mode_PA_l_f0_b0!I6</f>
-        <v>1.42E-12</v>
+        <v>5.5399999999999996E-13</v>
       </c>
       <c r="J3" s="100" t="str">
         <f>[1]Mode_PA_l_f0_b0!J6</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K3" s="54">
         <f>[1]Mode_PA_l_f0_b0!B7</f>
@@ -19764,7 +19814,7 @@
       </c>
       <c r="R3" s="115">
         <f>[1]Mode_PA_l_f0_b0!I7</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="S3" s="95">
         <f>[1]Mode_PA_l_f0_b0!J7</f>
@@ -19796,15 +19846,15 @@
       </c>
       <c r="Z3" s="119">
         <f>[1]Mode_PA_l_f0_b0!H8</f>
-        <v>1.6252E-13</v>
+        <v>1.6300000000000001E-13</v>
       </c>
       <c r="AA3" s="119">
         <f>[1]Mode_PA_l_f0_b0!I8</f>
-        <v>2.5999999999999998E-12</v>
+        <v>9.48E-13</v>
       </c>
       <c r="AB3" s="95" t="str">
         <f>[1]Mode_PA_l_f0_b0!J8</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC3" s="70">
         <f>[1]Mode_PA_l_f0_b0!B9</f>
@@ -19832,15 +19882,15 @@
       </c>
       <c r="AI3" s="119">
         <f>[1]Mode_PA_l_f0_b0!H9</f>
-        <v>7.3137999999999996E-13</v>
+        <v>7.3100000000000002E-13</v>
       </c>
       <c r="AJ3" s="119">
         <f>[1]Mode_PA_l_f0_b0!I9</f>
-        <v>1.1700000000000001E-11</v>
+        <v>4.0600000000000001E-12</v>
       </c>
       <c r="AK3" s="95" t="str">
         <f>[1]Mode_PA_l_f0_b0!J9</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL3" s="70">
         <f>'B0 Mode'!AL3</f>
@@ -19881,15 +19931,15 @@
       </c>
       <c r="H4" s="116">
         <f>[3]Mode_PA_h_f0_b0!H6</f>
-        <v>4.1473000000000002E-14</v>
+        <v>4.15E-14</v>
       </c>
       <c r="I4" s="116">
         <f>[3]Mode_PA_h_f0_b0!I6</f>
-        <v>6.64E-13</v>
+        <v>3.4599999999999999E-13</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>[3]Mode_PA_h_f0_b0!J6</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K4" s="55">
         <f>[3]Mode_PA_h_f0_b0!B7</f>
@@ -19917,15 +19967,15 @@
       </c>
       <c r="Q4" s="116">
         <f>[3]Mode_PA_h_f0_b0!H7</f>
-        <v>8.7969000000000001E-23</v>
+        <v>8.7999999999999998E-23</v>
       </c>
       <c r="R4" s="116">
         <f>[3]Mode_PA_h_f0_b0!I7</f>
-        <v>1.4100000000000001E-21</v>
+        <v>4.4000000000000001E-21</v>
       </c>
       <c r="S4" s="96" t="str">
         <f>[3]Mode_PA_h_f0_b0!J7</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T4" s="64">
         <f>[3]Mode_PA_h_f0_b0!B8</f>
@@ -19953,15 +20003,15 @@
       </c>
       <c r="Z4" s="120">
         <f>[3]Mode_PA_h_f0_b0!H8</f>
-        <v>2.3215999999999999E-14</v>
+        <v>2.3200000000000001E-14</v>
       </c>
       <c r="AA4" s="120">
         <f>[3]Mode_PA_h_f0_b0!I8</f>
-        <v>3.7099999999999998E-13</v>
+        <v>2.3200000000000002E-13</v>
       </c>
       <c r="AB4" s="96" t="str">
         <f>[3]Mode_PA_h_f0_b0!J8</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC4" s="71">
         <f>[3]Mode_PA_h_f0_b0!B9</f>
@@ -19989,15 +20039,15 @@
       </c>
       <c r="AI4" s="120">
         <f>[3]Mode_PA_h_f0_b0!H9</f>
-        <v>1.1703999999999999E-12</v>
+        <v>1.1700000000000001E-12</v>
       </c>
       <c r="AJ4" s="120">
         <f>[3]Mode_PA_h_f0_b0!I9</f>
-        <v>1.8700000000000001E-11</v>
+        <v>6.3600000000000004E-12</v>
       </c>
       <c r="AK4" s="96" t="str">
         <f>[3]Mode_PA_h_f0_b0!J9</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL4" s="71">
         <f>'B0 Mode'!AL4</f>
@@ -20038,15 +20088,15 @@
       </c>
       <c r="H5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!H6</f>
-        <v>1.5283E-9</v>
+        <v>1.5300000000000001E-9</v>
       </c>
       <c r="I5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!I6</f>
-        <v>2.4500000000000001E-8</v>
+        <v>6.0699999999999999E-9</v>
       </c>
       <c r="J5" s="102" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J6</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K5" s="56">
         <f>[5]Mode_PA_f0_exc_b0!B7</f>
@@ -20078,11 +20128,11 @@
       </c>
       <c r="R5" s="117">
         <f>[5]Mode_PA_f0_exc_b0!I7</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="S5" s="97" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J7</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="T5" s="65">
         <f>[5]Mode_PA_f0_exc_b0!B8</f>
@@ -20110,15 +20160,15 @@
       </c>
       <c r="Z5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!H8</f>
-        <v>2.5025E-23</v>
+        <v>2.5000000000000001E-23</v>
       </c>
       <c r="AA5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!I8</f>
-        <v>4.0000000000000002E-22</v>
+        <v>1.56E-21</v>
       </c>
       <c r="AB5" s="97" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J8</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC5" s="72">
         <f>[5]Mode_PA_f0_exc_b0!B9</f>
@@ -20146,23 +20196,23 @@
       </c>
       <c r="AI5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!H9</f>
-        <v>1.2849E-15</v>
+        <v>1.2800000000000001E-15</v>
       </c>
       <c r="AJ5" s="121">
         <f>[5]Mode_PA_f0_exc_b0!I9</f>
-        <v>2.0599999999999999E-14</v>
+        <v>1.6799999999999998E-14</v>
       </c>
       <c r="AK5" s="97" t="str">
         <f>[5]Mode_PA_f0_exc_b0!J9</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL5" s="72">
         <f>'B0 Mode'!AL5</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="AM5" s="22">
         <f>'B0 Mode'!AM5</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -20197,9 +20247,9 @@
         <f t="shared" si="16"/>
         <v>p. val.</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="34" t="str">
         <f t="shared" si="16"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J6" s="46" t="str">
         <f>J2</f>
@@ -20233,9 +20283,9 @@
         <f t="shared" si="17"/>
         <v>p. val.</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="34" t="str">
         <f t="shared" si="17"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S6" s="58" t="str">
         <f>J2</f>
@@ -20269,9 +20319,9 @@
         <f t="shared" si="18"/>
         <v>p. val.</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6" s="34" t="str">
         <f t="shared" si="18"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB6" s="58" t="str">
         <f>J2</f>
@@ -20305,9 +20355,9 @@
         <f t="shared" si="20"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ6" s="34">
+      <c r="AJ6" s="34" t="str">
         <f t="shared" si="20"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK6" s="58" t="str">
         <f t="shared" si="20"/>
@@ -20352,15 +20402,15 @@
       </c>
       <c r="H7" s="115">
         <f>[7]Mode_PA_l_t_b0!H6</f>
-        <v>9.2697000000000004E-6</v>
+        <v>9.2699999999999993E-6</v>
       </c>
       <c r="I7" s="115">
         <f>[7]Mode_PA_l_t_b0!I6</f>
-        <v>1.4799999999999999E-4</v>
+        <v>2.3200000000000001E-5</v>
       </c>
       <c r="J7" s="103" t="str">
         <f>[7]Mode_PA_l_t_b0!J6</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K7" s="59">
         <f>[7]Mode_PA_l_t_b0!B7</f>
@@ -20388,15 +20438,15 @@
       </c>
       <c r="Q7" s="115">
         <f>[7]Mode_PA_l_t_b0!H7</f>
-        <v>7.3066999999999999E-6</v>
+        <v>7.3100000000000003E-6</v>
       </c>
       <c r="R7" s="115">
         <f>[7]Mode_PA_l_t_b0!I7</f>
-        <v>1.17E-4</v>
+        <v>1.9199999999999999E-5</v>
       </c>
       <c r="S7" s="98" t="str">
         <f>[7]Mode_PA_l_t_b0!J7</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T7" s="67">
         <f>[7]Mode_PA_l_t_b0!B8</f>
@@ -20424,15 +20474,15 @@
       </c>
       <c r="Z7" s="119">
         <f>[7]Mode_PA_l_t_b0!H8</f>
-        <v>1.9436000000000002E-5</v>
+        <v>1.9400000000000001E-5</v>
       </c>
       <c r="AA7" s="119">
         <f>[7]Mode_PA_l_t_b0!I8</f>
-        <v>3.1100000000000002E-4</v>
+        <v>4.71E-5</v>
       </c>
       <c r="AB7" s="98" t="str">
         <f>[7]Mode_PA_l_t_b0!J8</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC7" s="70">
         <f>[7]Mode_PA_l_t_b0!B9</f>
@@ -20460,11 +20510,11 @@
       </c>
       <c r="AI7" s="119">
         <f>[7]Mode_PA_l_t_b0!H9</f>
-        <v>5.5705000000000003E-5</v>
+        <v>5.5699999999999999E-5</v>
       </c>
       <c r="AJ7" s="119">
         <f>[7]Mode_PA_l_t_b0!I9</f>
-        <v>8.9099999999999997E-4</v>
+        <v>1.27E-4</v>
       </c>
       <c r="AK7" s="98" t="str">
         <f>[7]Mode_PA_l_t_b0!J9</f>
@@ -20472,11 +20522,11 @@
       </c>
       <c r="AL7" s="70">
         <f>'B0 Mode'!AL7</f>
-        <v>8.7289487535243293E-2</v>
+        <v>8.72894875399952E-2</v>
       </c>
       <c r="AM7" s="17">
         <f>'B0 Mode'!AM7</f>
-        <v>0.76096721775151999</v>
+        <v>0.76096721773815101</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -20513,11 +20563,11 @@
       </c>
       <c r="I8" s="117">
         <f>[9]Mode_PA_h_t_b0!I6</f>
-        <v>2.1899999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J8" s="102" t="str">
         <f>[9]Mode_PA_h_t_b0!J6</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="K8" s="60">
         <f>[9]Mode_PA_h_t_b0!B7</f>
@@ -20545,15 +20595,15 @@
       </c>
       <c r="Q8" s="117">
         <f>[9]Mode_PA_h_t_b0!H7</f>
-        <v>9.8087000000000001E-4</v>
+        <v>9.810000000000001E-4</v>
       </c>
       <c r="R8" s="117">
         <f>[9]Mode_PA_h_t_b0!I7</f>
-        <v>1.5699999999999999E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="S8" s="97" t="str">
         <f>[9]Mode_PA_h_t_b0!J7</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="T8" s="68">
         <f>[9]Mode_PA_h_t_b0!B8</f>
@@ -20585,11 +20635,11 @@
       </c>
       <c r="AA8" s="121">
         <f>[9]Mode_PA_h_t_b0!I8</f>
-        <v>1.6E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="AB8" s="97" t="str">
         <f>[9]Mode_PA_h_t_b0!J8</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC8" s="72">
         <f>[9]Mode_PA_h_t_b0!B9</f>
@@ -20621,19 +20671,19 @@
       </c>
       <c r="AJ8" s="121">
         <f>[9]Mode_PA_h_t_b0!I9</f>
-        <v>2.06E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="AK8" s="97" t="str">
         <f>[9]Mode_PA_h_t_b0!J9</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AL8" s="72">
         <f>'B0 Mode'!AL8</f>
-        <v>0.114226885016232</v>
+        <v>0.11422688459456599</v>
       </c>
       <c r="AM8" s="22">
         <f>'B0 Mode'!AM8</f>
-        <v>0.84172260348789496</v>
+        <v>0.84172260407700195</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -20668,9 +20718,9 @@
         <f t="shared" si="21"/>
         <v>p. val.</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="34" t="str">
         <f t="shared" si="21"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J9" s="46" t="str">
         <f>J2</f>
@@ -20704,9 +20754,9 @@
         <f t="shared" si="22"/>
         <v>p. val.</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="34" t="str">
         <f t="shared" si="22"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S9" s="58" t="str">
         <f>J2</f>
@@ -20740,9 +20790,9 @@
         <f t="shared" si="23"/>
         <v>p. val.</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="34" t="str">
         <f t="shared" si="23"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB9" s="58" t="str">
         <f>J2</f>
@@ -20776,9 +20826,9 @@
         <f t="shared" si="25"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ9" s="34">
+      <c r="AJ9" s="34" t="str">
         <f t="shared" si="25"/>
-        <v>7.6699999999999996E-13</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK9" s="58" t="str">
         <f t="shared" si="25"/>
@@ -20827,11 +20877,11 @@
       </c>
       <c r="I10" s="118">
         <f>[11]Mode_PA_lh_slope_b0!I6</f>
-        <v>0.1154</v>
-      </c>
-      <c r="J10" s="104">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J10" s="104" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J6</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="K10" s="61">
         <f>[11]Mode_PA_lh_slope_b0!B7</f>
@@ -20863,11 +20913,11 @@
       </c>
       <c r="R10" s="94">
         <f>[11]Mode_PA_lh_slope_b0!I7</f>
-        <v>0.2472</v>
-      </c>
-      <c r="S10" s="99">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="S10" s="99" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J7</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="T10" s="69">
         <f>[11]Mode_PA_lh_slope_b0!B8</f>
@@ -20895,15 +20945,15 @@
       </c>
       <c r="Z10" s="122">
         <f>[11]Mode_PA_lh_slope_b0!H8</f>
-        <v>9.8802000000000004E-4</v>
+        <v>9.8799999999999995E-4</v>
       </c>
       <c r="AA10" s="122">
         <f>[11]Mode_PA_lh_slope_b0!I8</f>
-        <v>1.5800000000000002E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="AB10" s="99" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J8</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC10" s="69">
         <f>[11]Mode_PA_lh_slope_b0!B9</f>
@@ -20935,19 +20985,19 @@
       </c>
       <c r="AJ10" s="122">
         <f>[11]Mode_PA_lh_slope_b0!I9</f>
-        <v>7.5399999999999995E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="AK10" s="99" t="str">
         <f>[11]Mode_PA_lh_slope_b0!J9</f>
-        <v>(p&lt;0.1)</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AL10" s="69">
         <f>'B0 Mode'!AL10</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="AM10" s="25">
         <f>'B0 Mode'!AM10</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
   </sheetData>
@@ -21005,12 +21055,12 @@
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="37" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="36" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="36" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="38" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="38" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" style="36" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="36" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="38" customWidth="1"/>
     <col min="11" max="12" width="7.7109375" style="36" customWidth="1"/>
     <col min="13" max="14" width="11.42578125" style="36" customWidth="1"/>
     <col min="15" max="16" width="8.7109375" style="36" customWidth="1"/>
@@ -21023,18 +21073,18 @@
     <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
     <col min="27" max="27" width="9.7109375" style="39" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" style="39" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="36" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="36" hidden="1" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="39" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="39" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="29" max="30" width="7.7109375" style="36" customWidth="1"/>
+    <col min="31" max="32" width="11.42578125" style="36" customWidth="1"/>
+    <col min="33" max="34" width="8.7109375" style="36" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="39" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="39" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="39" customWidth="1"/>
+    <col min="38" max="39" width="7.7109375" style="36" customWidth="1"/>
+    <col min="40" max="41" width="11.42578125" style="36" customWidth="1"/>
+    <col min="42" max="43" width="8.7109375" style="36" customWidth="1"/>
+    <col min="44" max="44" width="11.42578125" style="39" customWidth="1"/>
+    <col min="45" max="45" width="9.7109375" style="39" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" style="39" customWidth="1"/>
     <col min="47" max="48" width="7.7109375" style="36" customWidth="1"/>
     <col min="49" max="50" width="11.42578125" style="36" customWidth="1"/>
     <col min="51" max="52" width="8.7109375" style="36" customWidth="1"/>
@@ -21145,9 +21195,9 @@
       <c r="H2" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="107">
-        <f>[16]Mode_PA_h_t_b1!F9</f>
-        <v>6.8029999999999999</v>
+      <c r="I2" s="107" t="str">
+        <f>[16]Mode_PA_h_t_b1!J1</f>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J2" s="107" t="s">
         <v>36</v>
@@ -21180,9 +21230,9 @@
         <f t="shared" si="0"/>
         <v>p. val.</v>
       </c>
-      <c r="R2" s="109">
+      <c r="R2" s="109" t="str">
         <f t="shared" si="0"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S2" s="110" t="str">
         <f t="shared" si="0"/>
@@ -21216,9 +21266,9 @@
         <f t="shared" si="1"/>
         <v>p. val.</v>
       </c>
-      <c r="AA2" s="109">
+      <c r="AA2" s="109" t="str">
         <f t="shared" si="1"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB2" s="110" t="str">
         <f t="shared" si="1"/>
@@ -21252,9 +21302,9 @@
         <f t="shared" si="2"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ2" s="109">
+      <c r="AJ2" s="109" t="str">
         <f t="shared" si="2"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK2" s="110" t="str">
         <f>J2</f>
@@ -21288,9 +21338,9 @@
         <f t="shared" si="3"/>
         <v>p. val.</v>
       </c>
-      <c r="AS2" s="109">
+      <c r="AS2" s="109" t="str">
         <f t="shared" si="3"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AT2" s="110" t="str">
         <f>J2</f>
@@ -21324,9 +21374,9 @@
         <f t="shared" si="4"/>
         <v>p. val.</v>
       </c>
-      <c r="BB2" s="109">
+      <c r="BB2" s="109" t="str">
         <f t="shared" si="4"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="BC2" s="111" t="str">
         <f>S2</f>
@@ -21375,7 +21425,7 @@
       </c>
       <c r="I3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J8</f>
-        <v>0.99990000000000001</v>
+        <v>0.31259999999999999</v>
       </c>
       <c r="J3" s="100">
         <f>[12]Mode_PA_l_f0_b1!K8</f>
@@ -21411,7 +21461,7 @@
       </c>
       <c r="R3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J9</f>
-        <v>0.99990000000000001</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="S3" s="100">
         <f>[12]Mode_PA_l_f0_b1!K9</f>
@@ -21447,11 +21497,11 @@
       </c>
       <c r="AA3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J10</f>
-        <v>1.9400000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="AB3" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K10</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC3" s="76">
         <f>[12]Mode_PA_l_f0_b1!C11</f>
@@ -21483,7 +21533,7 @@
       </c>
       <c r="AJ3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J11</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="AK3" s="100">
         <f>[12]Mode_PA_l_f0_b1!K11</f>
@@ -21519,7 +21569,7 @@
       </c>
       <c r="AS3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J12</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT3" s="100">
         <f>[12]Mode_PA_l_f0_b1!K12</f>
@@ -21555,11 +21605,11 @@
       </c>
       <c r="BB3" s="115">
         <f>[12]Mode_PA_l_f0_b1!J13</f>
-        <v>3.4700000000000002E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="BC3" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K13</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="BD3" s="76">
         <f>'B0 Mode'!AL3</f>
@@ -21604,7 +21654,7 @@
       </c>
       <c r="I4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J8</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="J4" s="100">
         <f>[13]Mode_PA_h_f0_b1!K8</f>
@@ -21636,15 +21686,15 @@
       </c>
       <c r="Q4" s="115">
         <f>[13]Mode_PA_h_f0_b1!I9</f>
-        <v>2.9433999999999997E-7</v>
+        <v>2.9400000000000001E-7</v>
       </c>
       <c r="R4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J9</f>
-        <v>4.7099999999999998E-6</v>
+        <v>8.5499999999999997E-7</v>
       </c>
       <c r="S4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K9</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T4" s="81">
         <f>[13]Mode_PA_h_f0_b1!C10</f>
@@ -21676,11 +21726,11 @@
       </c>
       <c r="AA4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J10</f>
-        <v>4.1099999999999998E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="AB4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K10</f>
-        <v>p&lt;0.05</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="AC4" s="73">
         <f>[13]Mode_PA_h_f0_b1!C11</f>
@@ -21708,15 +21758,15 @@
       </c>
       <c r="AI4" s="115">
         <f>[13]Mode_PA_h_f0_b1!I11</f>
-        <v>2.9952999999999999E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AJ4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J11</f>
-        <v>4.7899999999999999E-5</v>
+        <v>8.0600000000000008E-6</v>
       </c>
       <c r="AK4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K11</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL4" s="81">
         <f>[13]Mode_PA_h_f0_b1!C12</f>
@@ -21744,15 +21794,15 @@
       </c>
       <c r="AR4" s="115">
         <f>[13]Mode_PA_h_f0_b1!I12</f>
-        <v>1.2896000000000001E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="AS4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J12</f>
-        <v>2.0999999999999999E-3</v>
+        <v>2.8299999999999999E-4</v>
       </c>
       <c r="AT4" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K12</f>
-        <v>p&lt;0.01</v>
+        <v>p&lt;0.001</v>
       </c>
       <c r="AU4" s="81">
         <f>[13]Mode_PA_h_f0_b1!C13</f>
@@ -21784,7 +21834,7 @@
       </c>
       <c r="BB4" s="115">
         <f>[13]Mode_PA_h_f0_b1!J13</f>
-        <v>0.99990000000000001</v>
+        <v>0.69530000000000003</v>
       </c>
       <c r="BC4" s="100">
         <f>[13]Mode_PA_h_f0_b1!K13</f>
@@ -21829,15 +21879,15 @@
       </c>
       <c r="H5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I8</f>
-        <v>2.678E-4</v>
+        <v>2.6800000000000001E-4</v>
       </c>
       <c r="I5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J8</f>
-        <v>4.3E-3</v>
+        <v>5.6800000000000004E-4</v>
       </c>
       <c r="J5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K8</f>
-        <v>p&lt;0.01</v>
+        <v>p&lt;0.001</v>
       </c>
       <c r="K5" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C9</f>
@@ -21865,15 +21915,15 @@
       </c>
       <c r="Q5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I9</f>
-        <v>1.4524999999999999E-23</v>
+        <v>1.4500000000000001E-23</v>
       </c>
       <c r="R5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J9</f>
-        <v>2.3200000000000001E-22</v>
+        <v>1.21E-21</v>
       </c>
       <c r="S5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K9</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T5" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C10</f>
@@ -21901,15 +21951,15 @@
       </c>
       <c r="Z5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I10</f>
-        <v>3.5084E-4</v>
+        <v>3.5100000000000002E-4</v>
       </c>
       <c r="AA5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J10</f>
-        <v>5.5999999999999999E-3</v>
+        <v>7.3300000000000004E-4</v>
       </c>
       <c r="AB5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K10</f>
-        <v>p&lt;0.01</v>
+        <v>p&lt;0.001</v>
       </c>
       <c r="AC5" s="84">
         <f>[14]Mode_PA_f0_exc_b1!C11</f>
@@ -21937,15 +21987,15 @@
       </c>
       <c r="AI5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I11</f>
-        <v>2.6027000000000001E-14</v>
+        <v>2.6E-14</v>
       </c>
       <c r="AJ5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J11</f>
-        <v>4.1599999999999999E-13</v>
+        <v>2.4999999999999999E-13</v>
       </c>
       <c r="AK5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K11</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL5" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C12</f>
@@ -21973,15 +22023,15 @@
       </c>
       <c r="AR5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I12</f>
-        <v>1.1359E-6</v>
+        <v>1.1400000000000001E-6</v>
       </c>
       <c r="AS5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J12</f>
-        <v>1.8199999999999999E-5</v>
+        <v>3.1700000000000001E-6</v>
       </c>
       <c r="AT5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K12</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AU5" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C13</f>
@@ -22009,23 +22059,23 @@
       </c>
       <c r="BA5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I13</f>
-        <v>2.377E-16</v>
+        <v>2.3800000000000002E-16</v>
       </c>
       <c r="BB5" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J13</f>
-        <v>3.8000000000000002E-15</v>
+        <v>4.1000000000000004E-15</v>
       </c>
       <c r="BC5" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K13</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="BD5" s="84">
         <f>'B0 Mode'!AL5</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="BE5" s="84">
         <f>'B0 Mode'!AM5</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -22060,9 +22110,9 @@
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="I6" s="107">
+      <c r="I6" s="107" t="str">
         <f t="shared" si="5"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J6" s="107" t="str">
         <f t="shared" si="5"/>
@@ -22096,9 +22146,9 @@
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="R6" s="109">
+      <c r="R6" s="109" t="str">
         <f t="shared" si="5"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S6" s="110" t="str">
         <f t="shared" si="5"/>
@@ -22132,9 +22182,9 @@
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="AA6" s="109">
+      <c r="AA6" s="109" t="str">
         <f t="shared" si="5"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB6" s="110" t="str">
         <f t="shared" si="5"/>
@@ -22168,9 +22218,9 @@
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ6" s="109">
+      <c r="AJ6" s="109" t="str">
         <f t="shared" si="5"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK6" s="110" t="str">
         <f t="shared" si="5"/>
@@ -22204,9 +22254,9 @@
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="AS6" s="109">
+      <c r="AS6" s="109" t="str">
         <f t="shared" si="5"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AT6" s="110" t="str">
         <f t="shared" si="5"/>
@@ -22240,9 +22290,9 @@
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="BB6" s="109">
+      <c r="BB6" s="109" t="str">
         <f t="shared" si="5"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="BC6" s="111" t="str">
         <f t="shared" si="5"/>
@@ -22291,7 +22341,7 @@
       </c>
       <c r="I7" s="115">
         <f>[15]Mode_PA_l_t_b1!J8</f>
-        <v>0.99990000000000001</v>
+        <v>0.48730000000000001</v>
       </c>
       <c r="J7" s="100">
         <f>[15]Mode_PA_l_t_b1!K8</f>
@@ -22327,11 +22377,11 @@
       </c>
       <c r="R7" s="115">
         <f>[15]Mode_PA_l_t_b1!J9</f>
-        <v>0.105</v>
-      </c>
-      <c r="S7" s="100">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="S7" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K9</f>
-        <v>0</v>
+        <v>p&lt;0.01</v>
       </c>
       <c r="T7" s="88">
         <f>[15]Mode_PA_l_t_b1!C10</f>
@@ -22359,15 +22409,15 @@
       </c>
       <c r="Z7" s="115">
         <f>[15]Mode_PA_l_t_b1!I10</f>
-        <v>1.0919E-8</v>
+        <v>1.09E-8</v>
       </c>
       <c r="AA7" s="115">
         <f>[15]Mode_PA_l_t_b1!J10</f>
-        <v>1.7499999999999999E-7</v>
+        <v>3.7800000000000001E-8</v>
       </c>
       <c r="AB7" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K10</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AC7" s="74">
         <f>[15]Mode_PA_l_t_b1!C11</f>
@@ -22399,7 +22449,7 @@
       </c>
       <c r="AJ7" s="115">
         <f>[15]Mode_PA_l_t_b1!J11</f>
-        <v>0.99990000000000001</v>
+        <v>0.72960000000000003</v>
       </c>
       <c r="AK7" s="100">
         <f>[15]Mode_PA_l_t_b1!K11</f>
@@ -22435,7 +22485,7 @@
       </c>
       <c r="AS7" s="115">
         <f>[15]Mode_PA_l_t_b1!J12</f>
-        <v>0.99990000000000001</v>
+        <v>0.37969999999999998</v>
       </c>
       <c r="AT7" s="100">
         <f>[15]Mode_PA_l_t_b1!K12</f>
@@ -22471,7 +22521,7 @@
       </c>
       <c r="BB7" s="115">
         <f>[15]Mode_PA_l_t_b1!J13</f>
-        <v>0.99990000000000001</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="BC7" s="100">
         <f>[15]Mode_PA_l_t_b1!K13</f>
@@ -22479,11 +22529,11 @@
       </c>
       <c r="BD7" s="76">
         <f>'B0 Mode'!AL7</f>
-        <v>8.7289487535243293E-2</v>
+        <v>8.72894875399952E-2</v>
       </c>
       <c r="BE7" s="76">
         <f>'B0 Mode'!AM7</f>
-        <v>0.76096721775151999</v>
+        <v>0.76096721773815101</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -22516,15 +22566,15 @@
       </c>
       <c r="H8" s="115">
         <f>[16]Mode_PA_h_t_b1!I8</f>
-        <v>2.9174999999999999E-9</v>
+        <v>2.9199999999999998E-9</v>
       </c>
       <c r="I8" s="115">
         <f>[16]Mode_PA_h_t_b1!J8</f>
-        <v>4.6700000000000001E-8</v>
+        <v>1.0999999999999999E-8</v>
       </c>
       <c r="J8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K8</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="K8" s="92">
         <f>[16]Mode_PA_h_t_b1!C9</f>
@@ -22556,7 +22606,7 @@
       </c>
       <c r="R8" s="115">
         <f>[16]Mode_PA_h_t_b1!J9</f>
-        <v>0.99990000000000001</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="S8" s="100">
         <f>[16]Mode_PA_h_t_b1!K9</f>
@@ -22592,11 +22642,11 @@
       </c>
       <c r="AA8" s="115">
         <f>[16]Mode_PA_h_t_b1!J10</f>
-        <v>0.3296</v>
-      </c>
-      <c r="AB8" s="100">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="AB8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K10</f>
-        <v>0</v>
+        <v>p&lt;0.05</v>
       </c>
       <c r="AC8" s="82">
         <f>[16]Mode_PA_h_t_b1!C11</f>
@@ -22624,15 +22674,15 @@
       </c>
       <c r="AI8" s="115">
         <f>[16]Mode_PA_h_t_b1!I11</f>
-        <v>1.9481999999999999E-7</v>
+        <v>1.9500000000000001E-7</v>
       </c>
       <c r="AJ8" s="115">
         <f>[16]Mode_PA_h_t_b1!J11</f>
-        <v>3.1200000000000002E-6</v>
+        <v>5.7400000000000003E-7</v>
       </c>
       <c r="AK8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K11</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL8" s="92">
         <f>[16]Mode_PA_h_t_b1!C12</f>
@@ -22660,15 +22710,15 @@
       </c>
       <c r="AR8" s="115">
         <f>[16]Mode_PA_h_t_b1!I12</f>
-        <v>1.3071000000000001E-7</v>
+        <v>1.31E-7</v>
       </c>
       <c r="AS8" s="115">
         <f>[16]Mode_PA_h_t_b1!J12</f>
-        <v>2.0899999999999999E-6</v>
+        <v>3.9000000000000002E-7</v>
       </c>
       <c r="AT8" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K12</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AU8" s="92">
         <f>[16]Mode_PA_h_t_b1!C13</f>
@@ -22700,7 +22750,7 @@
       </c>
       <c r="BB8" s="115">
         <f>[16]Mode_PA_h_t_b1!J13</f>
-        <v>0.99990000000000001</v>
+        <v>0.5202</v>
       </c>
       <c r="BC8" s="100">
         <f>[16]Mode_PA_h_t_b1!K13</f>
@@ -22708,11 +22758,11 @@
       </c>
       <c r="BD8" s="84">
         <f>'B0 Mode'!AL8</f>
-        <v>0.114226885016232</v>
+        <v>0.11422688459456599</v>
       </c>
       <c r="BE8" s="84">
         <f>'B0 Mode'!AM8</f>
-        <v>0.84172260348789496</v>
+        <v>0.84172260407700195</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -22747,9 +22797,9 @@
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="I9" s="107">
+      <c r="I9" s="107" t="str">
         <f t="shared" si="6"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="J9" s="107" t="str">
         <f t="shared" si="6"/>
@@ -22783,9 +22833,9 @@
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="R9" s="109">
+      <c r="R9" s="109" t="str">
         <f t="shared" si="6"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="S9" s="110" t="str">
         <f t="shared" si="6"/>
@@ -22819,9 +22869,9 @@
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="AA9" s="109">
+      <c r="AA9" s="109" t="str">
         <f t="shared" si="6"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AB9" s="110" t="str">
         <f t="shared" si="6"/>
@@ -22855,9 +22905,9 @@
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ9" s="109">
+      <c r="AJ9" s="109" t="str">
         <f t="shared" si="6"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AK9" s="110" t="str">
         <f t="shared" si="6"/>
@@ -22891,9 +22941,9 @@
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="AS9" s="109">
+      <c r="AS9" s="109" t="str">
         <f t="shared" si="6"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="AT9" s="110" t="str">
         <f t="shared" si="6"/>
@@ -22927,9 +22977,9 @@
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="BB9" s="109">
+      <c r="BB9" s="109" t="str">
         <f t="shared" si="6"/>
-        <v>6.8029999999999999</v>
+        <v>p.adj (BH)</v>
       </c>
       <c r="BC9" s="111" t="str">
         <f t="shared" si="6"/>
@@ -22974,15 +23024,15 @@
       </c>
       <c r="H10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I8</f>
-        <v>2.1782E-4</v>
+        <v>2.1800000000000001E-4</v>
       </c>
       <c r="I10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J8</f>
-        <v>3.5000000000000001E-3</v>
+        <v>4.6999999999999999E-4</v>
       </c>
       <c r="J10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K8</f>
-        <v>p&lt;0.01</v>
+        <v>p&lt;0.001</v>
       </c>
       <c r="K10" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C9</f>
@@ -23010,15 +23060,15 @@
       </c>
       <c r="Q10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I9</f>
-        <v>3.6640000000000001E-22</v>
+        <v>3.6599999999999998E-22</v>
       </c>
       <c r="R10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J9</f>
-        <v>5.86E-21</v>
+        <v>1.5199999999999999E-20</v>
       </c>
       <c r="S10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K9</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="T10" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C10</f>
@@ -23050,11 +23100,11 @@
       </c>
       <c r="AA10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J10</f>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="AB10" s="123">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="AB10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K10</f>
-        <v>0</v>
+        <v>(p&lt;0.1)</v>
       </c>
       <c r="AC10" s="25">
         <f>[17]Mode_PA_lh_slope_b1!C11</f>
@@ -23082,15 +23132,15 @@
       </c>
       <c r="AI10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I11</f>
-        <v>1.1284999999999999E-14</v>
+        <v>1.13E-14</v>
       </c>
       <c r="AJ10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J11</f>
-        <v>1.8100000000000001E-13</v>
+        <v>1.3500000000000001E-13</v>
       </c>
       <c r="AK10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K11</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AL10" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C12</f>
@@ -23118,15 +23168,15 @@
       </c>
       <c r="AR10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I12</f>
-        <v>1.6299000000000001E-5</v>
+        <v>1.63E-5</v>
       </c>
       <c r="AS10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J12</f>
-        <v>2.61E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="AT10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K12</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="AU10" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C13</f>
@@ -23154,28 +23204,28 @@
       </c>
       <c r="BA10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I13</f>
-        <v>3.1564E-18</v>
+        <v>3.1600000000000001E-18</v>
       </c>
       <c r="BB10" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J13</f>
-        <v>5.0500000000000001E-17</v>
+        <v>9.8799999999999998E-17</v>
       </c>
       <c r="BC10" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K13</f>
-        <v>p&lt;0.001</v>
+        <v>p&lt;0.0001</v>
       </c>
       <c r="BD10" s="25">
         <f>'B0 Mode'!AL10</f>
-        <v>0.164413606105271</v>
+        <v>0.16441360628863</v>
       </c>
       <c r="BE10" s="25">
         <f>'B0 Mode'!AM10</f>
-        <v>0.70158142523917799</v>
+        <v>0.70158142490362896</v>
       </c>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="AR15" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -23226,7 +23276,7 @@
   <dimension ref="G5:AB33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23261,7 +23311,7 @@
   <dimension ref="A1:AC60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23280,8 +23330,9 @@
     <col min="12" max="12" width="12" style="159" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" style="159" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" style="159" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="159" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="159" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="159" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="159" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="159" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2.42578125" style="152" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="152" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" style="152" bestFit="1" customWidth="1"/>
@@ -23438,11 +23489,11 @@
       </c>
       <c r="F3" s="144">
         <f>[7]Mode_PA_l_t_b0!H2</f>
-        <v>9.2697000000000004E-6</v>
+        <v>9.2699999999999993E-6</v>
       </c>
       <c r="G3" s="144">
         <f>[7]Mode_PA_l_t_b0!I2</f>
-        <v>1.4799999999999999E-4</v>
+        <v>2.3200000000000001E-5</v>
       </c>
       <c r="H3" s="127">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -23470,11 +23521,11 @@
       </c>
       <c r="O3" s="144">
         <f>[1]Mode_PA_l_f0_b0!H2</f>
-        <v>8.8675999999999995E-14</v>
+        <v>8.8700000000000003E-14</v>
       </c>
       <c r="P3" s="144">
         <f>[1]Mode_PA_l_f0_b0!I2</f>
-        <v>1.42E-12</v>
+        <v>5.5399999999999996E-13</v>
       </c>
       <c r="Q3" s="132">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -23502,11 +23553,11 @@
       </c>
       <c r="X3" s="144">
         <f>[5]Mode_PA_f0_exc_b0!H2</f>
-        <v>1.5283E-9</v>
+        <v>1.5300000000000001E-9</v>
       </c>
       <c r="Y3" s="176">
         <f>[5]Mode_PA_f0_exc_b0!I2</f>
-        <v>2.4500000000000001E-8</v>
+        <v>6.0699999999999999E-9</v>
       </c>
       <c r="Z3" s="132">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -23537,11 +23588,11 @@
       </c>
       <c r="F4" s="144">
         <f>[7]Mode_PA_l_t_b0!H3</f>
-        <v>8.8490999999999997E-6</v>
+        <v>8.85E-6</v>
       </c>
       <c r="G4" s="144">
         <f>[7]Mode_PA_l_t_b0!I3</f>
-        <v>1.4200000000000001E-4</v>
+        <v>2.26E-5</v>
       </c>
       <c r="H4" s="164">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -23569,11 +23620,11 @@
       </c>
       <c r="O4" s="144">
         <f>[1]Mode_PA_l_f0_b0!H3</f>
-        <v>1.4942000000000001E-13</v>
+        <v>1.49E-13</v>
       </c>
       <c r="P4" s="144">
         <f>[1]Mode_PA_l_f0_b0!I3</f>
-        <v>2.3900000000000001E-12</v>
+        <v>9.0899999999999996E-13</v>
       </c>
       <c r="Q4" s="131">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -23601,11 +23652,11 @@
       </c>
       <c r="X4" s="144">
         <f>[5]Mode_PA_f0_exc_b0!H3</f>
-        <v>9.6946000000000008E-10</v>
+        <v>9.6900000000000007E-10</v>
       </c>
       <c r="Y4" s="177">
         <f>[5]Mode_PA_f0_exc_b0!I3</f>
-        <v>1.55E-8</v>
+        <v>4.0400000000000001E-9</v>
       </c>
       <c r="Z4" s="131">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -23636,11 +23687,11 @@
       </c>
       <c r="F5" s="144">
         <f>[7]Mode_PA_l_t_b0!H4</f>
-        <v>7.4220000000000003E-6</v>
+        <v>7.4200000000000001E-6</v>
       </c>
       <c r="G5" s="144">
         <f>[7]Mode_PA_l_t_b0!I4</f>
-        <v>1.1900000000000001E-4</v>
+        <v>1.9300000000000002E-5</v>
       </c>
       <c r="H5" s="164">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -23668,11 +23719,11 @@
       </c>
       <c r="O5" s="144">
         <f>[1]Mode_PA_l_f0_b0!H4</f>
-        <v>3.3343000000000002E-14</v>
+        <v>3.3300000000000001E-14</v>
       </c>
       <c r="P5" s="144">
         <f>[1]Mode_PA_l_f0_b0!I4</f>
-        <v>5.3299999999999995E-13</v>
+        <v>2.97E-13</v>
       </c>
       <c r="Q5" s="131">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -23700,11 +23751,11 @@
       </c>
       <c r="X5" s="144">
         <f>[5]Mode_PA_f0_exc_b0!H4</f>
-        <v>7.0697999999999997E-10</v>
+        <v>7.0700000000000004E-10</v>
       </c>
       <c r="Y5" s="177">
         <f>[5]Mode_PA_f0_exc_b0!I4</f>
-        <v>1.13E-8</v>
+        <v>3E-9</v>
       </c>
       <c r="Z5" s="131">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -23735,11 +23786,11 @@
       </c>
       <c r="F6" s="144">
         <f>[7]Mode_PA_l_t_b0!H5</f>
-        <v>4.8637999999999997E-5</v>
+        <v>4.8600000000000002E-5</v>
       </c>
       <c r="G6" s="144">
         <f>[7]Mode_PA_l_t_b0!I5</f>
-        <v>7.7800000000000005E-4</v>
+        <v>1.13E-4</v>
       </c>
       <c r="H6" s="164">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -23767,11 +23818,11 @@
       </c>
       <c r="O6" s="144">
         <f>[1]Mode_PA_l_f0_b0!H5</f>
-        <v>4.7961999999999998E-14</v>
+        <v>4.7999999999999997E-14</v>
       </c>
       <c r="P6" s="144">
         <f>[1]Mode_PA_l_f0_b0!I5</f>
-        <v>7.6699999999999996E-13</v>
+        <v>3.7500000000000002E-13</v>
       </c>
       <c r="Q6" s="131">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -23799,11 +23850,11 @@
       </c>
       <c r="X6" s="144">
         <f>[5]Mode_PA_f0_exc_b0!H5</f>
-        <v>3.2048999999999998E-13</v>
+        <v>3.2E-13</v>
       </c>
       <c r="Y6" s="178">
         <f>[5]Mode_PA_f0_exc_b0!I5</f>
-        <v>5.1300000000000002E-12</v>
+        <v>1.8199999999999999E-12</v>
       </c>
       <c r="Z6" s="131">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -23834,11 +23885,11 @@
       </c>
       <c r="F7" s="144">
         <f>[7]Mode_PA_l_t_b0!H6</f>
-        <v>9.2697000000000004E-6</v>
+        <v>9.2699999999999993E-6</v>
       </c>
       <c r="G7" s="144">
         <f>[7]Mode_PA_l_t_b0!I6</f>
-        <v>1.4799999999999999E-4</v>
+        <v>2.3200000000000001E-5</v>
       </c>
       <c r="H7" s="164">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -23866,11 +23917,11 @@
       </c>
       <c r="O7" s="144">
         <f>[1]Mode_PA_l_f0_b0!H6</f>
-        <v>8.8675999999999995E-14</v>
+        <v>8.8700000000000003E-14</v>
       </c>
       <c r="P7" s="144">
         <f>[1]Mode_PA_l_f0_b0!I6</f>
-        <v>1.42E-12</v>
+        <v>5.5399999999999996E-13</v>
       </c>
       <c r="Q7" s="131">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -23898,11 +23949,11 @@
       </c>
       <c r="X7" s="179">
         <f>[5]Mode_PA_f0_exc_b0!H6</f>
-        <v>1.5283E-9</v>
+        <v>1.5300000000000001E-9</v>
       </c>
       <c r="Y7" s="177">
         <f>[5]Mode_PA_f0_exc_b0!I6</f>
-        <v>2.4500000000000001E-8</v>
+        <v>6.0699999999999999E-9</v>
       </c>
       <c r="Z7" s="131">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -23933,11 +23984,11 @@
       </c>
       <c r="F8" s="144">
         <f>[7]Mode_PA_l_t_b0!H7</f>
-        <v>7.3066999999999999E-6</v>
+        <v>7.3100000000000003E-6</v>
       </c>
       <c r="G8" s="144">
         <f>[7]Mode_PA_l_t_b0!I7</f>
-        <v>1.17E-4</v>
+        <v>1.9199999999999999E-5</v>
       </c>
       <c r="H8" s="164">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -23969,7 +24020,7 @@
       </c>
       <c r="P8" s="144">
         <f>[1]Mode_PA_l_f0_b0!I7</f>
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="131">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -24001,7 +24052,7 @@
       </c>
       <c r="Y8" s="133">
         <f>[5]Mode_PA_f0_exc_b0!I7</f>
-        <v>2.2599999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="Z8" s="131">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -24032,11 +24083,11 @@
       </c>
       <c r="F9" s="144">
         <f>[7]Mode_PA_l_t_b0!H8</f>
-        <v>1.9436000000000002E-5</v>
+        <v>1.9400000000000001E-5</v>
       </c>
       <c r="G9" s="144">
         <f>[7]Mode_PA_l_t_b0!I8</f>
-        <v>3.1100000000000002E-4</v>
+        <v>4.71E-5</v>
       </c>
       <c r="H9" s="164">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -24064,11 +24115,11 @@
       </c>
       <c r="O9" s="144">
         <f>[1]Mode_PA_l_f0_b0!H8</f>
-        <v>1.6252E-13</v>
+        <v>1.6300000000000001E-13</v>
       </c>
       <c r="P9" s="144">
         <f>[1]Mode_PA_l_f0_b0!I8</f>
-        <v>2.5999999999999998E-12</v>
+        <v>9.48E-13</v>
       </c>
       <c r="Q9" s="131">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -24096,11 +24147,11 @@
       </c>
       <c r="X9" s="179">
         <f>[5]Mode_PA_f0_exc_b0!H8</f>
-        <v>2.5025E-23</v>
+        <v>2.5000000000000001E-23</v>
       </c>
       <c r="Y9" s="177">
         <f>[5]Mode_PA_f0_exc_b0!I8</f>
-        <v>4.0000000000000002E-22</v>
+        <v>1.56E-21</v>
       </c>
       <c r="Z9" s="131">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -24131,11 +24182,11 @@
       </c>
       <c r="F10" s="147">
         <f>[7]Mode_PA_l_t_b0!H9</f>
-        <v>5.5705000000000003E-5</v>
+        <v>5.5699999999999999E-5</v>
       </c>
       <c r="G10" s="147">
         <f>[7]Mode_PA_l_t_b0!I9</f>
-        <v>8.9099999999999997E-4</v>
+        <v>1.27E-4</v>
       </c>
       <c r="H10" s="167">
         <f>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</f>
@@ -24163,11 +24214,11 @@
       </c>
       <c r="O10" s="147">
         <f>[1]Mode_PA_l_f0_b0!H9</f>
-        <v>7.3137999999999996E-13</v>
+        <v>7.3100000000000002E-13</v>
       </c>
       <c r="P10" s="147">
         <f>[1]Mode_PA_l_f0_b0!I9</f>
-        <v>1.1700000000000001E-11</v>
+        <v>4.0600000000000001E-12</v>
       </c>
       <c r="Q10" s="137">
         <f>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</f>
@@ -24195,11 +24246,11 @@
       </c>
       <c r="X10" s="180">
         <f>[5]Mode_PA_f0_exc_b0!H9</f>
-        <v>1.2849E-15</v>
+        <v>1.2800000000000001E-15</v>
       </c>
       <c r="Y10" s="178">
         <f>[5]Mode_PA_f0_exc_b0!I9</f>
-        <v>2.0599999999999999E-14</v>
+        <v>1.6799999999999998E-14</v>
       </c>
       <c r="Z10" s="137">
         <f>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</f>
@@ -24371,7 +24422,7 @@
       </c>
       <c r="G14" s="143">
         <f>[9]Mode_PA_h_t_b0!I2</f>
-        <v>2.1899999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H14" s="171">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24399,11 +24450,11 @@
       </c>
       <c r="O14" s="144">
         <f>[3]Mode_PA_h_f0_b0!H2</f>
-        <v>4.1473000000000002E-14</v>
+        <v>4.15E-14</v>
       </c>
       <c r="P14" s="144">
         <f>[3]Mode_PA_h_f0_b0!I2</f>
-        <v>6.64E-13</v>
+        <v>3.4599999999999999E-13</v>
       </c>
       <c r="Q14" s="132">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -24435,7 +24486,7 @@
       </c>
       <c r="Y14" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I2</f>
-        <v>0.1154</v>
+        <v>1.03E-2</v>
       </c>
       <c r="Z14" s="168">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -24472,7 +24523,7 @@
       </c>
       <c r="G15" s="143">
         <f>[9]Mode_PA_h_t_b0!I3</f>
-        <v>2.1999999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H15" s="172">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24500,11 +24551,11 @@
       </c>
       <c r="O15" s="144">
         <f>[3]Mode_PA_h_f0_b0!H3</f>
-        <v>1.3555E-14</v>
+        <v>1.36E-14</v>
       </c>
       <c r="P15" s="144">
         <f>[3]Mode_PA_h_f0_b0!I3</f>
-        <v>2.1700000000000001E-13</v>
+        <v>1.55E-13</v>
       </c>
       <c r="Q15" s="131">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -24536,7 +24587,7 @@
       </c>
       <c r="Y15" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I3</f>
-        <v>9.9500000000000005E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="Z15" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -24570,7 +24621,7 @@
       </c>
       <c r="G16" s="143">
         <f>[9]Mode_PA_h_t_b0!I4</f>
-        <v>2.1700000000000001E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H16" s="172">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24598,11 +24649,11 @@
       </c>
       <c r="O16" s="144">
         <f>[3]Mode_PA_h_f0_b0!H4</f>
-        <v>1.6688E-14</v>
+        <v>1.6700000000000001E-14</v>
       </c>
       <c r="P16" s="144">
         <f>[3]Mode_PA_h_f0_b0!I4</f>
-        <v>2.6700000000000002E-13</v>
+        <v>1.7399999999999999E-13</v>
       </c>
       <c r="Q16" s="131">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -24634,7 +24685,7 @@
       </c>
       <c r="Y16" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I4</f>
-        <v>0.1084</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="Z16" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -24668,7 +24719,7 @@
       </c>
       <c r="G17" s="143">
         <f>[9]Mode_PA_h_t_b0!I5</f>
-        <v>2.35E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="H17" s="172">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24696,11 +24747,11 @@
       </c>
       <c r="O17" s="144">
         <f>[3]Mode_PA_h_f0_b0!H5</f>
-        <v>6.7788999999999998E-14</v>
+        <v>6.7799999999999999E-14</v>
       </c>
       <c r="P17" s="144">
         <f>[3]Mode_PA_h_f0_b0!I5</f>
-        <v>1.08E-12</v>
+        <v>4.4600000000000002E-13</v>
       </c>
       <c r="Q17" s="131">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -24732,7 +24783,7 @@
       </c>
       <c r="Y17" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I5</f>
-        <v>5.6800000000000003E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="Z17" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -24766,7 +24817,7 @@
       </c>
       <c r="G18" s="143">
         <f>[9]Mode_PA_h_t_b0!I6</f>
-        <v>2.1899999999999999E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H18" s="172">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24795,11 +24846,11 @@
       </c>
       <c r="O18" s="144">
         <f>[3]Mode_PA_h_f0_b0!H6</f>
-        <v>4.1473000000000002E-14</v>
+        <v>4.15E-14</v>
       </c>
       <c r="P18" s="144">
         <f>[3]Mode_PA_h_f0_b0!I6</f>
-        <v>6.64E-13</v>
+        <v>3.4599999999999999E-13</v>
       </c>
       <c r="Q18" s="131">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -24831,7 +24882,7 @@
       </c>
       <c r="Y18" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I6</f>
-        <v>0.1154</v>
+        <v>1.03E-2</v>
       </c>
       <c r="Z18" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -24861,11 +24912,11 @@
       </c>
       <c r="F19" s="144">
         <f>[9]Mode_PA_h_t_b0!H7</f>
-        <v>9.8087000000000001E-4</v>
+        <v>9.810000000000001E-4</v>
       </c>
       <c r="G19" s="143">
         <f>[9]Mode_PA_h_t_b0!I7</f>
-        <v>1.5699999999999999E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="H19" s="172">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24893,11 +24944,11 @@
       </c>
       <c r="O19" s="144">
         <f>[3]Mode_PA_h_f0_b0!H7</f>
-        <v>8.7969000000000001E-23</v>
+        <v>8.7999999999999998E-23</v>
       </c>
       <c r="P19" s="144">
         <f>[3]Mode_PA_h_f0_b0!I7</f>
-        <v>1.4100000000000001E-21</v>
+        <v>4.4000000000000001E-21</v>
       </c>
       <c r="Q19" s="131">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -24929,7 +24980,7 @@
       </c>
       <c r="Y19" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I7</f>
-        <v>0.2472</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="Z19" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -24963,7 +25014,7 @@
       </c>
       <c r="G20" s="143">
         <f>[9]Mode_PA_h_t_b0!I8</f>
-        <v>1.6E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="H20" s="172">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -24991,11 +25042,11 @@
       </c>
       <c r="O20" s="144">
         <f>[3]Mode_PA_h_f0_b0!H8</f>
-        <v>2.3215999999999999E-14</v>
+        <v>2.3200000000000001E-14</v>
       </c>
       <c r="P20" s="144">
         <f>[3]Mode_PA_h_f0_b0!I8</f>
-        <v>3.7099999999999998E-13</v>
+        <v>2.3200000000000002E-13</v>
       </c>
       <c r="Q20" s="131">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -25023,11 +25074,11 @@
       </c>
       <c r="X20" s="145">
         <f>[11]Mode_PA_lh_slope_b0!H8</f>
-        <v>9.8802000000000004E-4</v>
+        <v>9.8799999999999995E-4</v>
       </c>
       <c r="Y20" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I8</f>
-        <v>1.5800000000000002E-2</v>
+        <v>1.9E-3</v>
       </c>
       <c r="Z20" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>
@@ -25061,7 +25112,7 @@
       </c>
       <c r="G21" s="146">
         <f>[9]Mode_PA_h_t_b0!I9</f>
-        <v>2.06E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="H21" s="174">
         <f>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</f>
@@ -25089,11 +25140,11 @@
       </c>
       <c r="O21" s="147">
         <f>[3]Mode_PA_h_f0_b0!H9</f>
-        <v>1.1703999999999999E-12</v>
+        <v>1.1700000000000001E-12</v>
       </c>
       <c r="P21" s="147">
         <f>[3]Mode_PA_h_f0_b0!I9</f>
-        <v>1.8700000000000001E-11</v>
+        <v>6.3600000000000004E-12</v>
       </c>
       <c r="Q21" s="137">
         <f>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</f>
@@ -25125,7 +25176,7 @@
       </c>
       <c r="Y21" s="145">
         <f>[11]Mode_PA_lh_slope_b0!I9</f>
-        <v>7.5399999999999995E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="Z21" s="173">
         <f>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</f>

--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA Phonetic Models.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA Phonetic Models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\antoi\GitHub\PhD\Ch_7_Sentence_Modes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33C20E3-F487-4D3B-B07E-D3F8C5C4D07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F4849-7077-48D0-B709-EA5A26D098D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'B0 Mode'!$A$1:$AM$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'B0 PA'!$A$1:$AM$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'B1 Mode'!$A$1:$BE$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'B1 PA'!$A$1:$BE$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'B1 PA'!$A$1:$L$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="67">
   <si>
     <t>Predictors</t>
   </si>
@@ -417,6 +417,81 @@
   <si>
     <t xml:space="preserve">   </t>
   </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 4</t>
+  </si>
+  <si>
+    <t>Table 5</t>
+  </si>
+  <si>
+    <t>Table 6</t>
+  </si>
+  <si>
+    <t>Pairwise analysis of acc_phon parameters as a function of acc_phon and mode</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +502,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +642,12 @@
     <font>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1406,7 +1487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1948,6 +2029,39 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1993,11 +2107,654 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="178">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4100,346 +4857,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11541,7 +11958,7 @@
       <sheetName val="Mode_PA_l_f0_b0"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="I1" t="str">
             <v>p.adj (BH)</v>
@@ -15324,17 +15741,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="J2:Q10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="J2:Q10" totalsRowShown="0" headerRowDxfId="177" dataDxfId="175" headerRowBorderDxfId="176" tableBorderDxfId="174" totalsRowBorderDxfId="173">
   <autoFilter ref="J2:Q10" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="68"/>
-    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p. val." dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{0603EEF6-D289-414E-9A6C-56120260E64A}" name="p. val. adj." dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="170"/>
+    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p. val." dataDxfId="167"/>
+    <tableColumn id="4" xr3:uid="{0603EEF6-D289-414E-9A6C-56120260E64A}" name="p. val. adj." dataDxfId="166"/>
+    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="165">
       <calculatedColumnFormula>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15343,17 +15760,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="J13:Q21" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="J13:Q21" totalsRowShown="0" headerRowDxfId="164" dataDxfId="162" headerRowBorderDxfId="163" tableBorderDxfId="161" totalsRowBorderDxfId="160">
   <autoFilter ref="J13:Q21" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p. val." dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{2C1E6FA3-F11F-4631-B0BB-23F7331F52BE}" name="p. val. adj." dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="157"/>
+    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="156"/>
+    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p. val." dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{2C1E6FA3-F11F-4631-B0BB-23F7331F52BE}" name="p. val. adj." dataDxfId="153"/>
+    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="152">
       <calculatedColumnFormula>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15362,17 +15779,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="S2:Z10" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="S2:Z10" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
   <autoFilter ref="S2:Z10" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="144"/>
+    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="141"/>
+    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="140"/>
+    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="139">
       <calculatedColumnFormula>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15381,17 +15798,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:H10" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:H10" totalsRowShown="0" headerRowDxfId="138" dataDxfId="136" headerRowBorderDxfId="137" tableBorderDxfId="135" totalsRowBorderDxfId="134">
   <autoFilter ref="A2:H10" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="133"/>
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="132"/>
+    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="131"/>
+    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="130"/>
+    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="129"/>
+    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="128"/>
+    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="127"/>
+    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="126">
       <calculatedColumnFormula>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15400,17 +15817,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A13:H21" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A13:H21" totalsRowShown="0" headerRowDxfId="125" dataDxfId="123" headerRowBorderDxfId="124" tableBorderDxfId="122" totalsRowBorderDxfId="121">
   <autoFilter ref="A13:H21" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="120"/>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="118"/>
+    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="116"/>
+    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="113">
       <calculatedColumnFormula>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15419,17 +15836,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="S13:Z21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="S13:Z21" totalsRowShown="0" headerRowDxfId="112" dataDxfId="110" headerRowBorderDxfId="111" tableBorderDxfId="109" totalsRowBorderDxfId="108">
   <autoFilter ref="S13:Z21" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="105"/>
+    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="100">
       <calculatedColumnFormula>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -15740,94 +16157,94 @@
   <dimension ref="A1:AM10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="124" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="27" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="27" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="28" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="27" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="27" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="29" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="29" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="27" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="27" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="27" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="29" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="29" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="27" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="27" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" style="27" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="27" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="29" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="29" customWidth="1"/>
-    <col min="38" max="39" width="11.42578125" style="27" customWidth="1"/>
-    <col min="40" max="16384" width="13.85546875" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="124" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="27" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="28" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="27" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="27" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="29" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="27" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="27" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="27" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="29" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="29" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="27" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="27" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="27" customWidth="1"/>
+    <col min="34" max="35" width="11.44140625" style="27" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" style="29" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="29" customWidth="1"/>
+    <col min="38" max="39" width="11.44140625" style="27" customWidth="1"/>
+    <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="126" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="126" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="194" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188" t="s">
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="190" t="s">
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="181" t="s">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="182"/>
+      <c r="AM1" s="193"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>38</v>
       </c>
@@ -15974,7 +16391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
@@ -16131,7 +16548,7 @@
         <v>0.963580594759613</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
@@ -16288,7 +16705,7 @@
         <v>0.941127033564787</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -16445,7 +16862,7 @@
         <v>0.70158142490362896</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
@@ -16600,7 +17017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
@@ -16757,7 +17174,7 @@
         <v>0.76096721773815101</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -16914,7 +17331,7 @@
         <v>0.84172260407700195</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
@@ -17069,7 +17486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>35</v>
       </c>
@@ -17235,44 +17652,47 @@
     <mergeCell ref="AC1:AK1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I5 H7:I8 H10:I10 Q3:R5 Q7:R7 Q10:R10 Z3:AA5 Z7:AA8 Z10:AA10 AI3:AJ5 AI7:AJ8 AI10:AJ10">
-    <cfRule type="cellIs" dxfId="128" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="10" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J5 J7:J8 J10 S3:S5 S7:S8 S10 AB3:AB5 AB7:AB8 AB10 AK3:AK5 AK7:AK8 AK10">
-    <cfRule type="containsText" dxfId="124" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="95" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="6" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="6" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="93" priority="7" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="7" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="92" priority="8" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="8" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="91" priority="9" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="cellIs" dxfId="120" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="2" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="3" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17289,128 +17709,128 @@
   <dimension ref="A1:BE10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="37" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="36" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="36" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="38" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="38" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="36" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="36" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="39" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="36" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="36" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="36" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="39" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="36" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="36" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="36" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="39" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="39" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="39" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="36" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="36" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="36" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="39" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="39" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="39" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="36" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="36" customWidth="1"/>
-    <col min="51" max="52" width="8.7109375" style="36" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="39" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="39" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="39" customWidth="1"/>
-    <col min="56" max="57" width="11.42578125" style="36" customWidth="1"/>
-    <col min="58" max="16384" width="13.85546875" style="36"/>
+    <col min="1" max="1" width="12.33203125" style="37" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="36" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="38" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="36" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="36" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="36" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="39" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="39" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="39" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="36" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="36" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="36" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="39" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" style="39" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="39" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="36" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="36" customWidth="1"/>
+    <col min="33" max="34" width="8.6640625" style="36" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" style="39" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" style="39" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="39" customWidth="1"/>
+    <col min="38" max="39" width="7.6640625" style="36" customWidth="1"/>
+    <col min="40" max="41" width="11.44140625" style="36" customWidth="1"/>
+    <col min="42" max="43" width="8.6640625" style="36" customWidth="1"/>
+    <col min="44" max="44" width="11.44140625" style="39" customWidth="1"/>
+    <col min="45" max="45" width="9.6640625" style="39" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="39" customWidth="1"/>
+    <col min="47" max="48" width="7.6640625" style="36" customWidth="1"/>
+    <col min="49" max="50" width="11.44140625" style="36" customWidth="1"/>
+    <col min="51" max="52" width="8.6640625" style="36" customWidth="1"/>
+    <col min="53" max="53" width="11.44140625" style="39" customWidth="1"/>
+    <col min="54" max="54" width="9.6640625" style="39" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" style="39" customWidth="1"/>
+    <col min="56" max="57" width="11.44140625" style="36" customWidth="1"/>
+    <col min="58" max="16384" width="13.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="192" t="s">
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="203" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="194"/>
-      <c r="T1" s="192" t="s">
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="193" t="s">
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="193"/>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="194"/>
-      <c r="AL1" s="192" t="s">
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="204"/>
+      <c r="AJ1" s="204"/>
+      <c r="AK1" s="205"/>
+      <c r="AL1" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="193"/>
-      <c r="AN1" s="193"/>
-      <c r="AO1" s="193"/>
-      <c r="AP1" s="193"/>
-      <c r="AQ1" s="193"/>
-      <c r="AR1" s="193"/>
-      <c r="AS1" s="193"/>
-      <c r="AT1" s="194"/>
-      <c r="AU1" s="192" t="s">
+      <c r="AM1" s="204"/>
+      <c r="AN1" s="204"/>
+      <c r="AO1" s="204"/>
+      <c r="AP1" s="204"/>
+      <c r="AQ1" s="204"/>
+      <c r="AR1" s="204"/>
+      <c r="AS1" s="204"/>
+      <c r="AT1" s="205"/>
+      <c r="AU1" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="193"/>
-      <c r="AW1" s="193"/>
-      <c r="AX1" s="193"/>
-      <c r="AY1" s="193"/>
-      <c r="AZ1" s="193"/>
-      <c r="BA1" s="193"/>
-      <c r="BB1" s="193"/>
-      <c r="BC1" s="194"/>
-      <c r="BD1" s="181" t="s">
+      <c r="AV1" s="204"/>
+      <c r="AW1" s="204"/>
+      <c r="AX1" s="204"/>
+      <c r="AY1" s="204"/>
+      <c r="AZ1" s="204"/>
+      <c r="BA1" s="204"/>
+      <c r="BB1" s="204"/>
+      <c r="BC1" s="205"/>
+      <c r="BD1" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="182"/>
+      <c r="BE1" s="193"/>
     </row>
-    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
         <v>38</v>
       </c>
@@ -17629,7 +18049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>26</v>
       </c>
@@ -17858,7 +18278,7 @@
         <v>0.963580594759613</v>
       </c>
     </row>
-    <row r="4" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>27</v>
       </c>
@@ -18087,7 +18507,7 @@
         <v>0.941127033564787</v>
       </c>
     </row>
-    <row r="5" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" s="78" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>5</v>
       </c>
@@ -18316,7 +18736,7 @@
         <v>0.70158142490362896</v>
       </c>
     </row>
-    <row r="6" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
         <v>6</v>
       </c>
@@ -18543,7 +18963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86" t="s">
         <v>4</v>
       </c>
@@ -18772,7 +19192,7 @@
         <v>0.76096721773815101</v>
       </c>
     </row>
-    <row r="8" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="89" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90" t="s">
         <v>3</v>
       </c>
@@ -19001,7 +19421,7 @@
         <v>0.84172260407700195</v>
       </c>
     </row>
-    <row r="9" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
         <v>42</v>
       </c>
@@ -19228,7 +19648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -19468,30 +19888,33 @@
     <mergeCell ref="AL1:AT1"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I10 H7:I8 H3:I5 BA10:BB10 BA7:BB8 BA3:BB5 AR10:AS10 AR7:AS8 AR3:AS5 AI10:AJ10 AI7:AJ8 AI3:AJ5 Z10:AA10 Z7:AA8 Z3:AA5 Q10:R10 Q7:R8 Q3:R5">
-    <cfRule type="cellIs" dxfId="116" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC10 BC7:BC8 BC3:BC5 AT3:AT5 AT7:AT8 AT10 AK10 AK7:AK8 AK3:AK5 AB10 AB7:AB8 AB3:AB5 S10 S7:S8 S3:S5 J10 J7:J8 J3:J5">
-    <cfRule type="containsText" dxfId="112" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="82" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="80" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="79" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="78" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19507,95 +19930,95 @@
   </sheetPr>
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="47" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="124" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="27" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="27" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="28" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="27" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="27" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" style="29" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="29" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="27" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="27" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="27" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="27" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="29" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="29" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="27" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="27" customWidth="1"/>
-    <col min="33" max="33" width="8.7109375" style="27" customWidth="1"/>
-    <col min="34" max="35" width="11.42578125" style="27" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" style="29" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="29" customWidth="1"/>
-    <col min="38" max="39" width="11.42578125" style="27" customWidth="1"/>
-    <col min="40" max="16384" width="13.85546875" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="124" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" style="27" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="28" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="27" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" style="27" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="29" customWidth="1"/>
+    <col min="20" max="21" width="7.6640625" style="27" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" style="27" customWidth="1"/>
+    <col min="24" max="25" width="8.6640625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="27" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" style="29" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="29" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" style="27" customWidth="1"/>
+    <col min="31" max="32" width="11.44140625" style="27" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="27" customWidth="1"/>
+    <col min="34" max="35" width="11.44140625" style="27" customWidth="1"/>
+    <col min="36" max="36" width="11.109375" style="29" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="29" customWidth="1"/>
+    <col min="38" max="39" width="11.44140625" style="27" customWidth="1"/>
+    <col min="40" max="16384" width="13.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="186" t="s">
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="197" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="188" t="s">
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="189"/>
-      <c r="V1" s="189"/>
-      <c r="W1" s="189"/>
-      <c r="X1" s="189"/>
-      <c r="Y1" s="189"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="189"/>
-      <c r="AB1" s="189"/>
-      <c r="AC1" s="190" t="s">
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="201" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="181" t="s">
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
+      <c r="AF1" s="202"/>
+      <c r="AG1" s="202"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="202"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="182"/>
+      <c r="AM1" s="193"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>38</v>
       </c>
@@ -19744,7 +20167,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
@@ -19901,7 +20324,7 @@
         <v>0.963580594759613</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="2" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
@@ -20058,7 +20481,7 @@
         <v>0.941127033564787</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -20215,7 +20638,7 @@
         <v>0.70158142490362896</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
@@ -20372,7 +20795,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
@@ -20529,7 +20952,7 @@
         <v>0.76096721773815101</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -20686,7 +21109,7 @@
         <v>0.84172260407700195</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>17</v>
       </c>
@@ -20843,7 +21266,7 @@
         <v xml:space="preserve">R2c </v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>35</v>
       </c>
@@ -21009,30 +21432,33 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I8 H10:I10 Q3:R7 Q10:R10 Z3:AA8 Z10:AA10 AI3:AJ8 AI10:AJ10 H1:I1 Q1:R1 Z1:AA1 AI1:AJ1">
-    <cfRule type="cellIs" dxfId="108" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="10" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J8 J10 S3:S8 S10 AB3:AB8 AB10 AK3:AK8 AK10 J1 S1 AB1 AK1">
-    <cfRule type="containsText" dxfId="104" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="73" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="71" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="70" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="69" priority="6" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21043,2231 +21469,4943 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3199D3A-C7AA-42CE-94DF-3AFCF3BF41CB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BE15"/>
+  <dimension ref="A1:BE106"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="69" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="37" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" style="36" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="36" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="38" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="38" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="36" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="36" customWidth="1"/>
-    <col min="15" max="16" width="8.7109375" style="36" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="39" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="39" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="39" customWidth="1"/>
-    <col min="20" max="21" width="7.7109375" style="36" customWidth="1"/>
-    <col min="22" max="23" width="11.42578125" style="36" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" style="36" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="39" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="39" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" style="39" customWidth="1"/>
-    <col min="29" max="30" width="7.7109375" style="36" customWidth="1"/>
-    <col min="31" max="32" width="11.42578125" style="36" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="36" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" style="39" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" style="39" customWidth="1"/>
-    <col min="37" max="37" width="11.42578125" style="39" customWidth="1"/>
-    <col min="38" max="39" width="7.7109375" style="36" customWidth="1"/>
-    <col min="40" max="41" width="11.42578125" style="36" customWidth="1"/>
-    <col min="42" max="43" width="8.7109375" style="36" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" style="39" customWidth="1"/>
-    <col min="45" max="45" width="9.7109375" style="39" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="39" customWidth="1"/>
-    <col min="47" max="48" width="7.7109375" style="36" customWidth="1"/>
-    <col min="49" max="50" width="11.42578125" style="36" customWidth="1"/>
-    <col min="51" max="52" width="8.7109375" style="36" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="39" customWidth="1"/>
-    <col min="54" max="54" width="9.7109375" style="39" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" style="39" customWidth="1"/>
-    <col min="56" max="57" width="11.42578125" style="36" customWidth="1"/>
-    <col min="58" max="16384" width="13.85546875" style="36"/>
+    <col min="1" max="3" width="12.33203125" style="37" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="36" customWidth="1"/>
+    <col min="8" max="9" width="8.6640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="38" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" style="36" customWidth="1"/>
+    <col min="15" max="16" width="11.44140625" style="36" customWidth="1"/>
+    <col min="17" max="18" width="8.6640625" style="36" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="39" customWidth="1"/>
+    <col min="20" max="20" width="9.6640625" style="39" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" style="39" customWidth="1"/>
+    <col min="22" max="23" width="7.6640625" style="36" customWidth="1"/>
+    <col min="24" max="25" width="11.44140625" style="36" customWidth="1"/>
+    <col min="26" max="27" width="8.6640625" style="36" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" style="39" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="39" customWidth="1"/>
+    <col min="30" max="30" width="11.44140625" style="39" customWidth="1"/>
+    <col min="31" max="32" width="7.6640625" style="36" customWidth="1"/>
+    <col min="33" max="34" width="11.44140625" style="36" customWidth="1"/>
+    <col min="35" max="36" width="8.6640625" style="36" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" style="39" customWidth="1"/>
+    <col min="38" max="38" width="9.6640625" style="39" customWidth="1"/>
+    <col min="39" max="39" width="11.44140625" style="39" customWidth="1"/>
+    <col min="40" max="41" width="7.6640625" style="36" customWidth="1"/>
+    <col min="42" max="43" width="11.44140625" style="36" customWidth="1"/>
+    <col min="44" max="45" width="8.6640625" style="36" customWidth="1"/>
+    <col min="46" max="46" width="11.44140625" style="39" customWidth="1"/>
+    <col min="47" max="47" width="9.6640625" style="39" customWidth="1"/>
+    <col min="48" max="48" width="11.44140625" style="39" customWidth="1"/>
+    <col min="49" max="50" width="7.6640625" style="36" customWidth="1"/>
+    <col min="51" max="52" width="11.44140625" style="36" customWidth="1"/>
+    <col min="53" max="54" width="8.6640625" style="36" customWidth="1"/>
+    <col min="55" max="55" width="11.44140625" style="39" customWidth="1"/>
+    <col min="56" max="56" width="9.6640625" style="39" customWidth="1"/>
+    <col min="57" max="57" width="11.44140625" style="39" customWidth="1"/>
+    <col min="58" max="59" width="11.44140625" style="36" customWidth="1"/>
+    <col min="60" max="16384" width="13.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:57" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+    </row>
+    <row r="2" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+    </row>
+    <row r="3" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+    </row>
+    <row r="4" spans="1:57" s="35" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B4" s="204" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="195" t="s">
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="193"/>
-      <c r="S1" s="193"/>
-      <c r="T1" s="195" t="s">
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="193"/>
-      <c r="AB1" s="193"/>
-      <c r="AC1" s="195" t="s">
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+      <c r="AC4" s="204"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="206" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="193"/>
-      <c r="AG1" s="193"/>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="193"/>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="193"/>
-      <c r="AL1" s="195" t="s">
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="204"/>
+      <c r="AI4" s="204"/>
+      <c r="AJ4" s="204"/>
+      <c r="AK4" s="204"/>
+      <c r="AL4" s="204"/>
+      <c r="AM4" s="204"/>
+      <c r="AN4" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" s="193"/>
-      <c r="AN1" s="193"/>
-      <c r="AO1" s="193"/>
-      <c r="AP1" s="193"/>
-      <c r="AQ1" s="193"/>
-      <c r="AR1" s="193"/>
-      <c r="AS1" s="193"/>
-      <c r="AT1" s="193"/>
-      <c r="AU1" s="195" t="s">
+      <c r="AO4" s="204"/>
+      <c r="AP4" s="204"/>
+      <c r="AQ4" s="204"/>
+      <c r="AR4" s="204"/>
+      <c r="AS4" s="204"/>
+      <c r="AT4" s="204"/>
+      <c r="AU4" s="204"/>
+      <c r="AV4" s="204"/>
+      <c r="AW4" s="206" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="193"/>
-      <c r="AW1" s="193"/>
-      <c r="AX1" s="193"/>
-      <c r="AY1" s="193"/>
-      <c r="AZ1" s="193"/>
-      <c r="BA1" s="193"/>
-      <c r="BB1" s="193"/>
-      <c r="BC1" s="193"/>
-      <c r="BD1" s="181" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE1" s="182"/>
+      <c r="AX4" s="204"/>
+      <c r="AY4" s="204"/>
+      <c r="AZ4" s="204"/>
+      <c r="BA4" s="204"/>
+      <c r="BB4" s="204"/>
+      <c r="BC4" s="204"/>
+      <c r="BD4" s="204"/>
+      <c r="BE4" s="204"/>
     </row>
-    <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+    <row r="5" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B5" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="E5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="F5" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="G5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="H5" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="I5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="J5" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="107" t="str">
+      <c r="K5" s="107" t="str">
         <f>[16]Mode_PA_h_t_b1!J1</f>
         <v>p.adj (BH)</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="L5" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="108" t="str">
-        <f t="shared" ref="K2:S2" si="0">B2</f>
+      <c r="M5" s="105" t="str">
+        <f t="shared" ref="M5:U5" si="0">D5</f>
         <v>β1</v>
       </c>
-      <c r="L2" s="105" t="str">
+      <c r="N5" s="105" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="M2" s="105" t="str">
+      <c r="O5" s="105" t="str">
         <f t="shared" si="0"/>
         <v>2.5% CI</v>
       </c>
-      <c r="N2" s="105" t="str">
+      <c r="P5" s="105" t="str">
         <f t="shared" si="0"/>
         <v>97.5% CI</v>
       </c>
-      <c r="O2" s="105" t="str">
+      <c r="Q5" s="105" t="str">
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="P2" s="105" t="str">
+      <c r="R5" s="105" t="str">
         <f t="shared" si="0"/>
         <v>df</v>
       </c>
-      <c r="Q2" s="109" t="str">
+      <c r="S5" s="109" t="str">
         <f t="shared" si="0"/>
         <v>p. val.</v>
       </c>
-      <c r="R2" s="109" t="str">
+      <c r="T5" s="109" t="str">
         <f t="shared" si="0"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="S2" s="110" t="str">
+      <c r="U5" s="110" t="str">
         <f t="shared" si="0"/>
         <v>sig.</v>
       </c>
-      <c r="T2" s="108" t="str">
-        <f t="shared" ref="T2:AB2" si="1">B2</f>
+      <c r="V5" s="108" t="str">
+        <f t="shared" ref="V5:AD5" si="1">D5</f>
         <v>β1</v>
       </c>
-      <c r="U2" s="105" t="str">
+      <c r="W5" s="105" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="V2" s="105" t="str">
+      <c r="X5" s="105" t="str">
         <f t="shared" si="1"/>
         <v>2.5% CI</v>
       </c>
-      <c r="W2" s="105" t="str">
+      <c r="Y5" s="105" t="str">
         <f t="shared" si="1"/>
         <v>97.5% CI</v>
       </c>
-      <c r="X2" s="105" t="str">
+      <c r="Z5" s="105" t="str">
         <f t="shared" si="1"/>
         <v>t</v>
       </c>
-      <c r="Y2" s="105" t="str">
+      <c r="AA5" s="105" t="str">
         <f t="shared" si="1"/>
         <v>df</v>
       </c>
-      <c r="Z2" s="109" t="str">
+      <c r="AB5" s="109" t="str">
         <f t="shared" si="1"/>
         <v>p. val.</v>
       </c>
-      <c r="AA2" s="109" t="str">
+      <c r="AC5" s="109" t="str">
         <f t="shared" si="1"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AB2" s="110" t="str">
+      <c r="AD5" s="110" t="str">
         <f t="shared" si="1"/>
         <v>sig.</v>
       </c>
-      <c r="AC2" s="105" t="str">
-        <f t="shared" ref="AC2:AJ2" si="2">B2</f>
+      <c r="AE5" s="105" t="str">
+        <f t="shared" ref="AE5:AM5" si="2">D5</f>
         <v>β1</v>
       </c>
-      <c r="AD2" s="105" t="str">
+      <c r="AF5" s="105" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AE2" s="105" t="str">
+      <c r="AG5" s="105" t="str">
         <f t="shared" si="2"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AF2" s="105" t="str">
+      <c r="AH5" s="105" t="str">
         <f t="shared" si="2"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AG2" s="105" t="str">
+      <c r="AI5" s="105" t="str">
         <f t="shared" si="2"/>
         <v>t</v>
       </c>
-      <c r="AH2" s="105" t="str">
+      <c r="AJ5" s="105" t="str">
         <f t="shared" si="2"/>
         <v>df</v>
       </c>
-      <c r="AI2" s="109" t="str">
+      <c r="AK5" s="109" t="str">
         <f t="shared" si="2"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ2" s="109" t="str">
+      <c r="AL5" s="109" t="str">
         <f t="shared" si="2"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AK2" s="110" t="str">
-        <f>J2</f>
+      <c r="AM5" s="110" t="str">
+        <f t="shared" si="2"/>
         <v>sig.</v>
       </c>
-      <c r="AL2" s="108" t="str">
-        <f t="shared" ref="AL2:AS2" si="3">B2</f>
+      <c r="AN5" s="108" t="str">
+        <f t="shared" ref="AN5:AV5" si="3">D5</f>
         <v>β1</v>
       </c>
-      <c r="AM2" s="105" t="str">
+      <c r="AO5" s="105" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AN2" s="105" t="str">
+      <c r="AP5" s="105" t="str">
         <f t="shared" si="3"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AO2" s="105" t="str">
+      <c r="AQ5" s="105" t="str">
         <f t="shared" si="3"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AP2" s="105" t="str">
+      <c r="AR5" s="105" t="str">
         <f t="shared" si="3"/>
         <v>t</v>
       </c>
-      <c r="AQ2" s="105" t="str">
+      <c r="AS5" s="105" t="str">
         <f t="shared" si="3"/>
         <v>df</v>
       </c>
-      <c r="AR2" s="109" t="str">
+      <c r="AT5" s="109" t="str">
         <f t="shared" si="3"/>
         <v>p. val.</v>
       </c>
-      <c r="AS2" s="109" t="str">
+      <c r="AU5" s="109" t="str">
         <f t="shared" si="3"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AT2" s="110" t="str">
-        <f>J2</f>
+      <c r="AV5" s="110" t="str">
+        <f t="shared" si="3"/>
         <v>sig.</v>
       </c>
-      <c r="AU2" s="108" t="str">
-        <f t="shared" ref="AU2:BB2" si="4">B2</f>
+      <c r="AW5" s="108" t="str">
+        <f t="shared" ref="AW5:BD5" si="4">D5</f>
         <v>β1</v>
       </c>
-      <c r="AV2" s="105" t="str">
+      <c r="AX5" s="105" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AW2" s="105" t="str">
+      <c r="AY5" s="105" t="str">
         <f t="shared" si="4"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AX2" s="105" t="str">
+      <c r="AZ5" s="105" t="str">
         <f t="shared" si="4"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AY2" s="105" t="str">
+      <c r="BA5" s="105" t="str">
         <f t="shared" si="4"/>
         <v>t</v>
       </c>
-      <c r="AZ2" s="105" t="str">
+      <c r="BB5" s="105" t="str">
         <f t="shared" si="4"/>
         <v>df</v>
       </c>
-      <c r="BA2" s="109" t="str">
+      <c r="BC5" s="109" t="str">
         <f t="shared" si="4"/>
         <v>p. val.</v>
       </c>
-      <c r="BB2" s="109" t="str">
+      <c r="BD5" s="109" t="str">
         <f t="shared" si="4"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="BC2" s="111" t="str">
-        <f>S2</f>
+      <c r="BE5" s="111" t="str">
+        <f>U5</f>
         <v>sig.</v>
       </c>
-      <c r="BD2" s="105" t="str">
-        <f>'B0 Mode'!AL2</f>
-        <v xml:space="preserve">R2m </v>
-      </c>
-      <c r="BE2" s="105" t="str">
-        <f>'B0 Mode'!AM2</f>
-        <v xml:space="preserve">R2c </v>
-      </c>
     </row>
-    <row r="3" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+    <row r="6" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="75">
+      <c r="B6" s="76">
+        <f>'B0 Mode'!AL3</f>
+        <v>7.7364655662846102E-2</v>
+      </c>
+      <c r="C6" s="76">
+        <f>'B0 Mode'!AM3</f>
+        <v>0.963580594759613</v>
+      </c>
+      <c r="D6" s="76">
         <f>[12]Mode_PA_l_f0_b1!C8</f>
         <v>1.97</v>
       </c>
-      <c r="C3" s="76">
+      <c r="E6" s="76">
         <f>[12]Mode_PA_l_f0_b1!D8</f>
         <v>1.151</v>
       </c>
-      <c r="D3" s="76">
+      <c r="F6" s="76">
         <f>[12]Mode_PA_l_f0_b1!E8</f>
         <v>-0.28599999999999998</v>
       </c>
-      <c r="E3" s="76">
+      <c r="G6" s="76">
         <f>[12]Mode_PA_l_f0_b1!F8</f>
         <v>4.226</v>
       </c>
-      <c r="F3" s="76">
+      <c r="H6" s="76">
         <f>[12]Mode_PA_l_f0_b1!G8</f>
         <v>1.7110000000000001</v>
       </c>
-      <c r="G3" s="76">
+      <c r="I6" s="76">
         <f>[12]Mode_PA_l_f0_b1!H8</f>
         <v>1.69</v>
       </c>
-      <c r="H3" s="115">
+      <c r="J6" s="115">
         <f>[12]Mode_PA_l_f0_b1!I8</f>
         <v>0.25130000000000002</v>
       </c>
-      <c r="I3" s="115">
+      <c r="K6" s="115">
         <f>[12]Mode_PA_l_f0_b1!J8</f>
         <v>0.31259999999999999</v>
       </c>
-      <c r="J3" s="100">
+      <c r="L6" s="185">
         <f>[12]Mode_PA_l_f0_b1!K8</f>
         <v>0</v>
       </c>
-      <c r="K3" s="77">
+      <c r="M6" s="76">
         <f>[12]Mode_PA_l_f0_b1!C9</f>
         <v>0.29299999999999998</v>
       </c>
-      <c r="L3" s="76">
+      <c r="N6" s="76">
         <f>[12]Mode_PA_l_f0_b1!D9</f>
         <v>0.31</v>
       </c>
-      <c r="M3" s="76">
+      <c r="O6" s="76">
         <f>[12]Mode_PA_l_f0_b1!E9</f>
         <v>-0.316</v>
       </c>
-      <c r="N3" s="76">
+      <c r="P6" s="76">
         <f>[12]Mode_PA_l_f0_b1!F9</f>
         <v>0.90100000000000002</v>
       </c>
-      <c r="O3" s="76">
+      <c r="Q6" s="76">
         <f>[12]Mode_PA_l_f0_b1!G9</f>
         <v>0.94299999999999995</v>
       </c>
-      <c r="P3" s="76">
+      <c r="R6" s="76">
         <f>[12]Mode_PA_l_f0_b1!H9</f>
         <v>17.190000000000001</v>
       </c>
-      <c r="Q3" s="115">
+      <c r="S6" s="115">
         <f>[12]Mode_PA_l_f0_b1!I9</f>
         <v>0.35859999999999997</v>
       </c>
-      <c r="R3" s="115">
+      <c r="T6" s="115">
         <f>[12]Mode_PA_l_f0_b1!J9</f>
         <v>0.43099999999999999</v>
       </c>
-      <c r="S3" s="100">
+      <c r="U6" s="100">
         <f>[12]Mode_PA_l_f0_b1!K9</f>
         <v>0</v>
       </c>
-      <c r="T3" s="77">
+      <c r="V6" s="77">
         <f>[12]Mode_PA_l_f0_b1!C10</f>
         <v>2.4649999999999999</v>
       </c>
-      <c r="U3" s="76">
+      <c r="W6" s="76">
         <f>[12]Mode_PA_l_f0_b1!D10</f>
         <v>0.497</v>
       </c>
-      <c r="V3" s="76">
+      <c r="X6" s="76">
         <f>[12]Mode_PA_l_f0_b1!E10</f>
         <v>1.49</v>
       </c>
-      <c r="W3" s="76">
+      <c r="Y6" s="76">
         <f>[12]Mode_PA_l_f0_b1!F10</f>
         <v>3.44</v>
       </c>
-      <c r="X3" s="76">
+      <c r="Z6" s="76">
         <f>[12]Mode_PA_l_f0_b1!G10</f>
         <v>4.9560000000000004</v>
       </c>
-      <c r="Y3" s="76">
+      <c r="AA6" s="76">
         <f>[12]Mode_PA_l_f0_b1!H10</f>
         <v>7.76</v>
       </c>
-      <c r="Z3" s="115">
+      <c r="AB6" s="115">
         <f>[12]Mode_PA_l_f0_b1!I10</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AA3" s="115">
+      <c r="AC6" s="115">
         <f>[12]Mode_PA_l_f0_b1!J10</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="AB3" s="100" t="str">
+      <c r="AD6" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K10</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="AC3" s="76">
+      <c r="AE6" s="76">
         <f>[12]Mode_PA_l_f0_b1!C11</f>
         <v>-1.2949999999999999</v>
       </c>
-      <c r="AD3" s="76">
+      <c r="AF6" s="76">
         <f>[12]Mode_PA_l_f0_b1!D11</f>
         <v>0.68600000000000005</v>
       </c>
-      <c r="AE3" s="76">
+      <c r="AG6" s="76">
         <f>[12]Mode_PA_l_f0_b1!E11</f>
         <v>-2.641</v>
       </c>
-      <c r="AF3" s="76">
+      <c r="AH6" s="76">
         <f>[12]Mode_PA_l_f0_b1!F11</f>
         <v>0.05</v>
       </c>
-      <c r="AG3" s="76">
+      <c r="AI6" s="76">
         <f>[12]Mode_PA_l_f0_b1!G11</f>
         <v>-1.887</v>
       </c>
-      <c r="AH3" s="76">
+      <c r="AJ6" s="76">
         <f>[12]Mode_PA_l_f0_b1!H11</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="115">
+      <c r="AK6" s="115">
         <f>[12]Mode_PA_l_f0_b1!I11</f>
         <v>1</v>
       </c>
-      <c r="AJ3" s="115">
+      <c r="AL6" s="115">
         <f>[12]Mode_PA_l_f0_b1!J11</f>
         <v>1</v>
       </c>
-      <c r="AK3" s="100">
+      <c r="AM6" s="100">
         <f>[12]Mode_PA_l_f0_b1!K11</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="77">
+      <c r="AN6" s="77">
         <f>[12]Mode_PA_l_f0_b1!C12</f>
         <v>0.877</v>
       </c>
-      <c r="AM3" s="76">
+      <c r="AO6" s="76">
         <f>[12]Mode_PA_l_f0_b1!D12</f>
         <v>0.78300000000000003</v>
       </c>
-      <c r="AN3" s="76">
+      <c r="AP6" s="76">
         <f>[12]Mode_PA_l_f0_b1!E12</f>
         <v>-0.65700000000000003</v>
       </c>
-      <c r="AO3" s="76">
+      <c r="AQ6" s="76">
         <f>[12]Mode_PA_l_f0_b1!F12</f>
         <v>2.411</v>
       </c>
-      <c r="AP3" s="76">
+      <c r="AR6" s="76">
         <f>[12]Mode_PA_l_f0_b1!G12</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="AQ3" s="76">
+      <c r="AS6" s="76">
         <f>[12]Mode_PA_l_f0_b1!H12</f>
         <v>0</v>
       </c>
-      <c r="AR3" s="115">
+      <c r="AT6" s="115">
         <f>[12]Mode_PA_l_f0_b1!I12</f>
         <v>1</v>
       </c>
-      <c r="AS3" s="115">
+      <c r="AU6" s="115">
         <f>[12]Mode_PA_l_f0_b1!J12</f>
         <v>1</v>
       </c>
-      <c r="AT3" s="100">
+      <c r="AV6" s="100">
         <f>[12]Mode_PA_l_f0_b1!K12</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="77">
+      <c r="AW6" s="77">
         <f>[12]Mode_PA_l_f0_b1!C13</f>
         <v>2.1720000000000002</v>
       </c>
-      <c r="AV3" s="76">
+      <c r="AX6" s="76">
         <f>[12]Mode_PA_l_f0_b1!D13</f>
         <v>0.55500000000000005</v>
       </c>
-      <c r="AW3" s="76">
+      <c r="AY6" s="76">
         <f>[12]Mode_PA_l_f0_b1!E13</f>
         <v>1.0840000000000001</v>
       </c>
-      <c r="AX3" s="76">
+      <c r="AZ6" s="76">
         <f>[12]Mode_PA_l_f0_b1!F13</f>
         <v>3.26</v>
       </c>
-      <c r="AY3" s="76">
+      <c r="BA6" s="76">
         <f>[12]Mode_PA_l_f0_b1!G13</f>
         <v>3.9129999999999998</v>
       </c>
-      <c r="AZ3" s="76">
+      <c r="BB6" s="76">
         <f>[12]Mode_PA_l_f0_b1!H13</f>
         <v>11.67</v>
       </c>
-      <c r="BA3" s="115">
+      <c r="BC6" s="115">
         <f>[12]Mode_PA_l_f0_b1!I13</f>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="BB3" s="115">
+      <c r="BD6" s="115">
         <f>[12]Mode_PA_l_f0_b1!J13</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="BC3" s="100" t="str">
+      <c r="BE6" s="100" t="str">
         <f>[12]Mode_PA_l_f0_b1!K13</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="BD3" s="76">
-        <f>'B0 Mode'!AL3</f>
-        <v>7.7364655662846102E-2</v>
-      </c>
-      <c r="BE3" s="76">
-        <f>'B0 Mode'!AM3</f>
-        <v>0.963580594759613</v>
-      </c>
     </row>
-    <row r="4" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+    <row r="7" spans="1:57" s="114" customFormat="1" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B7" s="73">
+        <f>'B0 Mode'!AL4</f>
+        <v>0.18252779357841101</v>
+      </c>
+      <c r="C7" s="73">
+        <f>'B0 Mode'!AM4</f>
+        <v>0.941127033564787</v>
+      </c>
+      <c r="D7" s="73">
         <f>[13]Mode_PA_h_f0_b1!C8</f>
         <v>-1.3859999999999999</v>
       </c>
-      <c r="C4" s="73">
+      <c r="E7" s="73">
         <f>[13]Mode_PA_h_f0_b1!D8</f>
         <v>1.59</v>
       </c>
-      <c r="D4" s="73">
+      <c r="F7" s="73">
         <f>[13]Mode_PA_h_f0_b1!E8</f>
         <v>-4.5019999999999998</v>
       </c>
-      <c r="E4" s="73">
+      <c r="G7" s="73">
         <f>[13]Mode_PA_h_f0_b1!F8</f>
         <v>1.7290000000000001</v>
       </c>
-      <c r="F4" s="73">
+      <c r="H7" s="73">
         <f>[13]Mode_PA_h_f0_b1!G8</f>
         <v>-0.872</v>
       </c>
-      <c r="G4" s="73">
+      <c r="I7" s="73">
         <f>[13]Mode_PA_h_f0_b1!H8</f>
         <v>0</v>
       </c>
-      <c r="H4" s="115">
+      <c r="J7" s="115">
         <f>[13]Mode_PA_h_f0_b1!I8</f>
         <v>1</v>
       </c>
-      <c r="I4" s="115">
+      <c r="K7" s="115">
         <f>[13]Mode_PA_h_f0_b1!J8</f>
         <v>1</v>
       </c>
-      <c r="J4" s="100">
+      <c r="L7" s="185">
         <f>[13]Mode_PA_h_f0_b1!K8</f>
         <v>0</v>
       </c>
-      <c r="K4" s="81">
+      <c r="M7" s="73">
         <f>[13]Mode_PA_h_f0_b1!C9</f>
         <v>3.2879999999999998</v>
       </c>
-      <c r="L4" s="73">
+      <c r="N7" s="73">
         <f>[13]Mode_PA_h_f0_b1!D9</f>
         <v>0.38700000000000001</v>
       </c>
-      <c r="M4" s="73">
+      <c r="O7" s="73">
         <f>[13]Mode_PA_h_f0_b1!E9</f>
         <v>2.5299999999999998</v>
       </c>
-      <c r="N4" s="73">
+      <c r="P7" s="73">
         <f>[13]Mode_PA_h_f0_b1!F9</f>
         <v>4.0469999999999997</v>
       </c>
-      <c r="O4" s="73">
+      <c r="Q7" s="73">
         <f>[13]Mode_PA_h_f0_b1!G9</f>
         <v>8.4990000000000006</v>
       </c>
-      <c r="P4" s="73">
+      <c r="R7" s="73">
         <f>[13]Mode_PA_h_f0_b1!H9</f>
         <v>15.66</v>
       </c>
-      <c r="Q4" s="115">
+      <c r="S7" s="115">
         <f>[13]Mode_PA_h_f0_b1!I9</f>
         <v>2.9400000000000001E-7</v>
       </c>
-      <c r="R4" s="115">
+      <c r="T7" s="115">
         <f>[13]Mode_PA_h_f0_b1!J9</f>
         <v>8.5499999999999997E-7</v>
       </c>
-      <c r="S4" s="100" t="str">
+      <c r="U7" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K9</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="T4" s="81">
+      <c r="V7" s="81">
         <f>[13]Mode_PA_h_f0_b1!C10</f>
         <v>3.6779999999999999</v>
       </c>
-      <c r="U4" s="73">
+      <c r="W7" s="73">
         <f>[13]Mode_PA_h_f0_b1!D10</f>
         <v>0.80200000000000005</v>
       </c>
-      <c r="V4" s="73">
+      <c r="X7" s="73">
         <f>[13]Mode_PA_h_f0_b1!E10</f>
         <v>2.1070000000000002</v>
       </c>
-      <c r="W4" s="73">
+      <c r="Y7" s="73">
         <f>[13]Mode_PA_h_f0_b1!F10</f>
         <v>5.25</v>
       </c>
-      <c r="X4" s="73">
+      <c r="Z7" s="73">
         <f>[13]Mode_PA_h_f0_b1!G10</f>
         <v>4.5869999999999997</v>
       </c>
-      <c r="Y4" s="73">
+      <c r="AA7" s="73">
         <f>[13]Mode_PA_h_f0_b1!H10</f>
         <v>6.95</v>
       </c>
-      <c r="Z4" s="115">
+      <c r="AB7" s="115">
         <f>[13]Mode_PA_h_f0_b1!I10</f>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="AA4" s="115">
+      <c r="AC7" s="115">
         <f>[13]Mode_PA_h_f0_b1!J10</f>
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="AB4" s="100" t="str">
+      <c r="AD7" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K10</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="AC4" s="73">
+      <c r="AE7" s="73">
         <f>[13]Mode_PA_h_f0_b1!C11</f>
         <v>4.7649999999999997</v>
       </c>
-      <c r="AD4" s="73">
+      <c r="AF7" s="73">
         <f>[13]Mode_PA_h_f0_b1!D11</f>
         <v>0.92200000000000004</v>
       </c>
-      <c r="AE4" s="73">
+      <c r="AG7" s="73">
         <f>[13]Mode_PA_h_f0_b1!E11</f>
         <v>2.9590000000000001</v>
       </c>
-      <c r="AF4" s="73">
+      <c r="AH7" s="73">
         <f>[13]Mode_PA_h_f0_b1!F11</f>
         <v>6.5720000000000001</v>
       </c>
-      <c r="AG4" s="73">
+      <c r="AI7" s="73">
         <f>[13]Mode_PA_h_f0_b1!G11</f>
         <v>5.1710000000000003</v>
       </c>
-      <c r="AH4" s="73">
+      <c r="AJ7" s="73">
         <f>[13]Mode_PA_h_f0_b1!H11</f>
         <v>58.19</v>
       </c>
-      <c r="AI4" s="115">
+      <c r="AK7" s="115">
         <f>[13]Mode_PA_h_f0_b1!I11</f>
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="AJ4" s="115">
+      <c r="AL7" s="115">
         <f>[13]Mode_PA_h_f0_b1!J11</f>
         <v>8.0600000000000008E-6</v>
       </c>
-      <c r="AK4" s="100" t="str">
+      <c r="AM7" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K11</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AL4" s="81">
+      <c r="AN7" s="81">
         <f>[13]Mode_PA_h_f0_b1!C12</f>
         <v>5.1550000000000002</v>
       </c>
-      <c r="AM4" s="73">
+      <c r="AO7" s="73">
         <f>[13]Mode_PA_h_f0_b1!D12</f>
         <v>1.0780000000000001</v>
       </c>
-      <c r="AN4" s="73">
+      <c r="AP7" s="73">
         <f>[13]Mode_PA_h_f0_b1!E12</f>
         <v>3.0430000000000001</v>
       </c>
-      <c r="AO4" s="73">
+      <c r="AQ7" s="73">
         <f>[13]Mode_PA_h_f0_b1!F12</f>
         <v>7.2679999999999998</v>
       </c>
-      <c r="AP4" s="73">
+      <c r="AR7" s="73">
         <f>[13]Mode_PA_h_f0_b1!G12</f>
         <v>4.7830000000000004</v>
       </c>
-      <c r="AQ4" s="73">
+      <c r="AS7" s="73">
         <f>[13]Mode_PA_h_f0_b1!H12</f>
         <v>19.010000000000002</v>
       </c>
-      <c r="AR4" s="115">
+      <c r="AT7" s="115">
         <f>[13]Mode_PA_h_f0_b1!I12</f>
         <v>1.2899999999999999E-4</v>
       </c>
-      <c r="AS4" s="115">
+      <c r="AU7" s="115">
         <f>[13]Mode_PA_h_f0_b1!J12</f>
         <v>2.8299999999999999E-4</v>
       </c>
-      <c r="AT4" s="100" t="str">
+      <c r="AV7" s="100" t="str">
         <f>[13]Mode_PA_h_f0_b1!K12</f>
         <v>p&lt;0.001</v>
       </c>
-      <c r="AU4" s="81">
+      <c r="AW7" s="81">
         <f>[13]Mode_PA_h_f0_b1!C13</f>
         <v>0.39</v>
       </c>
-      <c r="AV4" s="73">
+      <c r="AX7" s="73">
         <f>[13]Mode_PA_h_f0_b1!D13</f>
         <v>0.73399999999999999</v>
       </c>
-      <c r="AW4" s="73">
+      <c r="AY7" s="73">
         <f>[13]Mode_PA_h_f0_b1!E13</f>
         <v>-1.0489999999999999</v>
       </c>
-      <c r="AX4" s="73">
+      <c r="AZ7" s="73">
         <f>[13]Mode_PA_h_f0_b1!F13</f>
         <v>1.829</v>
       </c>
-      <c r="AY4" s="73">
+      <c r="BA7" s="73">
         <f>[13]Mode_PA_h_f0_b1!G13</f>
         <v>0.53100000000000003</v>
       </c>
-      <c r="AZ4" s="73">
+      <c r="BB7" s="73">
         <f>[13]Mode_PA_h_f0_b1!H13</f>
         <v>6.91</v>
       </c>
-      <c r="BA4" s="115">
+      <c r="BC7" s="115">
         <f>[13]Mode_PA_h_f0_b1!I13</f>
         <v>0.6119</v>
       </c>
-      <c r="BB4" s="115">
+      <c r="BD7" s="115">
         <f>[13]Mode_PA_h_f0_b1!J13</f>
         <v>0.69530000000000003</v>
       </c>
-      <c r="BC4" s="100">
+      <c r="BE7" s="100">
         <f>[13]Mode_PA_h_f0_b1!K13</f>
         <v>0</v>
       </c>
-      <c r="BD4" s="73">
-        <f>'B0 Mode'!AL4</f>
-        <v>0.18252779357841101</v>
-      </c>
-      <c r="BE4" s="73">
-        <f>'B0 Mode'!AM4</f>
-        <v>0.941127033564787</v>
-      </c>
     </row>
-    <row r="5" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+    <row r="8" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B8" s="84">
+        <f>'B0 Mode'!AL5</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C8" s="84">
+        <f>'B0 Mode'!AM5</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!C8</f>
         <v>-3.097</v>
       </c>
-      <c r="C5" s="84">
+      <c r="E8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!D8</f>
         <v>0.84499999999999997</v>
       </c>
-      <c r="D5" s="84">
+      <c r="F8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!E8</f>
         <v>-4.7530000000000001</v>
       </c>
-      <c r="E5" s="84">
+      <c r="G8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!F8</f>
         <v>-1.4410000000000001</v>
       </c>
-      <c r="F5" s="84">
+      <c r="H8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!G8</f>
         <v>-3.6659999999999999</v>
       </c>
-      <c r="G5" s="84">
+      <c r="I8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!H8</f>
         <v>612.4</v>
       </c>
-      <c r="H5" s="115">
+      <c r="J8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I8</f>
         <v>2.6800000000000001E-4</v>
       </c>
-      <c r="I5" s="115">
+      <c r="K8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J8</f>
         <v>5.6800000000000004E-4</v>
       </c>
-      <c r="J5" s="100" t="str">
+      <c r="L8" s="185" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K8</f>
         <v>p&lt;0.001</v>
       </c>
-      <c r="K5" s="85">
+      <c r="M8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!C9</f>
         <v>3.6859999999999999</v>
       </c>
-      <c r="L5" s="84">
+      <c r="N8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!D9</f>
         <v>0.35299999999999998</v>
       </c>
-      <c r="M5" s="84">
+      <c r="O8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!E9</f>
         <v>2.9940000000000002</v>
       </c>
-      <c r="N5" s="84">
+      <c r="P8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!F9</f>
         <v>4.3789999999999996</v>
       </c>
-      <c r="O5" s="84">
+      <c r="Q8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!G9</f>
         <v>10.432</v>
       </c>
-      <c r="P5" s="84">
+      <c r="R8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!H9</f>
         <v>612.6</v>
       </c>
-      <c r="Q5" s="115">
+      <c r="S8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I9</f>
         <v>1.4500000000000001E-23</v>
       </c>
-      <c r="R5" s="115">
+      <c r="T8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J9</f>
         <v>1.21E-21</v>
       </c>
-      <c r="S5" s="100" t="str">
+      <c r="U8" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K9</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="T5" s="85">
+      <c r="V8" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C10</f>
         <v>0.97899999999999998</v>
       </c>
-      <c r="U5" s="84">
+      <c r="W8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!D10</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="V5" s="84">
+      <c r="X8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!E10</f>
         <v>0.44500000000000001</v>
       </c>
-      <c r="W5" s="84">
+      <c r="Y8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!F10</f>
         <v>1.5129999999999999</v>
       </c>
-      <c r="X5" s="84">
+      <c r="Z8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!G10</f>
         <v>3.5950000000000002</v>
       </c>
-      <c r="Y5" s="84">
+      <c r="AA8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!H10</f>
         <v>614.21</v>
       </c>
-      <c r="Z5" s="115">
+      <c r="AB8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I10</f>
         <v>3.5100000000000002E-4</v>
       </c>
-      <c r="AA5" s="115">
+      <c r="AC8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J10</f>
         <v>7.3300000000000004E-4</v>
       </c>
-      <c r="AB5" s="100" t="str">
+      <c r="AD8" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K10</f>
         <v>p&lt;0.001</v>
       </c>
-      <c r="AC5" s="84">
+      <c r="AE8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!C11</f>
         <v>6.7839999999999998</v>
       </c>
-      <c r="AD5" s="84">
+      <c r="AF8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!D11</f>
         <v>0.86899999999999999</v>
       </c>
-      <c r="AE5" s="84">
+      <c r="AG8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!E11</f>
         <v>5.08</v>
       </c>
-      <c r="AF5" s="84">
+      <c r="AH8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!F11</f>
         <v>8.4870000000000001</v>
       </c>
-      <c r="AG5" s="84">
+      <c r="AI8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!G11</f>
         <v>7.8040000000000003</v>
       </c>
-      <c r="AH5" s="84">
+      <c r="AJ8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!H11</f>
         <v>612.67999999999995</v>
       </c>
-      <c r="AI5" s="115">
+      <c r="AK8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I11</f>
         <v>2.6E-14</v>
       </c>
-      <c r="AJ5" s="115">
+      <c r="AL8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J11</f>
         <v>2.4999999999999999E-13</v>
       </c>
-      <c r="AK5" s="100" t="str">
+      <c r="AM8" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K11</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AL5" s="85">
+      <c r="AN8" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C12</f>
         <v>4.077</v>
       </c>
-      <c r="AM5" s="84">
+      <c r="AO8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!D12</f>
         <v>0.82899999999999996</v>
       </c>
-      <c r="AN5" s="84">
+      <c r="AP8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!E12</f>
         <v>2.4510000000000001</v>
       </c>
-      <c r="AO5" s="84">
+      <c r="AQ8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!F12</f>
         <v>5.702</v>
       </c>
-      <c r="AP5" s="84">
+      <c r="AR8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!G12</f>
         <v>4.9160000000000004</v>
       </c>
-      <c r="AQ5" s="84">
+      <c r="AS8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!H12</f>
         <v>612.36</v>
       </c>
-      <c r="AR5" s="115">
+      <c r="AT8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I12</f>
         <v>1.1400000000000001E-6</v>
       </c>
-      <c r="AS5" s="115">
+      <c r="AU8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J12</f>
         <v>3.1700000000000001E-6</v>
       </c>
-      <c r="AT5" s="100" t="str">
+      <c r="AV8" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K12</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AU5" s="85">
+      <c r="AW8" s="85">
         <f>[14]Mode_PA_f0_exc_b1!C13</f>
         <v>-2.7069999999999999</v>
       </c>
-      <c r="AV5" s="84">
+      <c r="AX8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!D13</f>
         <v>0.32100000000000001</v>
       </c>
-      <c r="AW5" s="84">
+      <c r="AY8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!E13</f>
         <v>-3.3359999999999999</v>
       </c>
-      <c r="AX5" s="84">
+      <c r="AZ8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!F13</f>
         <v>-2.0779999999999998</v>
       </c>
-      <c r="AY5" s="84">
+      <c r="BA8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!G13</f>
         <v>-8.4350000000000005</v>
       </c>
-      <c r="AZ5" s="84">
+      <c r="BB8" s="84">
         <f>[14]Mode_PA_f0_exc_b1!H13</f>
         <v>612.34</v>
       </c>
-      <c r="BA5" s="115">
+      <c r="BC8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!I13</f>
         <v>2.3800000000000002E-16</v>
       </c>
-      <c r="BB5" s="115">
+      <c r="BD8" s="115">
         <f>[14]Mode_PA_f0_exc_b1!J13</f>
         <v>4.1000000000000004E-15</v>
       </c>
-      <c r="BC5" s="100" t="str">
+      <c r="BE8" s="100" t="str">
         <f>[14]Mode_PA_f0_exc_b1!K13</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="BD5" s="84">
-        <f>'B0 Mode'!AL5</f>
-        <v>0.16441360628863</v>
-      </c>
-      <c r="BE5" s="84">
-        <f>'B0 Mode'!AM5</f>
-        <v>0.70158142490362896</v>
-      </c>
     </row>
-    <row r="6" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+    <row r="9" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="106" t="str">
-        <f>B2</f>
-        <v>β1</v>
-      </c>
-      <c r="C6" s="105" t="str">
-        <f t="shared" ref="C6:BC6" si="5">C2</f>
+      <c r="B9" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="105" t="str">
+        <f t="shared" ref="E9:BE9" si="5">E5</f>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="D6" s="105" t="str">
+      <c r="F9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
-      <c r="E6" s="105" t="str">
+      <c r="G9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
-      <c r="F6" s="105" t="str">
+      <c r="H9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="G6" s="105" t="str">
+      <c r="I9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>df</v>
       </c>
-      <c r="H6" s="105" t="str">
+      <c r="J9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="I6" s="107" t="str">
+      <c r="K9" s="107" t="str">
         <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="J6" s="107" t="str">
+      <c r="L9" s="107" t="str">
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="K6" s="108" t="str">
+      <c r="M9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>β1</v>
       </c>
-      <c r="L6" s="105" t="str">
+      <c r="N9" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="M6" s="105" t="str">
+      <c r="O9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
-      <c r="N6" s="105" t="str">
+      <c r="P9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
-      <c r="O6" s="105" t="str">
+      <c r="Q9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="P6" s="105" t="str">
+      <c r="R9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>df</v>
       </c>
-      <c r="Q6" s="109" t="str">
+      <c r="S9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="R6" s="109" t="str">
+      <c r="T9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="S6" s="110" t="str">
+      <c r="U9" s="110" t="str">
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="T6" s="108" t="str">
+      <c r="V9" s="108" t="str">
         <f t="shared" si="5"/>
         <v>β1</v>
       </c>
-      <c r="U6" s="105" t="str">
+      <c r="W9" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="V6" s="105" t="str">
+      <c r="X9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
-      <c r="W6" s="105" t="str">
+      <c r="Y9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
-      <c r="X6" s="105" t="str">
+      <c r="Z9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="Y6" s="105" t="str">
+      <c r="AA9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>df</v>
       </c>
-      <c r="Z6" s="109" t="str">
+      <c r="AB9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="AA6" s="109" t="str">
+      <c r="AC9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AB6" s="110" t="str">
+      <c r="AD9" s="110" t="str">
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="AC6" s="105" t="str">
+      <c r="AE9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>β1</v>
       </c>
-      <c r="AD6" s="105" t="str">
+      <c r="AF9" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AE6" s="105" t="str">
+      <c r="AG9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AF6" s="105" t="str">
+      <c r="AH9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AG6" s="105" t="str">
+      <c r="AI9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="AH6" s="105" t="str">
+      <c r="AJ9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>df</v>
       </c>
-      <c r="AI6" s="109" t="str">
+      <c r="AK9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ6" s="109" t="str">
+      <c r="AL9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AK6" s="110" t="str">
+      <c r="AM9" s="110" t="str">
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="AL6" s="108" t="str">
+      <c r="AN9" s="108" t="str">
         <f t="shared" si="5"/>
         <v>β1</v>
       </c>
-      <c r="AM6" s="105" t="str">
+      <c r="AO9" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AN6" s="105" t="str">
+      <c r="AP9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AO6" s="105" t="str">
+      <c r="AQ9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AP6" s="105" t="str">
+      <c r="AR9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="AQ6" s="105" t="str">
+      <c r="AS9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>df</v>
       </c>
-      <c r="AR6" s="109" t="str">
+      <c r="AT9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="AS6" s="109" t="str">
+      <c r="AU9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AT6" s="110" t="str">
+      <c r="AV9" s="110" t="str">
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="AU6" s="108" t="str">
+      <c r="AW9" s="108" t="str">
         <f t="shared" si="5"/>
         <v>β1</v>
       </c>
-      <c r="AV6" s="105" t="str">
+      <c r="AX9" s="105" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AW6" s="105" t="str">
+      <c r="AY9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AX6" s="105" t="str">
+      <c r="AZ9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AY6" s="105" t="str">
+      <c r="BA9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
-      <c r="AZ6" s="105" t="str">
+      <c r="BB9" s="105" t="str">
         <f t="shared" si="5"/>
         <v>df</v>
       </c>
-      <c r="BA6" s="109" t="str">
+      <c r="BC9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p. val.</v>
       </c>
-      <c r="BB6" s="109" t="str">
+      <c r="BD9" s="109" t="str">
         <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="BC6" s="111" t="str">
+      <c r="BE9" s="111" t="str">
         <f t="shared" si="5"/>
         <v>sig.</v>
       </c>
-      <c r="BD6" s="105" t="str">
-        <f>'B0 Mode'!AL6</f>
-        <v xml:space="preserve">R2m </v>
-      </c>
-      <c r="BE6" s="105" t="str">
-        <f>'B0 Mode'!AM6</f>
-        <v xml:space="preserve">R2c </v>
-      </c>
     </row>
-    <row r="7" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+    <row r="10" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="87">
+      <c r="B10" s="76">
+        <f>'B0 Mode'!AL7</f>
+        <v>8.72894875399952E-2</v>
+      </c>
+      <c r="C10" s="76">
+        <f>'B0 Mode'!AM7</f>
+        <v>0.76096721773815101</v>
+      </c>
+      <c r="D10" s="74">
         <f>[15]Mode_PA_l_t_b1!C8</f>
         <v>-6.7160000000000002</v>
       </c>
-      <c r="C7" s="74">
+      <c r="E10" s="74">
         <f>[15]Mode_PA_l_t_b1!D8</f>
         <v>8.1690000000000005</v>
       </c>
-      <c r="D7" s="74">
+      <c r="F10" s="74">
         <f>[15]Mode_PA_l_t_b1!E8</f>
         <v>-22.727</v>
       </c>
-      <c r="E7" s="74">
+      <c r="G10" s="74">
         <f>[15]Mode_PA_l_t_b1!F8</f>
         <v>9.2940000000000005</v>
       </c>
-      <c r="F7" s="76">
+      <c r="H10" s="76">
         <f>[15]Mode_PA_l_t_b1!G8</f>
         <v>-0.82199999999999995</v>
       </c>
-      <c r="G7" s="76">
+      <c r="I10" s="76">
         <f>[15]Mode_PA_l_t_b1!H8</f>
         <v>613.72</v>
       </c>
-      <c r="H7" s="115">
+      <c r="J10" s="115">
         <f>[15]Mode_PA_l_t_b1!I8</f>
         <v>0.4113</v>
       </c>
-      <c r="I7" s="115">
+      <c r="K10" s="115">
         <f>[15]Mode_PA_l_t_b1!J8</f>
         <v>0.48730000000000001</v>
       </c>
-      <c r="J7" s="100">
+      <c r="L10" s="185">
         <f>[15]Mode_PA_l_t_b1!K8</f>
         <v>0</v>
       </c>
-      <c r="K7" s="88">
+      <c r="M10" s="74">
         <f>[15]Mode_PA_l_t_b1!C9</f>
         <v>-10.583</v>
       </c>
-      <c r="L7" s="76">
+      <c r="N10" s="76">
         <f>[15]Mode_PA_l_t_b1!D9</f>
         <v>3.88</v>
       </c>
-      <c r="M7" s="76">
+      <c r="O10" s="76">
         <f>[15]Mode_PA_l_t_b1!E9</f>
         <v>-18.187000000000001</v>
       </c>
-      <c r="N7" s="76">
+      <c r="P10" s="76">
         <f>[15]Mode_PA_l_t_b1!F9</f>
         <v>-2.9790000000000001</v>
       </c>
-      <c r="O7" s="76">
+      <c r="Q10" s="76">
         <f>[15]Mode_PA_l_t_b1!G9</f>
         <v>-2.7280000000000002</v>
       </c>
-      <c r="P7" s="76">
+      <c r="R10" s="76">
         <f>[15]Mode_PA_l_t_b1!H9</f>
         <v>612.29999999999995</v>
       </c>
-      <c r="Q7" s="115">
+      <c r="S10" s="115">
         <f>[15]Mode_PA_l_t_b1!I9</f>
         <v>6.6E-3</v>
       </c>
-      <c r="R7" s="115">
+      <c r="T10" s="115">
         <f>[15]Mode_PA_l_t_b1!J9</f>
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="S7" s="100" t="str">
+      <c r="U10" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K9</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="T7" s="88">
+      <c r="V10" s="88">
         <f>[15]Mode_PA_l_t_b1!C10</f>
         <v>-14.881</v>
       </c>
-      <c r="U7" s="76">
+      <c r="W10" s="76">
         <f>[15]Mode_PA_l_t_b1!D10</f>
         <v>2.5680000000000001</v>
       </c>
-      <c r="V7" s="76">
+      <c r="X10" s="76">
         <f>[15]Mode_PA_l_t_b1!E10</f>
         <v>-19.914000000000001</v>
       </c>
-      <c r="W7" s="76">
+      <c r="Y10" s="76">
         <f>[15]Mode_PA_l_t_b1!F10</f>
         <v>-9.8480000000000008</v>
       </c>
-      <c r="X7" s="76">
+      <c r="Z10" s="76">
         <f>[15]Mode_PA_l_t_b1!G10</f>
         <v>-5.7949999999999999</v>
       </c>
-      <c r="Y7" s="76">
+      <c r="AA10" s="76">
         <f>[15]Mode_PA_l_t_b1!H10</f>
         <v>614.47</v>
       </c>
-      <c r="Z7" s="115">
+      <c r="AB10" s="115">
         <f>[15]Mode_PA_l_t_b1!I10</f>
         <v>1.09E-8</v>
       </c>
-      <c r="AA7" s="115">
+      <c r="AC10" s="115">
         <f>[15]Mode_PA_l_t_b1!J10</f>
         <v>3.7800000000000001E-8</v>
       </c>
-      <c r="AB7" s="100" t="str">
+      <c r="AD10" s="100" t="str">
         <f>[15]Mode_PA_l_t_b1!K10</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AC7" s="74">
+      <c r="AE10" s="74">
         <f>[15]Mode_PA_l_t_b1!C11</f>
         <v>-3.8660000000000001</v>
       </c>
-      <c r="AD7" s="76">
+      <c r="AF10" s="76">
         <f>[15]Mode_PA_l_t_b1!D11</f>
         <v>8.7729999999999997</v>
       </c>
-      <c r="AE7" s="76">
+      <c r="AG10" s="76">
         <f>[15]Mode_PA_l_t_b1!E11</f>
         <v>-21.062000000000001</v>
       </c>
-      <c r="AF7" s="76">
+      <c r="AH10" s="76">
         <f>[15]Mode_PA_l_t_b1!F11</f>
         <v>13.33</v>
       </c>
-      <c r="AG7" s="76">
+      <c r="AI10" s="76">
         <f>[15]Mode_PA_l_t_b1!G11</f>
         <v>-0.441</v>
       </c>
-      <c r="AH7" s="76">
+      <c r="AJ10" s="76">
         <f>[15]Mode_PA_l_t_b1!H11</f>
         <v>613.13</v>
       </c>
-      <c r="AI7" s="115">
+      <c r="AK10" s="115">
         <f>[15]Mode_PA_l_t_b1!I11</f>
         <v>0.65959999999999996</v>
       </c>
-      <c r="AJ7" s="115">
+      <c r="AL10" s="115">
         <f>[15]Mode_PA_l_t_b1!J11</f>
         <v>0.72960000000000003</v>
       </c>
-      <c r="AK7" s="100">
+      <c r="AM10" s="100">
         <f>[15]Mode_PA_l_t_b1!K11</f>
         <v>0</v>
       </c>
-      <c r="AL7" s="88">
+      <c r="AN10" s="88">
         <f>[15]Mode_PA_l_t_b1!C12</f>
         <v>-8.1639999999999997</v>
       </c>
-      <c r="AM7" s="76">
+      <c r="AO10" s="76">
         <f>[15]Mode_PA_l_t_b1!D12</f>
         <v>8.093</v>
       </c>
-      <c r="AN7" s="76">
+      <c r="AP10" s="76">
         <f>[15]Mode_PA_l_t_b1!E12</f>
         <v>-24.026</v>
       </c>
-      <c r="AO7" s="76">
+      <c r="AQ10" s="76">
         <f>[15]Mode_PA_l_t_b1!F12</f>
         <v>7.6970000000000001</v>
       </c>
-      <c r="AP7" s="76">
+      <c r="AR10" s="76">
         <f>[15]Mode_PA_l_t_b1!G12</f>
         <v>-1.0089999999999999</v>
       </c>
-      <c r="AQ7" s="76">
+      <c r="AS10" s="76">
         <f>[15]Mode_PA_l_t_b1!H12</f>
         <v>613.91999999999996</v>
       </c>
-      <c r="AR7" s="115">
+      <c r="AT10" s="115">
         <f>[15]Mode_PA_l_t_b1!I12</f>
         <v>0.31340000000000001</v>
       </c>
-      <c r="AS7" s="115">
+      <c r="AU10" s="115">
         <f>[15]Mode_PA_l_t_b1!J12</f>
         <v>0.37969999999999998</v>
       </c>
-      <c r="AT7" s="100">
+      <c r="AV10" s="100">
         <f>[15]Mode_PA_l_t_b1!K12</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="88">
+      <c r="AW10" s="88">
         <f>[15]Mode_PA_l_t_b1!C13</f>
         <v>-4.298</v>
       </c>
-      <c r="AV7" s="76">
+      <c r="AX10" s="76">
         <f>[15]Mode_PA_l_t_b1!D13</f>
         <v>3.8159999999999998</v>
       </c>
-      <c r="AW7" s="76">
+      <c r="AY10" s="76">
         <f>[15]Mode_PA_l_t_b1!E13</f>
         <v>-11.778</v>
       </c>
-      <c r="AX7" s="76">
+      <c r="AZ10" s="76">
         <f>[15]Mode_PA_l_t_b1!F13</f>
         <v>3.181</v>
       </c>
-      <c r="AY7" s="76">
+      <c r="BA10" s="76">
         <f>[15]Mode_PA_l_t_b1!G13</f>
         <v>-1.1259999999999999</v>
       </c>
-      <c r="AZ7" s="76">
+      <c r="BB10" s="76">
         <f>[15]Mode_PA_l_t_b1!H13</f>
         <v>613.9</v>
       </c>
-      <c r="BA7" s="115">
+      <c r="BC10" s="115">
         <f>[15]Mode_PA_l_t_b1!I13</f>
         <v>0.26050000000000001</v>
       </c>
-      <c r="BB7" s="115">
+      <c r="BD10" s="115">
         <f>[15]Mode_PA_l_t_b1!J13</f>
         <v>0.32240000000000002</v>
       </c>
-      <c r="BC7" s="100">
+      <c r="BE10" s="100">
         <f>[15]Mode_PA_l_t_b1!K13</f>
         <v>0</v>
       </c>
-      <c r="BD7" s="76">
-        <f>'B0 Mode'!AL7</f>
-        <v>8.72894875399952E-2</v>
-      </c>
-      <c r="BE7" s="76">
-        <f>'B0 Mode'!AM7</f>
-        <v>0.76096721773815101</v>
-      </c>
     </row>
-    <row r="8" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+    <row r="11" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B11" s="84">
+        <f>'B0 Mode'!AL8</f>
+        <v>0.11422688459456599</v>
+      </c>
+      <c r="C11" s="84">
+        <f>'B0 Mode'!AM8</f>
+        <v>0.84172260407700195</v>
+      </c>
+      <c r="D11" s="82">
         <f>[16]Mode_PA_h_t_b1!C8</f>
         <v>-73.516999999999996</v>
       </c>
-      <c r="C8" s="82">
+      <c r="E11" s="82">
         <f>[16]Mode_PA_h_t_b1!D8</f>
         <v>12.202</v>
       </c>
-      <c r="D8" s="82">
+      <c r="F11" s="82">
         <f>[16]Mode_PA_h_t_b1!E8</f>
         <v>-97.433000000000007</v>
       </c>
-      <c r="E8" s="82">
+      <c r="G11" s="82">
         <f>[16]Mode_PA_h_t_b1!F8</f>
         <v>-49.601999999999997</v>
       </c>
-      <c r="F8" s="84">
+      <c r="H11" s="84">
         <f>[16]Mode_PA_h_t_b1!G8</f>
         <v>-6.0250000000000004</v>
       </c>
-      <c r="G8" s="84">
+      <c r="I11" s="84">
         <f>[16]Mode_PA_h_t_b1!H8</f>
         <v>613.54999999999995</v>
       </c>
-      <c r="H8" s="115">
+      <c r="J11" s="115">
         <f>[16]Mode_PA_h_t_b1!I8</f>
         <v>2.9199999999999998E-9</v>
       </c>
-      <c r="I8" s="115">
+      <c r="K11" s="115">
         <f>[16]Mode_PA_h_t_b1!J8</f>
         <v>1.0999999999999999E-8</v>
       </c>
-      <c r="J8" s="100" t="str">
+      <c r="L11" s="185" t="str">
         <f>[16]Mode_PA_h_t_b1!K8</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="K8" s="92">
+      <c r="M11" s="82">
         <f>[16]Mode_PA_h_t_b1!C9</f>
         <v>-4.5490000000000004</v>
       </c>
-      <c r="L8" s="84">
+      <c r="N11" s="84">
         <f>[16]Mode_PA_h_t_b1!D9</f>
         <v>5.7919999999999998</v>
       </c>
-      <c r="M8" s="84">
+      <c r="O11" s="84">
         <f>[16]Mode_PA_h_t_b1!E9</f>
         <v>-15.901999999999999</v>
       </c>
-      <c r="N8" s="84">
+      <c r="P11" s="84">
         <f>[16]Mode_PA_h_t_b1!F9</f>
         <v>6.8029999999999999</v>
       </c>
-      <c r="O8" s="84">
+      <c r="Q11" s="84">
         <f>[16]Mode_PA_h_t_b1!G9</f>
         <v>-0.78500000000000003</v>
       </c>
-      <c r="P8" s="84">
+      <c r="R11" s="84">
         <f>[16]Mode_PA_h_t_b1!H9</f>
         <v>613.09</v>
       </c>
-      <c r="Q8" s="115">
+      <c r="S11" s="115">
         <f>[16]Mode_PA_h_t_b1!I9</f>
         <v>0.4325</v>
       </c>
-      <c r="R8" s="115">
+      <c r="T11" s="115">
         <f>[16]Mode_PA_h_t_b1!J9</f>
         <v>0.50760000000000005</v>
       </c>
-      <c r="S8" s="100">
+      <c r="U11" s="100">
         <f>[16]Mode_PA_h_t_b1!K9</f>
         <v>0</v>
       </c>
-      <c r="T8" s="92">
+      <c r="V11" s="92">
         <f>[16]Mode_PA_h_t_b1!C10</f>
         <v>-8.9060000000000006</v>
       </c>
-      <c r="U8" s="84">
+      <c r="W11" s="84">
         <f>[16]Mode_PA_h_t_b1!D10</f>
         <v>3.8370000000000002</v>
       </c>
-      <c r="V8" s="84">
+      <c r="X11" s="84">
         <f>[16]Mode_PA_h_t_b1!E10</f>
         <v>-16.425000000000001</v>
       </c>
-      <c r="W8" s="84">
+      <c r="Y11" s="84">
         <f>[16]Mode_PA_h_t_b1!F10</f>
         <v>-1.3859999999999999</v>
       </c>
-      <c r="X8" s="84">
+      <c r="Z11" s="84">
         <f>[16]Mode_PA_h_t_b1!G10</f>
         <v>-2.3210000000000002</v>
       </c>
-      <c r="Y8" s="84">
+      <c r="AA11" s="84">
         <f>[16]Mode_PA_h_t_b1!H10</f>
         <v>613.98</v>
       </c>
-      <c r="Z8" s="115">
+      <c r="AB11" s="115">
         <f>[16]Mode_PA_h_t_b1!I10</f>
         <v>2.06E-2</v>
       </c>
-      <c r="AA8" s="115">
+      <c r="AC11" s="115">
         <f>[16]Mode_PA_h_t_b1!J10</f>
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="AB8" s="100" t="str">
+      <c r="AD11" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K10</f>
         <v>p&lt;0.05</v>
       </c>
-      <c r="AC8" s="82">
+      <c r="AE11" s="82">
         <f>[16]Mode_PA_h_t_b1!C11</f>
         <v>68.968000000000004</v>
       </c>
-      <c r="AD8" s="84">
+      <c r="AF11" s="84">
         <f>[16]Mode_PA_h_t_b1!D11</f>
         <v>13.101000000000001</v>
       </c>
-      <c r="AE8" s="84">
+      <c r="AG11" s="84">
         <f>[16]Mode_PA_h_t_b1!E11</f>
         <v>43.290999999999997</v>
       </c>
-      <c r="AF8" s="84">
+      <c r="AH11" s="84">
         <f>[16]Mode_PA_h_t_b1!F11</f>
         <v>94.644999999999996</v>
       </c>
-      <c r="AG8" s="84">
+      <c r="AI11" s="84">
         <f>[16]Mode_PA_h_t_b1!G11</f>
         <v>5.2640000000000002</v>
       </c>
-      <c r="AH8" s="84">
+      <c r="AJ11" s="84">
         <f>[16]Mode_PA_h_t_b1!H11</f>
         <v>613.47</v>
       </c>
-      <c r="AI8" s="115">
+      <c r="AK11" s="115">
         <f>[16]Mode_PA_h_t_b1!I11</f>
         <v>1.9500000000000001E-7</v>
       </c>
-      <c r="AJ8" s="115">
+      <c r="AL11" s="115">
         <f>[16]Mode_PA_h_t_b1!J11</f>
         <v>5.7400000000000003E-7</v>
       </c>
-      <c r="AK8" s="100" t="str">
+      <c r="AM11" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K11</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AL8" s="92">
+      <c r="AN11" s="92">
         <f>[16]Mode_PA_h_t_b1!C12</f>
         <v>64.611999999999995</v>
       </c>
-      <c r="AM8" s="84">
+      <c r="AO11" s="84">
         <f>[16]Mode_PA_h_t_b1!D12</f>
         <v>12.098000000000001</v>
       </c>
-      <c r="AN8" s="84">
+      <c r="AP11" s="84">
         <f>[16]Mode_PA_h_t_b1!E12</f>
         <v>40.899000000000001</v>
       </c>
-      <c r="AO8" s="84">
+      <c r="AQ11" s="84">
         <f>[16]Mode_PA_h_t_b1!F12</f>
         <v>88.323999999999998</v>
       </c>
-      <c r="AP8" s="84">
+      <c r="AR11" s="84">
         <f>[16]Mode_PA_h_t_b1!G12</f>
         <v>5.3410000000000002</v>
       </c>
-      <c r="AQ8" s="84">
+      <c r="AS11" s="84">
         <f>[16]Mode_PA_h_t_b1!H12</f>
         <v>613.20000000000005</v>
       </c>
-      <c r="AR8" s="115">
+      <c r="AT11" s="115">
         <f>[16]Mode_PA_h_t_b1!I12</f>
         <v>1.31E-7</v>
       </c>
-      <c r="AS8" s="115">
+      <c r="AU11" s="115">
         <f>[16]Mode_PA_h_t_b1!J12</f>
         <v>3.9000000000000002E-7</v>
       </c>
-      <c r="AT8" s="100" t="str">
+      <c r="AV11" s="100" t="str">
         <f>[16]Mode_PA_h_t_b1!K12</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AU8" s="92">
+      <c r="AW11" s="92">
         <f>[16]Mode_PA_h_t_b1!C13</f>
         <v>-4.3559999999999999</v>
       </c>
-      <c r="AV8" s="84">
+      <c r="AX11" s="84">
         <f>[16]Mode_PA_h_t_b1!D13</f>
         <v>5.7039999999999997</v>
       </c>
-      <c r="AW8" s="84">
+      <c r="AY11" s="84">
         <f>[16]Mode_PA_h_t_b1!E13</f>
         <v>-15.536</v>
       </c>
-      <c r="AX8" s="84">
+      <c r="AZ11" s="84">
         <f>[16]Mode_PA_h_t_b1!F13</f>
         <v>6.8230000000000004</v>
       </c>
-      <c r="AY8" s="84">
+      <c r="BA11" s="84">
         <f>[16]Mode_PA_h_t_b1!G13</f>
         <v>-0.76400000000000001</v>
       </c>
-      <c r="AZ8" s="84">
+      <c r="BB11" s="84">
         <f>[16]Mode_PA_h_t_b1!H13</f>
         <v>613.19000000000005</v>
       </c>
-      <c r="BA8" s="115">
+      <c r="BC11" s="115">
         <f>[16]Mode_PA_h_t_b1!I13</f>
         <v>0.44529999999999997</v>
       </c>
-      <c r="BB8" s="115">
+      <c r="BD11" s="115">
         <f>[16]Mode_PA_h_t_b1!J13</f>
         <v>0.5202</v>
       </c>
-      <c r="BC8" s="100">
+      <c r="BE11" s="100">
         <f>[16]Mode_PA_h_t_b1!K13</f>
         <v>0</v>
       </c>
-      <c r="BD8" s="84">
-        <f>'B0 Mode'!AL8</f>
-        <v>0.11422688459456599</v>
-      </c>
-      <c r="BE8" s="84">
-        <f>'B0 Mode'!AM8</f>
-        <v>0.84172260407700195</v>
-      </c>
     </row>
-    <row r="9" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
+    <row r="12" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="106" t="str">
-        <f>B2</f>
-        <v>β1</v>
-      </c>
-      <c r="C9" s="105" t="str">
-        <f t="shared" ref="C9:BC9" si="6">C2</f>
+      <c r="B12" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="105" t="str">
+        <f t="shared" ref="E12:BE12" si="6">E5</f>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="D9" s="105" t="str">
+      <c r="F12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>2.5% CI</v>
       </c>
-      <c r="E9" s="105" t="str">
+      <c r="G12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>97.5% CI</v>
       </c>
-      <c r="F9" s="105" t="str">
+      <c r="H12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="G9" s="105" t="str">
+      <c r="I12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="H9" s="105" t="str">
+      <c r="J12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="I9" s="107" t="str">
+      <c r="K12" s="107" t="str">
         <f t="shared" si="6"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="J9" s="107" t="str">
+      <c r="L12" s="107" t="str">
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="K9" s="108" t="str">
+      <c r="M12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>β1</v>
       </c>
-      <c r="L9" s="105" t="str">
+      <c r="N12" s="105" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="M9" s="105" t="str">
+      <c r="O12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>2.5% CI</v>
       </c>
-      <c r="N9" s="105" t="str">
+      <c r="P12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>97.5% CI</v>
       </c>
-      <c r="O9" s="105" t="str">
+      <c r="Q12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="P9" s="105" t="str">
+      <c r="R12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="Q9" s="109" t="str">
+      <c r="S12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="R9" s="109" t="str">
+      <c r="T12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="S9" s="110" t="str">
+      <c r="U12" s="110" t="str">
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="T9" s="108" t="str">
+      <c r="V12" s="108" t="str">
         <f t="shared" si="6"/>
         <v>β1</v>
       </c>
-      <c r="U9" s="105" t="str">
+      <c r="W12" s="105" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="V9" s="105" t="str">
+      <c r="X12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>2.5% CI</v>
       </c>
-      <c r="W9" s="105" t="str">
+      <c r="Y12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>97.5% CI</v>
       </c>
-      <c r="X9" s="105" t="str">
+      <c r="Z12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="Y9" s="105" t="str">
+      <c r="AA12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="Z9" s="109" t="str">
+      <c r="AB12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="AA9" s="109" t="str">
+      <c r="AC12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AB9" s="110" t="str">
+      <c r="AD12" s="110" t="str">
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="AC9" s="105" t="str">
+      <c r="AE12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>β1</v>
       </c>
-      <c r="AD9" s="105" t="str">
+      <c r="AF12" s="105" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AE9" s="105" t="str">
+      <c r="AG12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AF9" s="105" t="str">
+      <c r="AH12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AG9" s="105" t="str">
+      <c r="AI12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="AH9" s="105" t="str">
+      <c r="AJ12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="AI9" s="109" t="str">
+      <c r="AK12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="AJ9" s="109" t="str">
+      <c r="AL12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AK9" s="110" t="str">
+      <c r="AM12" s="110" t="str">
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="AL9" s="108" t="str">
+      <c r="AN12" s="108" t="str">
         <f t="shared" si="6"/>
         <v>β1</v>
       </c>
-      <c r="AM9" s="105" t="str">
+      <c r="AO12" s="105" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AN9" s="105" t="str">
+      <c r="AP12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AO9" s="105" t="str">
+      <c r="AQ12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AP9" s="105" t="str">
+      <c r="AR12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="AQ9" s="105" t="str">
+      <c r="AS12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="AR9" s="109" t="str">
+      <c r="AT12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="AS9" s="109" t="str">
+      <c r="AU12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="AT9" s="110" t="str">
+      <c r="AV12" s="110" t="str">
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="AU9" s="108" t="str">
+      <c r="AW12" s="108" t="str">
         <f t="shared" si="6"/>
         <v>β1</v>
       </c>
-      <c r="AV9" s="105" t="str">
+      <c r="AX12" s="105" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">SE </v>
       </c>
-      <c r="AW9" s="105" t="str">
+      <c r="AY12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>2.5% CI</v>
       </c>
-      <c r="AX9" s="105" t="str">
+      <c r="AZ12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>97.5% CI</v>
       </c>
-      <c r="AY9" s="105" t="str">
+      <c r="BA12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>t</v>
       </c>
-      <c r="AZ9" s="105" t="str">
+      <c r="BB12" s="105" t="str">
         <f t="shared" si="6"/>
         <v>df</v>
       </c>
-      <c r="BA9" s="109" t="str">
+      <c r="BC12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p. val.</v>
       </c>
-      <c r="BB9" s="109" t="str">
+      <c r="BD12" s="109" t="str">
         <f t="shared" si="6"/>
         <v>p.adj (BH)</v>
       </c>
-      <c r="BC9" s="111" t="str">
+      <c r="BE12" s="111" t="str">
         <f t="shared" si="6"/>
         <v>sig.</v>
       </c>
-      <c r="BD9" s="105" t="str">
-        <f>'B0 Mode'!AL9</f>
-        <v xml:space="preserve">R2m </v>
-      </c>
-      <c r="BE9" s="105" t="str">
-        <f>'B0 Mode'!AM9</f>
-        <v xml:space="preserve">R2c </v>
-      </c>
     </row>
-    <row r="10" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+    <row r="13" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B13" s="25">
+        <f>'B0 Mode'!AL10</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C13" s="25">
+        <f>'B0 Mode'!AM10</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!C8</f>
         <v>-13.288</v>
       </c>
-      <c r="C10" s="26">
+      <c r="E13" s="26">
         <f>[17]Mode_PA_lh_slope_b1!D8</f>
         <v>3.5720000000000001</v>
       </c>
-      <c r="D10" s="26">
+      <c r="F13" s="26">
         <f>[17]Mode_PA_lh_slope_b1!E8</f>
         <v>-20.29</v>
       </c>
-      <c r="E10" s="26">
+      <c r="G13" s="26">
         <f>[17]Mode_PA_lh_slope_b1!F8</f>
         <v>-6.2869999999999999</v>
       </c>
-      <c r="F10" s="25">
+      <c r="H13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!G8</f>
         <v>-3.72</v>
       </c>
-      <c r="G10" s="25">
+      <c r="I13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!H8</f>
         <v>611.16</v>
       </c>
-      <c r="H10" s="94">
+      <c r="J13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I8</f>
         <v>2.1800000000000001E-4</v>
       </c>
-      <c r="I10" s="94">
+      <c r="K13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J8</f>
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="J10" s="123" t="str">
+      <c r="L13" s="181" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K8</f>
         <v>p&lt;0.001</v>
       </c>
-      <c r="K10" s="93">
+      <c r="M13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!C9</f>
         <v>17.094999999999999</v>
       </c>
-      <c r="L10" s="25">
+      <c r="N13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!D9</f>
         <v>1.698</v>
       </c>
-      <c r="M10" s="25">
+      <c r="O13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!E9</f>
         <v>13.766999999999999</v>
       </c>
-      <c r="N10" s="25">
+      <c r="P13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!F9</f>
         <v>20.422999999999998</v>
       </c>
-      <c r="O10" s="25">
+      <c r="Q13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!G9</f>
         <v>10.068</v>
       </c>
-      <c r="P10" s="25">
+      <c r="R13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!H9</f>
         <v>609.98</v>
       </c>
-      <c r="Q10" s="94">
+      <c r="S13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I9</f>
         <v>3.6599999999999998E-22</v>
       </c>
-      <c r="R10" s="94">
+      <c r="T13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J9</f>
         <v>1.5199999999999999E-20</v>
       </c>
-      <c r="S10" s="123" t="str">
+      <c r="U13" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K9</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="T10" s="93">
+      <c r="V13" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C10</f>
         <v>2.097</v>
       </c>
-      <c r="U10" s="25">
+      <c r="W13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!D10</f>
         <v>1.125</v>
       </c>
-      <c r="V10" s="25">
+      <c r="X13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!E10</f>
         <v>-0.108</v>
       </c>
-      <c r="W10" s="25">
+      <c r="Y13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!F10</f>
         <v>4.3029999999999999</v>
       </c>
-      <c r="X10" s="25">
+      <c r="Z13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!G10</f>
         <v>1.8640000000000001</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="AA13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!H10</f>
         <v>611.98</v>
       </c>
-      <c r="Z10" s="94">
+      <c r="AB13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I10</f>
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="AA10" s="94">
+      <c r="AC13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J10</f>
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="AB10" s="123" t="str">
+      <c r="AD13" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K10</f>
         <v>(p&lt;0.1)</v>
       </c>
-      <c r="AC10" s="25">
+      <c r="AE13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!C11</f>
         <v>30.382999999999999</v>
       </c>
-      <c r="AD10" s="25">
+      <c r="AF13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!D11</f>
         <v>3.8359999999999999</v>
       </c>
-      <c r="AE10" s="25">
+      <c r="AG13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!E11</f>
         <v>22.864000000000001</v>
       </c>
-      <c r="AF10" s="25">
+      <c r="AH13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!F11</f>
         <v>37.902999999999999</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AI13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!G11</f>
         <v>7.92</v>
       </c>
-      <c r="AH10" s="25">
+      <c r="AJ13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!H11</f>
         <v>610.98</v>
       </c>
-      <c r="AI10" s="94">
+      <c r="AK13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I11</f>
         <v>1.13E-14</v>
       </c>
-      <c r="AJ10" s="94">
+      <c r="AL13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J11</f>
         <v>1.3500000000000001E-13</v>
       </c>
-      <c r="AK10" s="123" t="str">
+      <c r="AM13" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K11</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AL10" s="93">
+      <c r="AN13" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C12</f>
         <v>15.385999999999999</v>
       </c>
-      <c r="AM10" s="25">
+      <c r="AO13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!D12</f>
         <v>3.5409999999999999</v>
       </c>
-      <c r="AN10" s="25">
+      <c r="AP13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!E12</f>
         <v>8.4459999999999997</v>
       </c>
-      <c r="AO10" s="25">
+      <c r="AQ13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!F12</f>
         <v>22.326000000000001</v>
       </c>
-      <c r="AP10" s="25">
+      <c r="AR13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!G12</f>
         <v>4.3449999999999998</v>
       </c>
-      <c r="AQ10" s="25">
+      <c r="AS13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!H12</f>
         <v>610.25</v>
       </c>
-      <c r="AR10" s="94">
+      <c r="AT13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I12</f>
         <v>1.63E-5</v>
       </c>
-      <c r="AS10" s="94">
+      <c r="AU13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J12</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="AT10" s="123" t="str">
+      <c r="AV13" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K12</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="AU10" s="93">
+      <c r="AW13" s="93">
         <f>[17]Mode_PA_lh_slope_b1!C13</f>
         <v>-14.997999999999999</v>
       </c>
-      <c r="AV10" s="25">
+      <c r="AX13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!D13</f>
         <v>1.669</v>
       </c>
-      <c r="AW10" s="25">
+      <c r="AY13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!E13</f>
         <v>-18.268000000000001</v>
       </c>
-      <c r="AX10" s="25">
+      <c r="AZ13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!F13</f>
         <v>-11.727</v>
       </c>
-      <c r="AY10" s="25">
+      <c r="BA13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!G13</f>
         <v>-8.9870000000000001</v>
       </c>
-      <c r="AZ10" s="25">
+      <c r="BB13" s="25">
         <f>[17]Mode_PA_lh_slope_b1!H13</f>
         <v>610.23</v>
       </c>
-      <c r="BA10" s="94">
+      <c r="BC13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!I13</f>
         <v>3.1600000000000001E-18</v>
       </c>
-      <c r="BB10" s="94">
+      <c r="BD13" s="94">
         <f>[17]Mode_PA_lh_slope_b1!J13</f>
         <v>9.8799999999999998E-17</v>
       </c>
-      <c r="BC10" s="123" t="str">
+      <c r="BE13" s="123" t="str">
         <f>[17]Mode_PA_lh_slope_b1!K13</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="BD10" s="25">
-        <f>'B0 Mode'!AL10</f>
+    </row>
+    <row r="14" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="181"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="181"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="181"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="181"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="181"/>
+    </row>
+    <row r="15" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+    </row>
+    <row r="16" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="204" t="str">
+        <f>M4</f>
+        <v>L*H vs. L*^[H]</v>
+      </c>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
+      <c r="K16" s="204"/>
+      <c r="L16" s="204"/>
+    </row>
+    <row r="17" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="105" t="str">
+        <f>N5</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F17" s="105" t="str">
+        <f>O5</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G17" s="105" t="str">
+        <f>P5</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H17" s="105" t="str">
+        <f>Q5</f>
+        <v>t</v>
+      </c>
+      <c r="I17" s="105" t="str">
+        <f>R5</f>
+        <v>df</v>
+      </c>
+      <c r="J17" s="109" t="str">
+        <f>S5</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K17" s="109" t="str">
+        <f>T5</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L17" s="107" t="str">
+        <f>U5</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="76">
+        <f>B6</f>
+        <v>7.7364655662846102E-2</v>
+      </c>
+      <c r="C18" s="76">
+        <f>C6</f>
+        <v>0.963580594759613</v>
+      </c>
+      <c r="D18" s="76">
+        <f>M6</f>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="E18" s="76">
+        <f>N6</f>
+        <v>0.31</v>
+      </c>
+      <c r="F18" s="76">
+        <f>O6</f>
+        <v>-0.316</v>
+      </c>
+      <c r="G18" s="76">
+        <f>P6</f>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="H18" s="76">
+        <f>Q6</f>
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I18" s="76">
+        <f>R6</f>
+        <v>17.190000000000001</v>
+      </c>
+      <c r="J18" s="115">
+        <f>S6</f>
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="K18" s="115">
+        <f>T6</f>
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="L18" s="185">
+        <f>U6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="73">
+        <f>B7</f>
+        <v>0.18252779357841101</v>
+      </c>
+      <c r="C19" s="73">
+        <f>C7</f>
+        <v>0.941127033564787</v>
+      </c>
+      <c r="D19" s="73">
+        <f>M7</f>
+        <v>3.2879999999999998</v>
+      </c>
+      <c r="E19" s="73">
+        <f>N7</f>
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F19" s="73">
+        <f>O7</f>
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G19" s="73">
+        <f>P7</f>
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="H19" s="73">
+        <f>Q7</f>
+        <v>8.4990000000000006</v>
+      </c>
+      <c r="I19" s="73">
+        <f>R7</f>
+        <v>15.66</v>
+      </c>
+      <c r="J19" s="115">
+        <f>S7</f>
+        <v>2.9400000000000001E-7</v>
+      </c>
+      <c r="K19" s="115">
+        <f>T7</f>
+        <v>8.5499999999999997E-7</v>
+      </c>
+      <c r="L19" s="185" t="str">
+        <f>U7</f>
+        <v>p&lt;0.0001</v>
+      </c>
+      <c r="AT19" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="84">
+        <f>B8</f>
         <v>0.16441360628863</v>
       </c>
-      <c r="BE10" s="25">
-        <f>'B0 Mode'!AM10</f>
+      <c r="C20" s="84">
+        <f>C8</f>
         <v>0.70158142490362896</v>
       </c>
+      <c r="D20" s="84">
+        <f>M8</f>
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="E20" s="84">
+        <f>N8</f>
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F20" s="84">
+        <f>O8</f>
+        <v>2.9940000000000002</v>
+      </c>
+      <c r="G20" s="84">
+        <f>P8</f>
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="H20" s="84">
+        <f>Q8</f>
+        <v>10.432</v>
+      </c>
+      <c r="I20" s="84">
+        <f>R8</f>
+        <v>612.6</v>
+      </c>
+      <c r="J20" s="115">
+        <f>S8</f>
+        <v>1.4500000000000001E-23</v>
+      </c>
+      <c r="K20" s="115">
+        <f>T8</f>
+        <v>1.21E-21</v>
+      </c>
+      <c r="L20" s="185" t="str">
+        <f>U8</f>
+        <v>p&lt;0.0001</v>
+      </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="AR15" s="39" t="s">
-        <v>57</v>
+    <row r="21" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="105" t="str">
+        <f>N9</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F21" s="105" t="str">
+        <f>O9</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G21" s="105" t="str">
+        <f>P9</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H21" s="105" t="str">
+        <f>Q9</f>
+        <v>t</v>
+      </c>
+      <c r="I21" s="105" t="str">
+        <f>R9</f>
+        <v>df</v>
+      </c>
+      <c r="J21" s="109" t="str">
+        <f>S9</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K21" s="109" t="str">
+        <f>T9</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L21" s="107" t="str">
+        <f>U9</f>
+        <v>sig.</v>
       </c>
     </row>
+    <row r="22" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="76">
+        <f>B10</f>
+        <v>8.72894875399952E-2</v>
+      </c>
+      <c r="C22" s="76">
+        <f>C10</f>
+        <v>0.76096721773815101</v>
+      </c>
+      <c r="D22" s="74">
+        <f>M10</f>
+        <v>-10.583</v>
+      </c>
+      <c r="E22" s="76">
+        <f>N10</f>
+        <v>3.88</v>
+      </c>
+      <c r="F22" s="76">
+        <f>O10</f>
+        <v>-18.187000000000001</v>
+      </c>
+      <c r="G22" s="76">
+        <f>P10</f>
+        <v>-2.9790000000000001</v>
+      </c>
+      <c r="H22" s="76">
+        <f>Q10</f>
+        <v>-2.7280000000000002</v>
+      </c>
+      <c r="I22" s="76">
+        <f>R10</f>
+        <v>612.29999999999995</v>
+      </c>
+      <c r="J22" s="115">
+        <f>S10</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="K22" s="115">
+        <f>T10</f>
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="L22" s="185" t="str">
+        <f>U10</f>
+        <v>p&lt;0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="84">
+        <f>B11</f>
+        <v>0.11422688459456599</v>
+      </c>
+      <c r="C23" s="84">
+        <f>C11</f>
+        <v>0.84172260407700195</v>
+      </c>
+      <c r="D23" s="82">
+        <f>M11</f>
+        <v>-4.5490000000000004</v>
+      </c>
+      <c r="E23" s="84">
+        <f>N11</f>
+        <v>5.7919999999999998</v>
+      </c>
+      <c r="F23" s="84">
+        <f>O11</f>
+        <v>-15.901999999999999</v>
+      </c>
+      <c r="G23" s="84">
+        <f>P11</f>
+        <v>6.8029999999999999</v>
+      </c>
+      <c r="H23" s="84">
+        <f>Q11</f>
+        <v>-0.78500000000000003</v>
+      </c>
+      <c r="I23" s="84">
+        <f>R11</f>
+        <v>613.09</v>
+      </c>
+      <c r="J23" s="115">
+        <f>S11</f>
+        <v>0.4325</v>
+      </c>
+      <c r="K23" s="115">
+        <f>T11</f>
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="L23" s="185">
+        <f>U11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="105" t="str">
+        <f>N12</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F24" s="105" t="str">
+        <f>O12</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G24" s="105" t="str">
+        <f>P12</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H24" s="105" t="str">
+        <f>Q12</f>
+        <v>t</v>
+      </c>
+      <c r="I24" s="105" t="str">
+        <f>R12</f>
+        <v>df</v>
+      </c>
+      <c r="J24" s="109" t="str">
+        <f>S12</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K24" s="109" t="str">
+        <f>T12</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L24" s="107" t="str">
+        <f>U12</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="25">
+        <f>B13</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C25" s="25">
+        <f>C13</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D25" s="25">
+        <f>M13</f>
+        <v>17.094999999999999</v>
+      </c>
+      <c r="E25" s="25">
+        <f>N13</f>
+        <v>1.698</v>
+      </c>
+      <c r="F25" s="25">
+        <f>O13</f>
+        <v>13.766999999999999</v>
+      </c>
+      <c r="G25" s="25">
+        <f>P13</f>
+        <v>20.422999999999998</v>
+      </c>
+      <c r="H25" s="25">
+        <f>Q13</f>
+        <v>10.068</v>
+      </c>
+      <c r="I25" s="25">
+        <f>R13</f>
+        <v>609.98</v>
+      </c>
+      <c r="J25" s="94">
+        <f>S13</f>
+        <v>3.6599999999999998E-22</v>
+      </c>
+      <c r="K25" s="94">
+        <f>T13</f>
+        <v>1.5199999999999999E-20</v>
+      </c>
+      <c r="L25" s="181" t="str">
+        <f>U13</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="181"/>
+    </row>
+    <row r="27" spans="1:46" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="189" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="182"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+    </row>
+    <row r="28" spans="1:46" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="204" t="str">
+        <f>V4</f>
+        <v>L*H vs. ^[L*H]</v>
+      </c>
+      <c r="C28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="204"/>
+      <c r="L28" s="204"/>
+    </row>
+    <row r="29" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="105" t="str">
+        <f t="shared" ref="E28:E37" si="7">W5</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F29" s="105" t="str">
+        <f t="shared" ref="F28:F37" si="8">X5</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G29" s="105" t="str">
+        <f t="shared" ref="G28:G37" si="9">Y5</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H29" s="105" t="str">
+        <f t="shared" ref="H28:H37" si="10">Z5</f>
+        <v>t</v>
+      </c>
+      <c r="I29" s="105" t="str">
+        <f t="shared" ref="I28:I37" si="11">AA5</f>
+        <v>df</v>
+      </c>
+      <c r="J29" s="109" t="str">
+        <f t="shared" ref="J28:J37" si="12">AB5</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K29" s="109" t="str">
+        <f t="shared" ref="K28:K37" si="13">AC5</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L29" s="107" t="str">
+        <f t="shared" ref="L28:L37" si="14">AD5</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="76">
+        <f>B6</f>
+        <v>7.7364655662846102E-2</v>
+      </c>
+      <c r="C30" s="76">
+        <f>C6</f>
+        <v>0.963580594759613</v>
+      </c>
+      <c r="D30" s="76">
+        <f t="shared" ref="D28:D37" si="15">V6</f>
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="E30" s="76">
+        <f t="shared" si="7"/>
+        <v>0.497</v>
+      </c>
+      <c r="F30" s="76">
+        <f t="shared" si="8"/>
+        <v>1.49</v>
+      </c>
+      <c r="G30" s="76">
+        <f t="shared" si="9"/>
+        <v>3.44</v>
+      </c>
+      <c r="H30" s="76">
+        <f t="shared" si="10"/>
+        <v>4.9560000000000004</v>
+      </c>
+      <c r="I30" s="76">
+        <f t="shared" si="11"/>
+        <v>7.76</v>
+      </c>
+      <c r="J30" s="115">
+        <f t="shared" si="12"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K30" s="115">
+        <f t="shared" si="13"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="L30" s="185" t="str">
+        <f t="shared" si="14"/>
+        <v>p&lt;0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="73">
+        <f>B7</f>
+        <v>0.18252779357841101</v>
+      </c>
+      <c r="C31" s="73">
+        <f>C7</f>
+        <v>0.941127033564787</v>
+      </c>
+      <c r="D31" s="73">
+        <f t="shared" si="15"/>
+        <v>3.6779999999999999</v>
+      </c>
+      <c r="E31" s="73">
+        <f t="shared" si="7"/>
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="F31" s="73">
+        <f t="shared" si="8"/>
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="G31" s="73">
+        <f t="shared" si="9"/>
+        <v>5.25</v>
+      </c>
+      <c r="H31" s="73">
+        <f t="shared" si="10"/>
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="I31" s="73">
+        <f t="shared" si="11"/>
+        <v>6.95</v>
+      </c>
+      <c r="J31" s="115">
+        <f t="shared" si="12"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="K31" s="115">
+        <f t="shared" si="13"/>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="L31" s="185" t="str">
+        <f t="shared" si="14"/>
+        <v>p&lt;0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="84">
+        <f>B8</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C32" s="84">
+        <f>C8</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D32" s="84">
+        <f t="shared" si="15"/>
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E32" s="84">
+        <f t="shared" si="7"/>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F32" s="84">
+        <f t="shared" si="8"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G32" s="84">
+        <f t="shared" si="9"/>
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="H32" s="84">
+        <f t="shared" si="10"/>
+        <v>3.5950000000000002</v>
+      </c>
+      <c r="I32" s="84">
+        <f t="shared" si="11"/>
+        <v>614.21</v>
+      </c>
+      <c r="J32" s="115">
+        <f t="shared" si="12"/>
+        <v>3.5100000000000002E-4</v>
+      </c>
+      <c r="K32" s="115">
+        <f t="shared" si="13"/>
+        <v>7.3300000000000004E-4</v>
+      </c>
+      <c r="L32" s="185" t="str">
+        <f t="shared" si="14"/>
+        <v>p&lt;0.001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F33" s="105" t="str">
+        <f t="shared" si="8"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G33" s="105" t="str">
+        <f t="shared" si="9"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H33" s="105" t="str">
+        <f t="shared" si="10"/>
+        <v>t</v>
+      </c>
+      <c r="I33" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>df</v>
+      </c>
+      <c r="J33" s="109" t="str">
+        <f t="shared" si="12"/>
+        <v>p. val.</v>
+      </c>
+      <c r="K33" s="109" t="str">
+        <f t="shared" si="13"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L33" s="107" t="str">
+        <f t="shared" si="14"/>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="76">
+        <f>B10</f>
+        <v>8.72894875399952E-2</v>
+      </c>
+      <c r="C34" s="76">
+        <f>C10</f>
+        <v>0.76096721773815101</v>
+      </c>
+      <c r="D34" s="74">
+        <f t="shared" si="15"/>
+        <v>-14.881</v>
+      </c>
+      <c r="E34" s="76">
+        <f t="shared" si="7"/>
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="F34" s="76">
+        <f t="shared" si="8"/>
+        <v>-19.914000000000001</v>
+      </c>
+      <c r="G34" s="76">
+        <f t="shared" si="9"/>
+        <v>-9.8480000000000008</v>
+      </c>
+      <c r="H34" s="76">
+        <f t="shared" si="10"/>
+        <v>-5.7949999999999999</v>
+      </c>
+      <c r="I34" s="76">
+        <f t="shared" si="11"/>
+        <v>614.47</v>
+      </c>
+      <c r="J34" s="115">
+        <f t="shared" si="12"/>
+        <v>1.09E-8</v>
+      </c>
+      <c r="K34" s="115">
+        <f t="shared" si="13"/>
+        <v>3.7800000000000001E-8</v>
+      </c>
+      <c r="L34" s="185" t="str">
+        <f t="shared" si="14"/>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="84">
+        <f>B11</f>
+        <v>0.11422688459456599</v>
+      </c>
+      <c r="C35" s="84">
+        <f>C11</f>
+        <v>0.84172260407700195</v>
+      </c>
+      <c r="D35" s="82">
+        <f t="shared" si="15"/>
+        <v>-8.9060000000000006</v>
+      </c>
+      <c r="E35" s="84">
+        <f t="shared" si="7"/>
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="F35" s="84">
+        <f t="shared" si="8"/>
+        <v>-16.425000000000001</v>
+      </c>
+      <c r="G35" s="84">
+        <f t="shared" si="9"/>
+        <v>-1.3859999999999999</v>
+      </c>
+      <c r="H35" s="84">
+        <f t="shared" si="10"/>
+        <v>-2.3210000000000002</v>
+      </c>
+      <c r="I35" s="84">
+        <f t="shared" si="11"/>
+        <v>613.98</v>
+      </c>
+      <c r="J35" s="115">
+        <f t="shared" si="12"/>
+        <v>2.06E-2</v>
+      </c>
+      <c r="K35" s="115">
+        <f t="shared" si="13"/>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L35" s="185" t="str">
+        <f t="shared" si="14"/>
+        <v>p&lt;0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="105" t="str">
+        <f t="shared" si="15"/>
+        <v>β1</v>
+      </c>
+      <c r="E36" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F36" s="105" t="str">
+        <f t="shared" si="8"/>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G36" s="105" t="str">
+        <f t="shared" si="9"/>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H36" s="105" t="str">
+        <f t="shared" si="10"/>
+        <v>t</v>
+      </c>
+      <c r="I36" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>df</v>
+      </c>
+      <c r="J36" s="109" t="str">
+        <f t="shared" si="12"/>
+        <v>p. val.</v>
+      </c>
+      <c r="K36" s="109" t="str">
+        <f t="shared" si="13"/>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L36" s="107" t="str">
+        <f t="shared" si="14"/>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="25">
+        <f>B13</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C37" s="25">
+        <f>C13</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D37" s="25">
+        <f t="shared" si="15"/>
+        <v>2.097</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="7"/>
+        <v>1.125</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="8"/>
+        <v>-0.108</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="9"/>
+        <v>4.3029999999999999</v>
+      </c>
+      <c r="H37" s="25">
+        <f t="shared" si="10"/>
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="I37" s="25">
+        <f t="shared" si="11"/>
+        <v>611.98</v>
+      </c>
+      <c r="J37" s="94">
+        <f t="shared" si="12"/>
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="K37" s="94">
+        <f t="shared" si="13"/>
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="L37" s="181" t="str">
+        <f t="shared" si="14"/>
+        <v>(p&lt;0.1)</v>
+      </c>
+    </row>
+    <row r="38" spans="1:57" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="207" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="207"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+    </row>
+    <row r="39" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="188"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="188"/>
+      <c r="K39" s="188"/>
+      <c r="L39" s="188"/>
+    </row>
+    <row r="40" spans="1:57" s="190" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="189"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="186"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="187"/>
+      <c r="S40" s="191"/>
+      <c r="T40" s="191"/>
+      <c r="U40" s="191"/>
+      <c r="AB40" s="191"/>
+      <c r="AC40" s="191"/>
+      <c r="AD40" s="191"/>
+      <c r="AK40" s="191"/>
+      <c r="AL40" s="191"/>
+      <c r="AM40" s="191"/>
+      <c r="AT40" s="191"/>
+      <c r="AU40" s="191"/>
+      <c r="AV40" s="191"/>
+      <c r="BC40" s="191"/>
+      <c r="BD40" s="191"/>
+      <c r="BE40" s="191"/>
+    </row>
+    <row r="41" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="204" t="str">
+        <f>AE4</f>
+        <v>^[L]*H vs. L*^[H]</v>
+      </c>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="204"/>
+      <c r="L41" s="204"/>
+    </row>
+    <row r="42" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="105" t="str">
+        <f>AF5</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F42" s="105" t="str">
+        <f>AG5</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G42" s="105" t="str">
+        <f>AH5</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H42" s="105" t="str">
+        <f>AI5</f>
+        <v>t</v>
+      </c>
+      <c r="I42" s="105" t="str">
+        <f>AJ5</f>
+        <v>df</v>
+      </c>
+      <c r="J42" s="105" t="str">
+        <f>AK5</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K42" s="105" t="str">
+        <f>AL5</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L42" s="107" t="str">
+        <f>AM5</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="76">
+        <f>B6</f>
+        <v>7.7364655662846102E-2</v>
+      </c>
+      <c r="C43" s="76">
+        <f>C6</f>
+        <v>0.963580594759613</v>
+      </c>
+      <c r="D43" s="76">
+        <f>AE6</f>
+        <v>-1.2949999999999999</v>
+      </c>
+      <c r="E43" s="76">
+        <f>AF6</f>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F43" s="76">
+        <f>AG6</f>
+        <v>-2.641</v>
+      </c>
+      <c r="G43" s="76">
+        <f>AH6</f>
+        <v>0.05</v>
+      </c>
+      <c r="H43" s="76">
+        <f>AI6</f>
+        <v>-1.887</v>
+      </c>
+      <c r="I43" s="76">
+        <f>AJ6</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="115">
+        <f>AK6</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="115">
+        <f>AL6</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="185">
+        <f>AM6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="73">
+        <f>B7</f>
+        <v>0.18252779357841101</v>
+      </c>
+      <c r="C44" s="73">
+        <f>C7</f>
+        <v>0.941127033564787</v>
+      </c>
+      <c r="D44" s="73">
+        <f>AE7</f>
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="E44" s="73">
+        <f>AF7</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F44" s="73">
+        <f>AG7</f>
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="G44" s="73">
+        <f>AH7</f>
+        <v>6.5720000000000001</v>
+      </c>
+      <c r="H44" s="73">
+        <f>AI7</f>
+        <v>5.1710000000000003</v>
+      </c>
+      <c r="I44" s="73">
+        <f>AJ7</f>
+        <v>58.19</v>
+      </c>
+      <c r="J44" s="115">
+        <f>AK7</f>
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="K44" s="115">
+        <f>AL7</f>
+        <v>8.0600000000000008E-6</v>
+      </c>
+      <c r="L44" s="185" t="str">
+        <f>AM7</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="84">
+        <f>B8</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C45" s="84">
+        <f>C8</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D45" s="84">
+        <f>AE8</f>
+        <v>6.7839999999999998</v>
+      </c>
+      <c r="E45" s="84">
+        <f>AF8</f>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="F45" s="84">
+        <f>AG8</f>
+        <v>5.08</v>
+      </c>
+      <c r="G45" s="84">
+        <f>AH8</f>
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="H45" s="84">
+        <f>AI8</f>
+        <v>7.8040000000000003</v>
+      </c>
+      <c r="I45" s="84">
+        <f>AJ8</f>
+        <v>612.67999999999995</v>
+      </c>
+      <c r="J45" s="115">
+        <f>AK8</f>
+        <v>2.6E-14</v>
+      </c>
+      <c r="K45" s="115">
+        <f>AL8</f>
+        <v>2.4999999999999999E-13</v>
+      </c>
+      <c r="L45" s="185" t="str">
+        <f>AM8</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="105" t="str">
+        <f>AF9</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F46" s="105" t="str">
+        <f>AG9</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G46" s="105" t="str">
+        <f>AH9</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H46" s="105" t="str">
+        <f>AI9</f>
+        <v>t</v>
+      </c>
+      <c r="I46" s="105" t="str">
+        <f>AJ9</f>
+        <v>df</v>
+      </c>
+      <c r="J46" s="105" t="str">
+        <f>AK9</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K46" s="105" t="str">
+        <f>AL9</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L46" s="107" t="str">
+        <f>AM9</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="76">
+        <f>B10</f>
+        <v>8.72894875399952E-2</v>
+      </c>
+      <c r="C47" s="76">
+        <f>C10</f>
+        <v>0.76096721773815101</v>
+      </c>
+      <c r="D47" s="74">
+        <f>AE10</f>
+        <v>-3.8660000000000001</v>
+      </c>
+      <c r="E47" s="76">
+        <f>AF10</f>
+        <v>8.7729999999999997</v>
+      </c>
+      <c r="F47" s="76">
+        <f>AG10</f>
+        <v>-21.062000000000001</v>
+      </c>
+      <c r="G47" s="76">
+        <f>AH10</f>
+        <v>13.33</v>
+      </c>
+      <c r="H47" s="76">
+        <f>AI10</f>
+        <v>-0.441</v>
+      </c>
+      <c r="I47" s="76">
+        <f>AJ10</f>
+        <v>613.13</v>
+      </c>
+      <c r="J47" s="115">
+        <f>AK10</f>
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="K47" s="115">
+        <f>AL10</f>
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="L47" s="185">
+        <f>AM10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="84">
+        <f>B11</f>
+        <v>0.11422688459456599</v>
+      </c>
+      <c r="C48" s="84">
+        <f>C11</f>
+        <v>0.84172260407700195</v>
+      </c>
+      <c r="D48" s="82">
+        <f>AE11</f>
+        <v>68.968000000000004</v>
+      </c>
+      <c r="E48" s="84">
+        <f>AF11</f>
+        <v>13.101000000000001</v>
+      </c>
+      <c r="F48" s="84">
+        <f>AG11</f>
+        <v>43.290999999999997</v>
+      </c>
+      <c r="G48" s="84">
+        <f>AH11</f>
+        <v>94.644999999999996</v>
+      </c>
+      <c r="H48" s="84">
+        <f>AI11</f>
+        <v>5.2640000000000002</v>
+      </c>
+      <c r="I48" s="84">
+        <f>AJ11</f>
+        <v>613.47</v>
+      </c>
+      <c r="J48" s="115">
+        <f>AK11</f>
+        <v>1.9500000000000001E-7</v>
+      </c>
+      <c r="K48" s="115">
+        <f>AL11</f>
+        <v>5.7400000000000003E-7</v>
+      </c>
+      <c r="L48" s="185" t="str">
+        <f>AM11</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="105" t="str">
+        <f>AF12</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F49" s="105" t="str">
+        <f>AG12</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G49" s="105" t="str">
+        <f>AH12</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H49" s="105" t="str">
+        <f>AI12</f>
+        <v>t</v>
+      </c>
+      <c r="I49" s="105" t="str">
+        <f>AJ12</f>
+        <v>df</v>
+      </c>
+      <c r="J49" s="105" t="str">
+        <f>AK12</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K49" s="105" t="str">
+        <f>AL12</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L49" s="107" t="str">
+        <f>AM12</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="25">
+        <f>B13</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C50" s="25">
+        <f>C13</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D50" s="25">
+        <f>AE13</f>
+        <v>30.382999999999999</v>
+      </c>
+      <c r="E50" s="25">
+        <f>AF13</f>
+        <v>3.8359999999999999</v>
+      </c>
+      <c r="F50" s="25">
+        <f>AG13</f>
+        <v>22.864000000000001</v>
+      </c>
+      <c r="G50" s="25">
+        <f>AH13</f>
+        <v>37.902999999999999</v>
+      </c>
+      <c r="H50" s="25">
+        <f>AI13</f>
+        <v>7.92</v>
+      </c>
+      <c r="I50" s="25">
+        <f>AJ13</f>
+        <v>610.98</v>
+      </c>
+      <c r="J50" s="94">
+        <f>AK13</f>
+        <v>1.13E-14</v>
+      </c>
+      <c r="K50" s="94">
+        <f>AL13</f>
+        <v>1.3500000000000001E-13</v>
+      </c>
+      <c r="L50" s="181" t="str">
+        <f>AM13</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="181"/>
+    </row>
+    <row r="52" spans="1:57" s="190" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="186"/>
+      <c r="I52" s="186"/>
+      <c r="J52" s="186"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="187"/>
+      <c r="S52" s="191"/>
+      <c r="T52" s="191"/>
+      <c r="U52" s="191"/>
+      <c r="AB52" s="191"/>
+      <c r="AC52" s="191"/>
+      <c r="AD52" s="191"/>
+      <c r="AK52" s="191"/>
+      <c r="AL52" s="191"/>
+      <c r="AM52" s="191"/>
+      <c r="AT52" s="191"/>
+      <c r="AU52" s="191"/>
+      <c r="AV52" s="191"/>
+      <c r="BC52" s="191"/>
+      <c r="BD52" s="191"/>
+      <c r="BE52" s="191"/>
+    </row>
+    <row r="53" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="204" t="str">
+        <f>AN4</f>
+        <v>^[L]*H vs. ^[L*H]</v>
+      </c>
+      <c r="C53" s="204"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="204"/>
+      <c r="K53" s="204"/>
+      <c r="L53" s="204"/>
+    </row>
+    <row r="54" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="105" t="str">
+        <f>AO5</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F54" s="105" t="str">
+        <f>AP5</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G54" s="105" t="str">
+        <f>AQ5</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H54" s="105" t="str">
+        <f>AR5</f>
+        <v>t</v>
+      </c>
+      <c r="I54" s="105" t="str">
+        <f>AS5</f>
+        <v>df</v>
+      </c>
+      <c r="J54" s="105" t="str">
+        <f>AT5</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K54" s="105" t="str">
+        <f>AU5</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L54" s="107" t="str">
+        <f>AV5</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="76">
+        <f>B6</f>
+        <v>7.7364655662846102E-2</v>
+      </c>
+      <c r="C55" s="76">
+        <f>C6</f>
+        <v>0.963580594759613</v>
+      </c>
+      <c r="D55" s="76">
+        <f>AN6</f>
+        <v>0.877</v>
+      </c>
+      <c r="E55" s="76">
+        <f>AO6</f>
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F55" s="76">
+        <f>AP6</f>
+        <v>-0.65700000000000003</v>
+      </c>
+      <c r="G55" s="76">
+        <f>AQ6</f>
+        <v>2.411</v>
+      </c>
+      <c r="H55" s="76">
+        <f>AR6</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I55" s="76">
+        <f>AS6</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="115">
+        <f>AT6</f>
+        <v>1</v>
+      </c>
+      <c r="K55" s="115">
+        <f>AU6</f>
+        <v>1</v>
+      </c>
+      <c r="L55" s="185">
+        <f>AV6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="73">
+        <f>B7</f>
+        <v>0.18252779357841101</v>
+      </c>
+      <c r="C56" s="73">
+        <f>C7</f>
+        <v>0.941127033564787</v>
+      </c>
+      <c r="D56" s="73">
+        <f>AN7</f>
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="E56" s="73">
+        <f>AO7</f>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="F56" s="73">
+        <f>AP7</f>
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="G56" s="73">
+        <f>AQ7</f>
+        <v>7.2679999999999998</v>
+      </c>
+      <c r="H56" s="73">
+        <f>AR7</f>
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="I56" s="73">
+        <f>AS7</f>
+        <v>19.010000000000002</v>
+      </c>
+      <c r="J56" s="115">
+        <f>AT7</f>
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="K56" s="115">
+        <f>AU7</f>
+        <v>2.8299999999999999E-4</v>
+      </c>
+      <c r="L56" s="185" t="str">
+        <f>AV7</f>
+        <v>p&lt;0.001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="84">
+        <f>B8</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C57" s="84">
+        <f>C8</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D57" s="84">
+        <f>AN8</f>
+        <v>4.077</v>
+      </c>
+      <c r="E57" s="84">
+        <f>AO8</f>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F57" s="84">
+        <f>AP8</f>
+        <v>2.4510000000000001</v>
+      </c>
+      <c r="G57" s="84">
+        <f>AQ8</f>
+        <v>5.702</v>
+      </c>
+      <c r="H57" s="84">
+        <f>AR8</f>
+        <v>4.9160000000000004</v>
+      </c>
+      <c r="I57" s="84">
+        <f>AS8</f>
+        <v>612.36</v>
+      </c>
+      <c r="J57" s="115">
+        <f>AT8</f>
+        <v>1.1400000000000001E-6</v>
+      </c>
+      <c r="K57" s="115">
+        <f>AU8</f>
+        <v>3.1700000000000001E-6</v>
+      </c>
+      <c r="L57" s="185" t="str">
+        <f>AV8</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="105" t="str">
+        <f>AO9</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F58" s="105" t="str">
+        <f>AP9</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G58" s="105" t="str">
+        <f>AQ9</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H58" s="105" t="str">
+        <f>AR9</f>
+        <v>t</v>
+      </c>
+      <c r="I58" s="105" t="str">
+        <f>AS9</f>
+        <v>df</v>
+      </c>
+      <c r="J58" s="105" t="str">
+        <f>AT9</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K58" s="105" t="str">
+        <f>AU9</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L58" s="107" t="str">
+        <f>AV9</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="76">
+        <f>B10</f>
+        <v>8.72894875399952E-2</v>
+      </c>
+      <c r="C59" s="76">
+        <f>C10</f>
+        <v>0.76096721773815101</v>
+      </c>
+      <c r="D59" s="74">
+        <f>AN10</f>
+        <v>-8.1639999999999997</v>
+      </c>
+      <c r="E59" s="76">
+        <f>AO10</f>
+        <v>8.093</v>
+      </c>
+      <c r="F59" s="76">
+        <f>AP10</f>
+        <v>-24.026</v>
+      </c>
+      <c r="G59" s="76">
+        <f>AQ10</f>
+        <v>7.6970000000000001</v>
+      </c>
+      <c r="H59" s="76">
+        <f>AR10</f>
+        <v>-1.0089999999999999</v>
+      </c>
+      <c r="I59" s="76">
+        <f>AS10</f>
+        <v>613.91999999999996</v>
+      </c>
+      <c r="J59" s="115">
+        <f>AT10</f>
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="K59" s="115">
+        <f>AU10</f>
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="L59" s="185">
+        <f>AV10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="84">
+        <f>B11</f>
+        <v>0.11422688459456599</v>
+      </c>
+      <c r="C60" s="84">
+        <f>C11</f>
+        <v>0.84172260407700195</v>
+      </c>
+      <c r="D60" s="82">
+        <f>AN11</f>
+        <v>64.611999999999995</v>
+      </c>
+      <c r="E60" s="84">
+        <f>AO11</f>
+        <v>12.098000000000001</v>
+      </c>
+      <c r="F60" s="84">
+        <f>AP11</f>
+        <v>40.899000000000001</v>
+      </c>
+      <c r="G60" s="84">
+        <f>AQ11</f>
+        <v>88.323999999999998</v>
+      </c>
+      <c r="H60" s="84">
+        <f>AR11</f>
+        <v>5.3410000000000002</v>
+      </c>
+      <c r="I60" s="84">
+        <f>AS11</f>
+        <v>613.20000000000005</v>
+      </c>
+      <c r="J60" s="115">
+        <f>AT11</f>
+        <v>1.31E-7</v>
+      </c>
+      <c r="K60" s="115">
+        <f>AU11</f>
+        <v>3.9000000000000002E-7</v>
+      </c>
+      <c r="L60" s="185" t="str">
+        <f>AV11</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="105" t="str">
+        <f>AO12</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F61" s="105" t="str">
+        <f>AP12</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G61" s="105" t="str">
+        <f>AQ12</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H61" s="105" t="str">
+        <f>AR12</f>
+        <v>t</v>
+      </c>
+      <c r="I61" s="105" t="str">
+        <f>AS12</f>
+        <v>df</v>
+      </c>
+      <c r="J61" s="105" t="str">
+        <f>AT12</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K61" s="105" t="str">
+        <f>AU12</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L61" s="107" t="str">
+        <f>AV12</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="25">
+        <f>B13</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C62" s="25">
+        <f>C13</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D62" s="25">
+        <f>AN13</f>
+        <v>15.385999999999999</v>
+      </c>
+      <c r="E62" s="25">
+        <f>AO13</f>
+        <v>3.5409999999999999</v>
+      </c>
+      <c r="F62" s="25">
+        <f>AP13</f>
+        <v>8.4459999999999997</v>
+      </c>
+      <c r="G62" s="25">
+        <f>AQ13</f>
+        <v>22.326000000000001</v>
+      </c>
+      <c r="H62" s="25">
+        <f>AR13</f>
+        <v>4.3449999999999998</v>
+      </c>
+      <c r="I62" s="25">
+        <f>AS13</f>
+        <v>610.25</v>
+      </c>
+      <c r="J62" s="94">
+        <f>AT13</f>
+        <v>1.63E-5</v>
+      </c>
+      <c r="K62" s="94">
+        <f>AU13</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="L62" s="181" t="str">
+        <f>AV13</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="94"/>
+      <c r="K63" s="94"/>
+      <c r="L63" s="181"/>
+    </row>
+    <row r="64" spans="1:57" s="190" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="189" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="189"/>
+      <c r="C64" s="189"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="186"/>
+      <c r="H64" s="186"/>
+      <c r="I64" s="186"/>
+      <c r="J64" s="186"/>
+      <c r="K64" s="187"/>
+      <c r="L64" s="187"/>
+      <c r="S64" s="191"/>
+      <c r="T64" s="191"/>
+      <c r="U64" s="191"/>
+      <c r="AB64" s="191"/>
+      <c r="AC64" s="191"/>
+      <c r="AD64" s="191"/>
+      <c r="AK64" s="191"/>
+      <c r="AL64" s="191"/>
+      <c r="AM64" s="191"/>
+      <c r="AT64" s="191"/>
+      <c r="AU64" s="191"/>
+      <c r="AV64" s="191"/>
+      <c r="BC64" s="191"/>
+      <c r="BD64" s="191"/>
+      <c r="BE64" s="191"/>
+    </row>
+    <row r="65" spans="1:12" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="204" t="str">
+        <f>AW4</f>
+        <v>L*^[H] vs. ^[L*H]</v>
+      </c>
+      <c r="C65" s="204"/>
+      <c r="D65" s="204"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="204"/>
+      <c r="G65" s="204"/>
+      <c r="H65" s="204"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="204"/>
+      <c r="K65" s="204"/>
+      <c r="L65" s="204"/>
+    </row>
+    <row r="66" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="105" t="str">
+        <f>AX5</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F66" s="105" t="str">
+        <f>AY5</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G66" s="105" t="str">
+        <f>AZ5</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H66" s="105" t="str">
+        <f>BA5</f>
+        <v>t</v>
+      </c>
+      <c r="I66" s="105" t="str">
+        <f>BB5</f>
+        <v>df</v>
+      </c>
+      <c r="J66" s="105" t="str">
+        <f>BC5</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K66" s="105" t="str">
+        <f>BD5</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L66" s="105" t="str">
+        <f>BE5</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="76">
+        <f>B6</f>
+        <v>7.7364655662846102E-2</v>
+      </c>
+      <c r="C67" s="76">
+        <f>C6</f>
+        <v>0.963580594759613</v>
+      </c>
+      <c r="D67" s="76">
+        <f>AW6</f>
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="E67" s="76">
+        <f>AX6</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F67" s="76">
+        <f>AY6</f>
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="G67" s="76">
+        <f>AZ6</f>
+        <v>3.26</v>
+      </c>
+      <c r="H67" s="76">
+        <f>BA6</f>
+        <v>3.9129999999999998</v>
+      </c>
+      <c r="I67" s="76">
+        <f>BB6</f>
+        <v>11.67</v>
+      </c>
+      <c r="J67" s="115">
+        <f>BC6</f>
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="K67" s="115">
+        <f>BD6</f>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="L67" s="185" t="str">
+        <f>BE6</f>
+        <v>p&lt;0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="73">
+        <f>B7</f>
+        <v>0.18252779357841101</v>
+      </c>
+      <c r="C68" s="73">
+        <f>C7</f>
+        <v>0.941127033564787</v>
+      </c>
+      <c r="D68" s="73">
+        <f>AW7</f>
+        <v>0.39</v>
+      </c>
+      <c r="E68" s="73">
+        <f>AX7</f>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F68" s="73">
+        <f>AY7</f>
+        <v>-1.0489999999999999</v>
+      </c>
+      <c r="G68" s="73">
+        <f>AZ7</f>
+        <v>1.829</v>
+      </c>
+      <c r="H68" s="73">
+        <f>BA7</f>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I68" s="73">
+        <f>BB7</f>
+        <v>6.91</v>
+      </c>
+      <c r="J68" s="115">
+        <f>BC7</f>
+        <v>0.6119</v>
+      </c>
+      <c r="K68" s="115">
+        <f>BD7</f>
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="L68" s="185">
+        <f>BE7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="84">
+        <f>B8</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C69" s="84">
+        <f>C8</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D69" s="84">
+        <f>AW8</f>
+        <v>-2.7069999999999999</v>
+      </c>
+      <c r="E69" s="84">
+        <f>AX8</f>
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="F69" s="84">
+        <f>AY8</f>
+        <v>-3.3359999999999999</v>
+      </c>
+      <c r="G69" s="84">
+        <f>AZ8</f>
+        <v>-2.0779999999999998</v>
+      </c>
+      <c r="H69" s="84">
+        <f>BA8</f>
+        <v>-8.4350000000000005</v>
+      </c>
+      <c r="I69" s="84">
+        <f>BB8</f>
+        <v>612.34</v>
+      </c>
+      <c r="J69" s="115">
+        <f>BC8</f>
+        <v>2.3800000000000002E-16</v>
+      </c>
+      <c r="K69" s="115">
+        <f>BD8</f>
+        <v>4.1000000000000004E-15</v>
+      </c>
+      <c r="L69" s="185" t="str">
+        <f>BE8</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="105" t="str">
+        <f>AX9</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F70" s="105" t="str">
+        <f>AY9</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G70" s="105" t="str">
+        <f>AZ9</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H70" s="105" t="str">
+        <f>BA9</f>
+        <v>t</v>
+      </c>
+      <c r="I70" s="105" t="str">
+        <f>BB9</f>
+        <v>df</v>
+      </c>
+      <c r="J70" s="105" t="str">
+        <f>BC9</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K70" s="105" t="str">
+        <f>BD9</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L70" s="105" t="str">
+        <f>BE9</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="76">
+        <f>B10</f>
+        <v>8.72894875399952E-2</v>
+      </c>
+      <c r="C71" s="76">
+        <f>C10</f>
+        <v>0.76096721773815101</v>
+      </c>
+      <c r="D71" s="74">
+        <f>AW10</f>
+        <v>-4.298</v>
+      </c>
+      <c r="E71" s="76">
+        <f>AX10</f>
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="F71" s="76">
+        <f>AY10</f>
+        <v>-11.778</v>
+      </c>
+      <c r="G71" s="76">
+        <f>AZ10</f>
+        <v>3.181</v>
+      </c>
+      <c r="H71" s="76">
+        <f>BA10</f>
+        <v>-1.1259999999999999</v>
+      </c>
+      <c r="I71" s="76">
+        <f>BB10</f>
+        <v>613.9</v>
+      </c>
+      <c r="J71" s="115">
+        <f>BC10</f>
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="K71" s="115">
+        <f>BD10</f>
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="L71" s="185">
+        <f>BE10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="84">
+        <f>B11</f>
+        <v>0.11422688459456599</v>
+      </c>
+      <c r="C72" s="84">
+        <f>C11</f>
+        <v>0.84172260407700195</v>
+      </c>
+      <c r="D72" s="82">
+        <f>AW11</f>
+        <v>-4.3559999999999999</v>
+      </c>
+      <c r="E72" s="84">
+        <f>AX11</f>
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="F72" s="84">
+        <f>AY11</f>
+        <v>-15.536</v>
+      </c>
+      <c r="G72" s="84">
+        <f>AZ11</f>
+        <v>6.8230000000000004</v>
+      </c>
+      <c r="H72" s="84">
+        <f>BA11</f>
+        <v>-0.76400000000000001</v>
+      </c>
+      <c r="I72" s="84">
+        <f>BB11</f>
+        <v>613.19000000000005</v>
+      </c>
+      <c r="J72" s="115">
+        <f>BC11</f>
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="K72" s="115">
+        <f>BD11</f>
+        <v>0.5202</v>
+      </c>
+      <c r="L72" s="185">
+        <f>BE11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="105" t="str">
+        <f>AX12</f>
+        <v xml:space="preserve">SE </v>
+      </c>
+      <c r="F73" s="105" t="str">
+        <f>AY12</f>
+        <v>2.5% CI</v>
+      </c>
+      <c r="G73" s="105" t="str">
+        <f>AZ12</f>
+        <v>97.5% CI</v>
+      </c>
+      <c r="H73" s="105" t="str">
+        <f>BA12</f>
+        <v>t</v>
+      </c>
+      <c r="I73" s="105" t="str">
+        <f>BB12</f>
+        <v>df</v>
+      </c>
+      <c r="J73" s="105" t="str">
+        <f>BC12</f>
+        <v>p. val.</v>
+      </c>
+      <c r="K73" s="105" t="str">
+        <f>BD12</f>
+        <v>p.adj (BH)</v>
+      </c>
+      <c r="L73" s="105" t="str">
+        <f>BE12</f>
+        <v>sig.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="25">
+        <f>B13</f>
+        <v>0.16441360628863</v>
+      </c>
+      <c r="C74" s="25">
+        <f>C13</f>
+        <v>0.70158142490362896</v>
+      </c>
+      <c r="D74" s="25">
+        <f>AW13</f>
+        <v>-14.997999999999999</v>
+      </c>
+      <c r="E74" s="25">
+        <f>AX13</f>
+        <v>1.669</v>
+      </c>
+      <c r="F74" s="25">
+        <f>AY13</f>
+        <v>-18.268000000000001</v>
+      </c>
+      <c r="G74" s="25">
+        <f>AZ13</f>
+        <v>-11.727</v>
+      </c>
+      <c r="H74" s="25">
+        <f>BA13</f>
+        <v>-8.9870000000000001</v>
+      </c>
+      <c r="I74" s="25">
+        <f>BB13</f>
+        <v>610.23</v>
+      </c>
+      <c r="J74" s="94">
+        <f>BC13</f>
+        <v>3.1600000000000001E-18</v>
+      </c>
+      <c r="K74" s="94">
+        <f>BD13</f>
+        <v>9.8799999999999998E-17</v>
+      </c>
+      <c r="L74" s="181" t="str">
+        <f>BE13</f>
+        <v>p&lt;0.0001</v>
+      </c>
+    </row>
+    <row r="106" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:AB1"/>
-    <mergeCell ref="AC1:AK1"/>
-    <mergeCell ref="AL1:AT1"/>
-    <mergeCell ref="AU1:BC1"/>
+  <mergeCells count="13">
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B41:L41"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="V4:AD4"/>
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:BE4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B16:L16"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:I10 BA10:BB10 AR10:AS10 AI10:AJ10 Z10:AA10 Q10:R10 Q3:R8 Z3:AA8 AI3:AJ8 AR3:AS8 BA3:BB8 H3:I8">
-    <cfRule type="cellIs" dxfId="100" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="J13:K14 BC13:BD14 AT13:AU14 AK13:AL14 AB13:AC14 S13:T14 S6:T11 AB6:AC11 AK6:AL11 AT6:AU11 BC6:BD11 J6:K11">
+    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC10 AT10 AK10 AB10 S10 J10 J3:J8 S3:S8 AB3:AB8 AK3:AK8 AT3:AT8 BC3:BC8">
-    <cfRule type="containsText" dxfId="96" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
+  <conditionalFormatting sqref="BE13:BE14 AV13:AV14 AM13:AM14 AD13:AD14 U13:U14 L13:L14 L6:L11 U6:U11 AD6:AD11 AM6:AM11 AV6:AV11 BE6:BE11">
+    <cfRule type="containsText" dxfId="64" priority="46" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
-      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="47" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
-      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="48" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
-      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="49" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="50" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="36" orientation="landscape" r:id="rId1"/>
+  <conditionalFormatting sqref="J25:K26 J18:K23">
+    <cfRule type="cellIs" dxfId="59" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0.0001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="43" stopIfTrue="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L26 L18:L23">
+    <cfRule type="containsText" dxfId="55" priority="37" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="38" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="39" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="40" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="41" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37 J30:K35">
+    <cfRule type="cellIs" dxfId="50" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>0.0001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="36" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37 L30:L35">
+    <cfRule type="containsText" dxfId="46" priority="28" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="29" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="30" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="31" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="32" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50:K51 J43:K48">
+    <cfRule type="cellIs" dxfId="41" priority="24" stopIfTrue="1" operator="lessThan">
+      <formula>0.0001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="25" stopIfTrue="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="26" stopIfTrue="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:L51 L43:L48">
+    <cfRule type="containsText" dxfId="37" priority="19" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="20" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="21" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="22" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="23" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J62:K63 J55:K60">
+    <cfRule type="cellIs" dxfId="32" priority="15" stopIfTrue="1" operator="lessThan">
+      <formula>0.0001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62:L63 L55:L60">
+    <cfRule type="containsText" dxfId="28" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="11" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:K74 J67:K72">
+    <cfRule type="cellIs" dxfId="23" priority="6" stopIfTrue="1" operator="lessThan">
+      <formula>0.0001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" stopIfTrue="1" operator="lessThan">
+      <formula>0.001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="9" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74 L67:L72">
+    <cfRule type="containsText" dxfId="19" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+      <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="1.3779527559055118" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.78740157480314965" footer="0"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="11" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -23275,26 +26413,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="G5:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="3.28515625" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" customWidth="1"/>
+    <col min="26" max="26" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="25:28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="25:28" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="25:28" x14ac:dyDescent="0.3">
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>34</v>
       </c>
@@ -23314,44 +26452,44 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="151" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="158" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="151" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="158" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="159" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="159" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="159" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="157" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="157" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="157" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="151" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="151" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="159" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="159" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="157" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="157" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="151" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="151" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="159" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="159" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="159" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="159" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="159" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="159" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="159" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.42578125" style="152" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="152" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" style="152" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="159" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="159" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="159" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.109375" style="159" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" style="159" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" style="152" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="152" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="152" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" style="152" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="152" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" style="151" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="157" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="157" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="151" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" style="152" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5546875" style="151" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" style="157" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="157" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="151" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" style="151" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="151"/>
-    <col min="29" max="35" width="8.85546875" style="150"/>
-    <col min="36" max="36" width="2.85546875" style="150" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="151"/>
+    <col min="29" max="35" width="8.88671875" style="150"/>
+    <col min="36" max="36" width="2.88671875" style="150" customWidth="1"/>
     <col min="37" max="37" width="12" style="150" customWidth="1"/>
     <col min="38" max="38" width="13" style="150" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="150"/>
+    <col min="39" max="16384" width="8.88671875" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="8" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="8" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -23387,7 +26525,7 @@
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -23466,7 +26604,7 @@
       <c r="AB2" s="150"/>
       <c r="AC2" s="151"/>
     </row>
-    <row r="3" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="128" t="str">
         <f>RIGHT([7]Mode_PA_l_t_b0!A2,3)</f>
         <v>MDC</v>
@@ -23565,7 +26703,7 @@
       </c>
       <c r="AC3" s="163"/>
     </row>
-    <row r="4" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="128" t="str">
         <f>RIGHT([7]Mode_PA_l_t_b0!A3,3)</f>
         <v>MWH</v>
@@ -23664,7 +26802,7 @@
       </c>
       <c r="AC4" s="163"/>
     </row>
-    <row r="5" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="128" t="str">
         <f>RIGHT([7]Mode_PA_l_t_b0!A4,3)</f>
         <v>MYN</v>
@@ -23763,7 +26901,7 @@
       </c>
       <c r="AC5" s="163"/>
     </row>
-    <row r="6" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="128" t="str">
         <f>RIGHT([7]Mode_PA_l_t_b0!A5,3)</f>
         <v>MDQ</v>
@@ -23862,7 +27000,7 @@
       </c>
       <c r="AC6" s="163"/>
     </row>
-    <row r="7" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="128" t="str">
         <f>A18</f>
         <v>L*H</v>
@@ -23961,7 +27099,7 @@
       </c>
       <c r="AC7" s="163"/>
     </row>
-    <row r="8" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="128" t="str">
         <f>A19</f>
         <v>^[L*]H</v>
@@ -24060,7 +27198,7 @@
       </c>
       <c r="AC8" s="163"/>
     </row>
-    <row r="9" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="128" t="str">
         <f>A20</f>
         <v>L*^[H]</v>
@@ -24159,7 +27297,7 @@
       </c>
       <c r="AC9" s="163"/>
     </row>
-    <row r="10" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="136" t="str">
         <f>A21</f>
         <v>^[L*H]</v>
@@ -24258,7 +27396,7 @@
       </c>
       <c r="AC10" s="163"/>
     </row>
-    <row r="11" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="138"/>
       <c r="B11" s="139"/>
       <c r="C11" s="168"/>
@@ -24284,7 +27422,7 @@
       <c r="Y11" s="142"/>
       <c r="AC11" s="163"/>
     </row>
-    <row r="12" spans="1:29" s="8" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="8" customFormat="1" ht="29.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -24318,7 +27456,7 @@
       <c r="Y12" s="148"/>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -24395,7 +27533,7 @@
       </c>
       <c r="AC13" s="151"/>
     </row>
-    <row r="14" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A2,3)</f>
         <v>MDC</v>
@@ -24496,7 +27634,7 @@
       <c r="AB14" s="163"/>
       <c r="AC14" s="163"/>
     </row>
-    <row r="15" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A3,3)</f>
         <v>MWH</v>
@@ -24594,7 +27732,7 @@
         <v>9.7579999999999956</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A4,3)</f>
         <v>MYN</v>
@@ -24692,7 +27830,7 @@
         <v>9.7790000000000035</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A5,3)</f>
         <v>MDQ</v>
@@ -24790,7 +27928,7 @@
         <v>9.8880000000000017</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A6,3)</f>
         <v>L*H</v>
@@ -24889,7 +28027,7 @@
         <v>9.7590000000000039</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A7,6)</f>
         <v>^[L*]H</v>
@@ -24987,7 +28125,7 @@
         <v>12.040999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="128" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A8,6)</f>
         <v>L*^[H]</v>
@@ -25085,7 +28223,7 @@
         <v>10.304000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="str">
         <f>RIGHT([9]Mode_PA_h_t_b0!A9,6)</f>
         <v>^[L*H]</v>
@@ -25183,7 +28321,7 @@
         <v>10.001000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="150"/>
       <c r="B22" s="150"/>
       <c r="C22" s="150"/>
@@ -25213,7 +28351,7 @@
       <c r="AA22" s="150"/>
       <c r="AB22" s="150"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="150"/>
       <c r="B23" s="150"/>
       <c r="C23" s="150"/>
@@ -25243,7 +28381,7 @@
       <c r="AA23" s="150"/>
       <c r="AB23" s="150"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="150"/>
       <c r="B24" s="150"/>
       <c r="C24" s="150"/>
@@ -25270,7 +28408,7 @@
       <c r="AA24" s="150"/>
       <c r="AB24" s="150"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="150"/>
       <c r="B25" s="150"/>
       <c r="C25" s="150"/>
@@ -25300,7 +28438,7 @@
       <c r="AA25" s="150"/>
       <c r="AB25" s="150"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="150"/>
       <c r="B26" s="150"/>
       <c r="C26" s="150"/>
@@ -25330,7 +28468,7 @@
       <c r="AA26" s="150"/>
       <c r="AB26" s="150"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="150"/>
       <c r="B27" s="150"/>
       <c r="C27" s="150"/>
@@ -25360,7 +28498,7 @@
       <c r="AA27" s="150"/>
       <c r="AB27" s="150"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I28" s="159"/>
       <c r="J28" s="159"/>
       <c r="N28" s="152"/>
@@ -25372,7 +28510,7 @@
       <c r="AA28" s="150"/>
       <c r="AB28" s="150"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
       <c r="N29" s="152"/>
@@ -25384,11 +28522,11 @@
       <c r="AA29" s="150"/>
       <c r="AB29" s="150"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D30" s="150"/>
       <c r="E30" s="150"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I31" s="159"/>
       <c r="J31" s="159"/>
       <c r="N31" s="152"/>
@@ -25400,7 +28538,7 @@
       <c r="AA31" s="150"/>
       <c r="AB31" s="150"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I32" s="159"/>
       <c r="J32" s="159"/>
       <c r="N32" s="152"/>
@@ -25412,7 +28550,7 @@
       <c r="AA32" s="150"/>
       <c r="AB32" s="150"/>
     </row>
-    <row r="33" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I33" s="159"/>
       <c r="J33" s="159"/>
       <c r="N33" s="152"/>
@@ -25424,7 +28562,7 @@
       <c r="AA33" s="150"/>
       <c r="AB33" s="150"/>
     </row>
-    <row r="34" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I34" s="159"/>
       <c r="J34" s="159"/>
       <c r="N34" s="152"/>
@@ -25436,7 +28574,7 @@
       <c r="AA34" s="150"/>
       <c r="AB34" s="150"/>
     </row>
-    <row r="35" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I35" s="159"/>
       <c r="J35" s="159"/>
       <c r="N35" s="152"/>
@@ -25448,7 +28586,7 @@
       <c r="AA35" s="150"/>
       <c r="AB35" s="150"/>
     </row>
-    <row r="37" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I37" s="159"/>
       <c r="J37" s="159"/>
       <c r="N37" s="152"/>
@@ -25460,7 +28598,7 @@
       <c r="AA37" s="150"/>
       <c r="AB37" s="150"/>
     </row>
-    <row r="38" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I38" s="159"/>
       <c r="J38" s="159"/>
       <c r="N38" s="152"/>
@@ -25472,7 +28610,7 @@
       <c r="AA38" s="150"/>
       <c r="AB38" s="150"/>
     </row>
-    <row r="39" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I39" s="159"/>
       <c r="J39" s="159"/>
       <c r="N39" s="152"/>
@@ -25484,7 +28622,7 @@
       <c r="AA39" s="150"/>
       <c r="AB39" s="150"/>
     </row>
-    <row r="40" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I40" s="159"/>
       <c r="J40" s="159"/>
       <c r="N40" s="152"/>
@@ -25496,7 +28634,7 @@
       <c r="AA40" s="150"/>
       <c r="AB40" s="150"/>
     </row>
-    <row r="41" spans="9:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:28" x14ac:dyDescent="0.3">
       <c r="I41" s="159"/>
       <c r="J41" s="159"/>
       <c r="N41" s="152"/>
@@ -25508,112 +28646,112 @@
       <c r="AA41" s="150"/>
       <c r="AB41" s="150"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51" s="152"/>
       <c r="E51" s="152"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52" s="160"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53" s="160"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54" s="160"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55" s="160"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56" s="160"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57" s="160"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58" s="160"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D59" s="152"/>
       <c r="E59" s="152"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D60" s="152"/>
       <c r="E60" s="152"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 O14:Q21 X14:Y17 F3:H11 O3:Q11 X3:Y11">
-    <cfRule type="cellIs" dxfId="92" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="91" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:Q11">
-    <cfRule type="cellIs" dxfId="90" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:Q21">
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H21">
-    <cfRule type="cellIs" dxfId="88" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H10">
-    <cfRule type="cellIs" dxfId="87" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H10">
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q10">
-    <cfRule type="cellIs" dxfId="85" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q10">
-    <cfRule type="cellIs" dxfId="84" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Y10">
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F21">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H21">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:Q21">
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q21">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:Y21">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
